--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tf_z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B12170-E835-4C7F-8951-A161CF4107F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FEDBB8-0DDF-43F5-8F2A-F924CA567525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,38 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>康定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折多山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新都桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理塘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛娅草原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姊妹湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>措普沟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴塘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>义敦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,9 +83,6 @@
   <si>
     <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色达</t>
   </si>
   <si>
     <t>日瓦</t>
@@ -389,6 +354,243 @@
   </si>
   <si>
     <t>□大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康定 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折多山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折多山 43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新都桥 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理塘 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛娅草原 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姊妹湖 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>措普沟 32-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塘 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚拉雪山</t>
+  </si>
+  <si>
+    <t>梭坡古碉</t>
+  </si>
+  <si>
+    <t>甲居藏寨</t>
+  </si>
+  <si>
+    <t>丹巴</t>
+  </si>
+  <si>
+    <t>中路藏寨</t>
+  </si>
+  <si>
+    <t>巴郎山</t>
+  </si>
+  <si>
+    <t>四姑娘山</t>
+  </si>
+  <si>
+    <t>卧龙</t>
+  </si>
+  <si>
+    <t>映秀</t>
+  </si>
+  <si>
+    <t>都江堰</t>
+  </si>
+  <si>
+    <t>塔公草原 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨石公园 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党岭 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹巴 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴郎山 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四姑娘山 62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔康</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脚木沟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔公寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下瓦西村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可子寺 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宋达村 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">八美沟 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">俄满村 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木格措 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">木格措 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子沟红石公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉华滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅家梗红石滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海螺沟 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨西古镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡嘎山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">龙坝尾 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">咱地村 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡嘎山 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汶川 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕棚沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米亚罗 28-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观音桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色达 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡萨湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汶川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙洞子沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">列门 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翁达镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,22 +761,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -884,11 +1071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFE20D-EB13-420A-910A-D120BEE25FD9}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -903,74 +1090,73 @@
     <col min="9" max="9" width="5.06640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.06640625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06640625" style="10"/>
+    <col min="12" max="12" width="5.9296875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.73046875" style="10" customWidth="1"/>
     <col min="15" max="16" width="9.06640625" style="5"/>
     <col min="17" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E2" s="7"/>
       <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1183,7 @@
         <v>green</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N3" s="10" t="str">
         <f>IF(M3="circle","&lt;circle cx="""&amp;I3&amp;""" cy="""&amp;J3&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I3-conf!$B$6&amp;""" y="""&amp;J3-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1012,12 +1198,12 @@
         <v xml:space="preserve">M1116 369 </v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f t="shared" ref="D4:D15" si="0">IF(C4&lt;&gt;"",C4,B4)</f>
+        <f t="shared" ref="D4:D43" si="0">IF(C4&lt;&gt;"",C4,B4)</f>
         <v>雅安</v>
       </c>
       <c r="E4" s="8">
@@ -1039,7 +1225,7 @@
         <v>green</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N4" s="10" t="str">
         <f>IF(M4="circle","&lt;circle cx="""&amp;I4&amp;""" cy="""&amp;J4&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I4-conf!$B$6&amp;""" y="""&amp;J4-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1054,7 +1240,7 @@
         <v xml:space="preserve">L910 497 </v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1267,7 @@
         <v>green</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N5" s="10" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I5-conf!$B$6&amp;""" y="""&amp;J5-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1096,9 +1282,12 @@
         <v xml:space="preserve">L748 516 </v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1123,7 +1312,7 @@
         <v>green</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N6" s="10" t="str">
         <f>IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I6-conf!$B$6&amp;""" y="""&amp;J6-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1131,16 +1320,19 @@
       </c>
       <c r="O6" s="5" t="str">
         <f>N6&amp;"fill="""&amp;L6&amp;"""/&gt;&lt;text x="""&amp;I6+conf!$B$2&amp;""" y="""&amp;J6+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B6&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="688" y="494" width="10" height="10" fill="green"/&gt;&lt;text x="701" y="504" font-size="12"&gt;康定&lt;/text&gt;</v>
+        <v>&lt;rect x="688" y="494" width="10" height="10" fill="green"/&gt;&lt;text x="701" y="504" font-size="12"&gt;康定 26&lt;/text&gt;</v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L693 499 </v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1161,14 +1353,14 @@
         <v>476</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>IF(K7&lt;&gt;"",K7,conf!$B$5)</f>
         <v>red</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N7" s="10" t="str">
         <f>IF(M7="circle","&lt;circle cx="""&amp;I7&amp;""" cy="""&amp;J7&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I7-conf!$B$6&amp;""" y="""&amp;J7-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1176,19 +1368,19 @@
       </c>
       <c r="O7" s="5" t="str">
         <f>N7&amp;"fill="""&amp;L7&amp;"""/&gt;&lt;text x="""&amp;I7+conf!$B$2&amp;""" y="""&amp;J7+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B7&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="661" cy="476" r="6" fill="red"/&gt;&lt;text x="669" y="481" font-size="12"&gt;折多山&lt;/text&gt;</v>
+        <v>&lt;circle cx="661" cy="476" r="6" fill="red"/&gt;&lt;text x="669" y="481" font-size="12"&gt;折多山 43&lt;/text&gt;</v>
       </c>
       <c r="P7" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L661 476 </v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1213,7 +1405,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N8" s="10" t="str">
         <f>IF(M8="circle","&lt;circle cx="""&amp;I8&amp;""" cy="""&amp;J8&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I8-conf!$B$6&amp;""" y="""&amp;J8-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1221,16 +1413,19 @@
       </c>
       <c r="O8" s="5" t="str">
         <f>N8&amp;"fill="""&amp;L8&amp;"""/&gt;&lt;text x="""&amp;I8+conf!$B$2&amp;""" y="""&amp;J8+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B8&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="600" cy="488" r="6" fill="green"/&gt;&lt;text x="608" y="493" font-size="12"&gt;新都桥&lt;/text&gt;</v>
+        <v>&lt;circle cx="600" cy="488" r="6" fill="green"/&gt;&lt;text x="608" y="493" font-size="12"&gt;新都桥 35&lt;/text&gt;</v>
       </c>
       <c r="P8" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L600 488 </v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1251,14 +1446,14 @@
         <v>500</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="str">
         <f>IF(K9&lt;&gt;"",K9,conf!$B$5)</f>
         <v>red</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N9" s="10" t="str">
         <f>IF(M9="circle","&lt;circle cx="""&amp;I9&amp;""" cy="""&amp;J9&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I9-conf!$B$6&amp;""" y="""&amp;J9-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1266,19 +1461,19 @@
       </c>
       <c r="O9" s="5" t="str">
         <f>N9&amp;"fill="""&amp;L9&amp;"""/&gt;&lt;text x="""&amp;I9+conf!$B$2&amp;""" y="""&amp;J9+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B9&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="355" cy="500" r="6" fill="red"/&gt;&lt;text x="363" y="505" font-size="12"&gt;理塘&lt;/text&gt;</v>
+        <v>&lt;circle cx="355" cy="500" r="6" fill="red"/&gt;&lt;text x="363" y="505" font-size="12"&gt;理塘 40&lt;/text&gt;</v>
       </c>
       <c r="P9" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L355 500 </v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1299,14 +1494,14 @@
         <v>435</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="str">
         <f>IF(K10&lt;&gt;"",K10,conf!$B$5)</f>
         <v>red</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N10" s="10" t="str">
         <f>IF(M10="circle","&lt;circle cx="""&amp;I10&amp;""" cy="""&amp;J10&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I10-conf!$B$6&amp;""" y="""&amp;J10-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1314,19 +1509,19 @@
       </c>
       <c r="O10" s="5" t="str">
         <f>N10&amp;"fill="""&amp;L10&amp;"""/&gt;&lt;text x="""&amp;I10+conf!$B$2&amp;""" y="""&amp;J10+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B10&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="236" cy="435" r="6" fill="red"/&gt;&lt;text x="244" y="440" font-size="12"&gt;毛娅草原&lt;/text&gt;</v>
+        <v>&lt;circle cx="236" cy="435" r="6" fill="red"/&gt;&lt;text x="244" y="440" font-size="12"&gt;毛娅草原 40&lt;/text&gt;</v>
       </c>
       <c r="P10" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L236 435 </v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1350,14 +1545,14 @@
         <v>426</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="str">
         <f>IF(K11&lt;&gt;"",K11,conf!$B$5)</f>
         <v>red</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N11" s="10" t="str">
         <f>IF(M11="circle","&lt;circle cx="""&amp;I11&amp;""" cy="""&amp;J11&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I11-conf!$B$6&amp;""" y="""&amp;J11-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1365,19 +1560,19 @@
       </c>
       <c r="O11" s="5" t="str">
         <f>N11&amp;"fill="""&amp;L11&amp;"""/&gt;&lt;text x="""&amp;I11+conf!$B$2&amp;""" y="""&amp;J11+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B11&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="191" cy="426" r="6" fill="red"/&gt;&lt;text x="199" y="431" font-size="12"&gt;姊妹湖&lt;/text&gt;</v>
+        <v>&lt;circle cx="191" cy="426" r="6" fill="red"/&gt;&lt;text x="199" y="431" font-size="12"&gt;姊妹湖 47&lt;/text&gt;</v>
       </c>
       <c r="P11" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L191 426 </v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1398,14 +1593,14 @@
         <v>436</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="str">
         <f>IF(K12&lt;&gt;"",K12,conf!$B$5)</f>
         <v>red</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N12" s="10" t="str">
         <f>IF(M12="circle","&lt;circle cx="""&amp;I12&amp;""" cy="""&amp;J12&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I12-conf!$B$6&amp;""" y="""&amp;J12-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1413,16 +1608,19 @@
       </c>
       <c r="O12" s="5" t="str">
         <f>N12&amp;"fill="""&amp;L12&amp;"""/&gt;&lt;text x="""&amp;I12+conf!$B$2&amp;""" y="""&amp;J12+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B12&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="172" cy="436" r="6" fill="red"/&gt;&lt;text x="180" y="441" font-size="12"&gt;措普沟&lt;/text&gt;</v>
+        <v>&lt;circle cx="172" cy="436" r="6" fill="red"/&gt;&lt;text x="180" y="441" font-size="12"&gt;措普沟 32-45&lt;/text&gt;</v>
       </c>
       <c r="P12" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L172 436 </v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1447,7 +1645,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N13" s="10" t="str">
         <f>IF(M13="circle","&lt;circle cx="""&amp;I13&amp;""" cy="""&amp;J13&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I13-conf!$B$6&amp;""" y="""&amp;J13-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1455,19 +1653,19 @@
       </c>
       <c r="O13" s="5" t="str">
         <f>N13&amp;"fill="""&amp;L13&amp;"""/&gt;&lt;text x="""&amp;I13+conf!$B$2&amp;""" y="""&amp;J13+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B13&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="118" y="493" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="503" font-size="12"&gt;巴塘&lt;/text&gt;</v>
+        <v>&lt;rect x="118" y="493" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="503" font-size="12"&gt;巴塘 30&lt;/text&gt;</v>
       </c>
       <c r="P13" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">L123 498 </v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1492,7 +1690,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N14" s="10" t="str">
         <f>IF(M14="circle","&lt;circle cx="""&amp;I14&amp;""" cy="""&amp;J14&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I14-conf!$B$6&amp;""" y="""&amp;J14-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1503,9 +1701,12 @@
         <v>&lt;rect x="389" y="783" width="10" height="10" fill="green"/&gt;&lt;text x="402" y="793" font-size="12"&gt;日瓦&lt;/text&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1530,7 +1731,7 @@
         <v>green</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N15" s="10" t="str">
         <f>IF(M15="circle","&lt;circle cx="""&amp;I15&amp;""" cy="""&amp;J15&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I15-conf!$B$6&amp;""" y="""&amp;J15-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
@@ -1538,7 +1739,1217 @@
       </c>
       <c r="O15" s="5" t="str">
         <f>N15&amp;"fill="""&amp;L15&amp;"""/&gt;&lt;text x="""&amp;I15+conf!$B$2&amp;""" y="""&amp;J15+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B15&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="368" cy="45" r="6" fill="green"/&gt;&lt;text x="376" y="50" font-size="12"&gt;色达&lt;/text&gt;</v>
+        <v>&lt;circle cx="368" cy="45" r="6" fill="green"/&gt;&lt;text x="376" y="50" font-size="12"&gt;色达 39&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>塔公寺</v>
+      </c>
+      <c r="E16" s="8">
+        <v>101.528742835904</v>
+      </c>
+      <c r="F16" s="8">
+        <v>30.3249315436282</v>
+      </c>
+      <c r="I16" s="10">
+        <f>ROUND((E16-conf!$B$10)*conf!$B$7+G16,0)</f>
+        <v>606</v>
+      </c>
+      <c r="J16" s="10">
+        <f>ROUND((conf!$B$11-F16)*conf!$B$8+H16,0)</f>
+        <v>435</v>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f>IF(K16&lt;&gt;"",K16,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="10" t="str">
+        <f>IF(M16="circle","&lt;circle cx="""&amp;I16&amp;""" cy="""&amp;J16&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I16-conf!$B$6&amp;""" y="""&amp;J16-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="606" cy="435" r="6" </v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f>N16&amp;"fill="""&amp;L16&amp;"""/&gt;&lt;text x="""&amp;I16+conf!$B$2&amp;""" y="""&amp;J16+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B16&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="606" cy="435" r="6" fill="green"/&gt;&lt;text x="614" y="440" font-size="12"&gt;塔公草原 37&lt;/text&gt;</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f>"M"&amp;I16&amp;" "&amp;J16&amp;" "</f>
+        <v xml:space="preserve">M606 435 </v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>下瓦西村</v>
+      </c>
+      <c r="E17" s="8">
+        <v>101.56605215865</v>
+      </c>
+      <c r="F17" s="8">
+        <v>30.445635306429899</v>
+      </c>
+      <c r="I17" s="10">
+        <f>ROUND((E17-conf!$B$10)*conf!$B$7+G17,0)</f>
+        <v>613</v>
+      </c>
+      <c r="J17" s="10">
+        <f>ROUND((conf!$B$11-F17)*conf!$B$8+H17,0)</f>
+        <v>411</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f>IF(K17&lt;&gt;"",K17,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f>IF(M17="circle","&lt;circle cx="""&amp;I17&amp;""" cy="""&amp;J17&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I17-conf!$B$6&amp;""" y="""&amp;J17-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="613" cy="411" r="6" </v>
+      </c>
+      <c r="O17" s="5" t="str">
+        <f>N17&amp;"fill="""&amp;L17&amp;"""/&gt;&lt;text x="""&amp;I17+conf!$B$2&amp;""" y="""&amp;J17+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B17&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="613" cy="411" r="6" fill="green"/&gt;&lt;text x="621" y="416" font-size="12"&gt;墨石公园 35&lt;/text&gt;</v>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f t="shared" ref="P17:P22" si="2">"L"&amp;I17&amp;" "&amp;J17&amp;" "</f>
+        <v xml:space="preserve">L613 411 </v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">可子寺 </v>
+      </c>
+      <c r="E18" s="8">
+        <v>101.5435568819</v>
+      </c>
+      <c r="F18" s="8">
+        <v>30.5542786875186</v>
+      </c>
+      <c r="I18" s="10">
+        <f>ROUND((E18-conf!$B$10)*conf!$B$7+G18,0)</f>
+        <v>609</v>
+      </c>
+      <c r="J18" s="10">
+        <f>ROUND((conf!$B$11-F18)*conf!$B$8+H18,0)</f>
+        <v>389</v>
+      </c>
+      <c r="L18" s="10" t="str">
+        <f>IF(K18&lt;&gt;"",K18,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="10" t="str">
+        <f>IF(M18="circle","&lt;circle cx="""&amp;I18&amp;""" cy="""&amp;J18&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I18-conf!$B$6&amp;""" y="""&amp;J18-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="609" cy="389" r="6" </v>
+      </c>
+      <c r="O18" s="5" t="str">
+        <f>N18&amp;"fill="""&amp;L18&amp;"""/&gt;&lt;text x="""&amp;I18+conf!$B$2&amp;""" y="""&amp;J18+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B18&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="609" cy="389" r="6" fill="green"/&gt;&lt;text x="617" y="394" font-size="12"&gt;亚拉雪山&lt;/text&gt;</v>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">L609 389 </v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>IF(C19&lt;&gt;"",C19,B19)</f>
+        <v>甲居藏寨</v>
+      </c>
+      <c r="E19" s="8">
+        <v>101.88079999999999</v>
+      </c>
+      <c r="F19" s="8">
+        <v>30.92324</v>
+      </c>
+      <c r="H19" s="4">
+        <v>25</v>
+      </c>
+      <c r="I19" s="10">
+        <f>ROUND((E19-conf!$B$10)*conf!$B$7+G19,0)</f>
+        <v>676</v>
+      </c>
+      <c r="J19" s="10">
+        <f>ROUND((conf!$B$11-F19)*conf!$B$8+H19,0)</f>
+        <v>340</v>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f>IF(K19&lt;&gt;"",K19,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="10" t="str">
+        <f>IF(M19="circle","&lt;circle cx="""&amp;I19&amp;""" cy="""&amp;J19&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I19-conf!$B$6&amp;""" y="""&amp;J19-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="676" cy="340" r="6" </v>
+      </c>
+      <c r="O19" s="5" t="str">
+        <f>N19&amp;"fill="""&amp;L19&amp;"""/&gt;&lt;text x="""&amp;I19+conf!$B$2&amp;""" y="""&amp;J19+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B19&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="676" cy="340" r="6" fill="green"/&gt;&lt;text x="684" y="345" font-size="12"&gt;甲居藏寨&lt;/text&gt;</v>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">L676 340 </v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>IF(C20&lt;&gt;"",C20,B20)</f>
+        <v xml:space="preserve">俄满村 </v>
+      </c>
+      <c r="E20" s="8">
+        <v>101.93311577986501</v>
+      </c>
+      <c r="F20" s="8">
+        <v>30.9086779323606</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10">
+        <f>ROUND((E20-conf!$B$10)*conf!$B$7+G20,0)</f>
+        <v>687</v>
+      </c>
+      <c r="J20" s="10">
+        <f>ROUND((conf!$B$11-F20)*conf!$B$8+H20,0)</f>
+        <v>328</v>
+      </c>
+      <c r="L20" s="10" t="str">
+        <f>IF(K20&lt;&gt;"",K20,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f>IF(M20="circle","&lt;circle cx="""&amp;I20&amp;""" cy="""&amp;J20&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I20-conf!$B$6&amp;""" y="""&amp;J20-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="687" cy="328" r="6" </v>
+      </c>
+      <c r="O20" s="5" t="str">
+        <f>N20&amp;"fill="""&amp;L20&amp;"""/&gt;&lt;text x="""&amp;I20+conf!$B$2&amp;""" y="""&amp;J20+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B20&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="687" cy="328" r="6" fill="green"/&gt;&lt;text x="695" y="333" font-size="12"&gt;中路藏寨&lt;/text&gt;</v>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">L687 328 </v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f>IF(C21&lt;&gt;"",C21,B21)</f>
+        <v>丹巴</v>
+      </c>
+      <c r="E21" s="8">
+        <v>101.8964</v>
+      </c>
+      <c r="F21" s="8">
+        <v>30.88477</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I21" s="10">
+        <f>ROUND((E21-conf!$B$10)*conf!$B$7+G21,0)</f>
+        <v>679</v>
+      </c>
+      <c r="J21" s="10">
+        <f>ROUND((conf!$B$11-F21)*conf!$B$8+H21,0)</f>
+        <v>313</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f>IF(K21&lt;&gt;"",K21,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f>IF(M21="circle","&lt;circle cx="""&amp;I21&amp;""" cy="""&amp;J21&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I21-conf!$B$6&amp;""" y="""&amp;J21-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="674" y="308" width="10" height="10" </v>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>N21&amp;"fill="""&amp;L21&amp;"""/&gt;&lt;text x="""&amp;I21+conf!$B$2&amp;""" y="""&amp;J21+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B21&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="674" y="308" width="10" height="10" fill="green"/&gt;&lt;text x="687" y="318" font-size="12"&gt;丹巴 19&lt;/text&gt;</v>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">L679 313 </v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>IF(C22&lt;&gt;"",C22,B22)</f>
+        <v xml:space="preserve">宋达村 </v>
+      </c>
+      <c r="E22" s="8">
+        <v>101.934586575477</v>
+      </c>
+      <c r="F22" s="8">
+        <v>30.855898351717698</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-30</v>
+      </c>
+      <c r="I22" s="10">
+        <f>ROUND((E22-conf!$B$10)*conf!$B$7+G22,0)</f>
+        <v>687</v>
+      </c>
+      <c r="J22" s="10">
+        <f>ROUND((conf!$B$11-F22)*conf!$B$8+H22,0)</f>
+        <v>299</v>
+      </c>
+      <c r="L22" s="10" t="str">
+        <f>IF(K22&lt;&gt;"",K22,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="10" t="str">
+        <f>IF(M22="circle","&lt;circle cx="""&amp;I22&amp;""" cy="""&amp;J22&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I22-conf!$B$6&amp;""" y="""&amp;J22-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="687" cy="299" r="6" </v>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>N22&amp;"fill="""&amp;L22&amp;"""/&gt;&lt;text x="""&amp;I22+conf!$B$2&amp;""" y="""&amp;J22+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B22&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="687" cy="299" r="6" fill="green"/&gt;&lt;text x="695" y="304" font-size="12"&gt;梭坡古碉&lt;/text&gt;</v>
+      </c>
+      <c r="P22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">L687 299 </v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">八美沟 </v>
+      </c>
+      <c r="E23" s="8">
+        <v>101.438509754207</v>
+      </c>
+      <c r="F23" s="8">
+        <v>30.995421142445199</v>
+      </c>
+      <c r="I23" s="10">
+        <f>ROUND((E23-conf!$B$10)*conf!$B$7+G23,0)</f>
+        <v>588</v>
+      </c>
+      <c r="J23" s="10">
+        <f>ROUND((conf!$B$11-F23)*conf!$B$8+H23,0)</f>
+        <v>301</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f>IF(K23&lt;&gt;"",K23,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" s="10" t="str">
+        <f>IF(M23="circle","&lt;circle cx="""&amp;I23&amp;""" cy="""&amp;J23&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I23-conf!$B$6&amp;""" y="""&amp;J23-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="588" cy="301" r="6" </v>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>N23&amp;"fill="""&amp;L23&amp;"""/&gt;&lt;text x="""&amp;I23+conf!$B$2&amp;""" y="""&amp;J23+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B23&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="588" cy="301" r="6" fill="green"/&gt;&lt;text x="596" y="306" font-size="12"&gt;党岭 33&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>巴郎山</v>
+      </c>
+      <c r="E24" s="8">
+        <v>102.9085</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30.94097</v>
+      </c>
+      <c r="I24" s="10">
+        <f>ROUND((E24-conf!$B$10)*conf!$B$7+G24,0)</f>
+        <v>882</v>
+      </c>
+      <c r="J24" s="10">
+        <f>ROUND((conf!$B$11-F24)*conf!$B$8+H24,0)</f>
+        <v>312</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="10" t="str">
+        <f>IF(K24&lt;&gt;"",K24,conf!$B$5)</f>
+        <v>red</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f>IF(M24="circle","&lt;circle cx="""&amp;I24&amp;""" cy="""&amp;J24&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I24-conf!$B$6&amp;""" y="""&amp;J24-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="882" cy="312" r="6" </v>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>N24&amp;"fill="""&amp;L24&amp;"""/&gt;&lt;text x="""&amp;I24+conf!$B$2&amp;""" y="""&amp;J24+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B24&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="882" cy="312" r="6" fill="red"/&gt;&lt;text x="890" y="317" font-size="12"&gt;巴郎山 45&lt;/text&gt;</v>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f>"L"&amp;I24&amp;" "&amp;J24&amp;" "</f>
+        <v xml:space="preserve">L882 312 </v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>四姑娘山</v>
+      </c>
+      <c r="E25" s="8">
+        <v>102.81870000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>31.035119999999999</v>
+      </c>
+      <c r="I25" s="10">
+        <f>ROUND((E25-conf!$B$10)*conf!$B$7+G25,0)</f>
+        <v>864</v>
+      </c>
+      <c r="J25" s="10">
+        <f>ROUND((conf!$B$11-F25)*conf!$B$8+H25,0)</f>
+        <v>293</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f>IF(K25&lt;&gt;"",K25,conf!$B$5)</f>
+        <v>red</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f>IF(M25="circle","&lt;circle cx="""&amp;I25&amp;""" cy="""&amp;J25&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I25-conf!$B$6&amp;""" y="""&amp;J25-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="864" cy="293" r="6" </v>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>N25&amp;"fill="""&amp;L25&amp;"""/&gt;&lt;text x="""&amp;I25+conf!$B$2&amp;""" y="""&amp;J25+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B25&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="864" cy="293" r="6" fill="red"/&gt;&lt;text x="872" y="298" font-size="12"&gt;四姑娘山 62&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">脚木沟 </v>
+      </c>
+      <c r="E26" s="8">
+        <v>103.20159062269801</v>
+      </c>
+      <c r="F26" s="8">
+        <v>31.0574249622195</v>
+      </c>
+      <c r="I26" s="10">
+        <f>ROUND((E26-conf!$B$10)*conf!$B$7+G26,0)</f>
+        <v>940</v>
+      </c>
+      <c r="J26" s="10">
+        <f>ROUND((conf!$B$11-F26)*conf!$B$8+H26,0)</f>
+        <v>289</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f>IF(K26&lt;&gt;"",K26,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f>IF(M26="circle","&lt;circle cx="""&amp;I26&amp;""" cy="""&amp;J26&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I26-conf!$B$6&amp;""" y="""&amp;J26-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="935" y="284" width="10" height="10" </v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>N26&amp;"fill="""&amp;L26&amp;"""/&gt;&lt;text x="""&amp;I26+conf!$B$2&amp;""" y="""&amp;J26+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B26&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="935" y="284" width="10" height="10" fill="green"/&gt;&lt;text x="948" y="294" font-size="12"&gt;卧龙&lt;/text&gt;</v>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f t="shared" ref="P26:P28" si="3">"L"&amp;I26&amp;" "&amp;J26&amp;" "</f>
+        <v xml:space="preserve">L940 289 </v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>映秀</v>
+      </c>
+      <c r="E27" s="8">
+        <v>103.4939</v>
+      </c>
+      <c r="F27" s="8">
+        <v>31.059889999999999</v>
+      </c>
+      <c r="I27" s="10">
+        <f>ROUND((E27-conf!$B$10)*conf!$B$7+G27,0)</f>
+        <v>999</v>
+      </c>
+      <c r="J27" s="10">
+        <f>ROUND((conf!$B$11-F27)*conf!$B$8+H27,0)</f>
+        <v>288</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f>IF(K27&lt;&gt;"",K27,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f>IF(M27="circle","&lt;circle cx="""&amp;I27&amp;""" cy="""&amp;J27&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I27-conf!$B$6&amp;""" y="""&amp;J27-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="994" y="283" width="10" height="10" </v>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>N27&amp;"fill="""&amp;L27&amp;"""/&gt;&lt;text x="""&amp;I27+conf!$B$2&amp;""" y="""&amp;J27+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B27&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="994" y="283" width="10" height="10" fill="green"/&gt;&lt;text x="1007" y="293" font-size="12"&gt;映秀&lt;/text&gt;</v>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">L999 288 </v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>都江堰</v>
+      </c>
+      <c r="E28" s="8">
+        <v>103.65349999999999</v>
+      </c>
+      <c r="F28" s="8">
+        <v>30.994260000000001</v>
+      </c>
+      <c r="I28" s="10">
+        <f>ROUND((E28-conf!$B$10)*conf!$B$7+G28,0)</f>
+        <v>1031</v>
+      </c>
+      <c r="J28" s="10">
+        <f>ROUND((conf!$B$11-F28)*conf!$B$8+H28,0)</f>
+        <v>301</v>
+      </c>
+      <c r="L28" s="10" t="str">
+        <f>IF(K28&lt;&gt;"",K28,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="10" t="str">
+        <f>IF(M28="circle","&lt;circle cx="""&amp;I28&amp;""" cy="""&amp;J28&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I28-conf!$B$6&amp;""" y="""&amp;J28-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="1031" cy="301" r="6" </v>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>N28&amp;"fill="""&amp;L28&amp;"""/&gt;&lt;text x="""&amp;I28+conf!$B$2&amp;""" y="""&amp;J28+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B28&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="1031" cy="301" r="6" fill="green"/&gt;&lt;text x="1039" y="306" font-size="12"&gt;都江堰&lt;/text&gt;</v>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">L1031 301 </v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>马尔康</v>
+      </c>
+      <c r="E29" s="8">
+        <v>102.21350208208401</v>
+      </c>
+      <c r="F29" s="8">
+        <v>31.911747955647702</v>
+      </c>
+      <c r="I29" s="10">
+        <f>ROUND((E29-conf!$B$10)*conf!$B$7+G29,0)</f>
+        <v>743</v>
+      </c>
+      <c r="J29" s="10">
+        <f>ROUND((conf!$B$11-F29)*conf!$B$8+H29,0)</f>
+        <v>118</v>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f>IF(K29&lt;&gt;"",K29,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N29" s="10" t="str">
+        <f>IF(M29="circle","&lt;circle cx="""&amp;I29&amp;""" cy="""&amp;J29&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I29-conf!$B$6&amp;""" y="""&amp;J29-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="738" y="113" width="10" height="10" </v>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>N29&amp;"fill="""&amp;L29&amp;"""/&gt;&lt;text x="""&amp;I29+conf!$B$2&amp;""" y="""&amp;J29+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B29&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="738" y="113" width="10" height="10" fill="green"/&gt;&lt;text x="751" y="123" font-size="12"&gt;马尔康&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">木格措 </v>
+      </c>
+      <c r="E30" s="8">
+        <v>101.907244132025</v>
+      </c>
+      <c r="F30" s="8">
+        <v>30.195336172269801</v>
+      </c>
+      <c r="I30" s="10">
+        <f>ROUND((E30-conf!$B$10)*conf!$B$7+G30,0)</f>
+        <v>681</v>
+      </c>
+      <c r="J30" s="10">
+        <f>ROUND((conf!$B$11-F30)*conf!$B$8+H30,0)</f>
+        <v>461</v>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f>IF(K30&lt;&gt;"",K30,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="10" t="str">
+        <f>IF(M30="circle","&lt;circle cx="""&amp;I30&amp;""" cy="""&amp;J30&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I30-conf!$B$6&amp;""" y="""&amp;J30-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="681" cy="461" r="6" </v>
+      </c>
+      <c r="O30" s="5" t="str">
+        <f>N30&amp;"fill="""&amp;L30&amp;"""/&gt;&lt;text x="""&amp;I30+conf!$B$2&amp;""" y="""&amp;J30+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B30&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="681" cy="461" r="6" fill="green"/&gt;&lt;text x="689" y="466" font-size="12"&gt;木格措 37&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">龙坝尾 </v>
+      </c>
+      <c r="E31" s="8">
+        <v>102.08516754103201</v>
+      </c>
+      <c r="F31" s="8">
+        <v>29.6678219286336</v>
+      </c>
+      <c r="G31" s="4">
+        <v>-10</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-30</v>
+      </c>
+      <c r="I31" s="10">
+        <f>ROUND((E31-conf!$B$10)*conf!$B$7+G31,0)</f>
+        <v>707</v>
+      </c>
+      <c r="J31" s="10">
+        <f>ROUND((conf!$B$11-F31)*conf!$B$8+H31,0)</f>
+        <v>536</v>
+      </c>
+      <c r="L31" s="10" t="str">
+        <f>IF(K31&lt;&gt;"",K31,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="10" t="str">
+        <f>IF(M31="circle","&lt;circle cx="""&amp;I31&amp;""" cy="""&amp;J31&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I31-conf!$B$6&amp;""" y="""&amp;J31-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="707" cy="536" r="6" </v>
+      </c>
+      <c r="O31" s="5" t="str">
+        <f>N31&amp;"fill="""&amp;L31&amp;"""/&gt;&lt;text x="""&amp;I31+conf!$B$2&amp;""" y="""&amp;J31+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B31&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="707" cy="536" r="6" fill="green"/&gt;&lt;text x="715" y="541" font-size="12"&gt;燕子沟红石公园&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>泉华滩</v>
+      </c>
+      <c r="E32" s="8">
+        <v>101.683658934153</v>
+      </c>
+      <c r="F32" s="8">
+        <v>29.587319374211798</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10">
+        <f>ROUND((E32-conf!$B$10)*conf!$B$7+G32,0)</f>
+        <v>637</v>
+      </c>
+      <c r="J32" s="10">
+        <f>ROUND((conf!$B$11-F32)*conf!$B$8+H32,0)</f>
+        <v>588</v>
+      </c>
+      <c r="L32" s="10" t="str">
+        <f>IF(K32&lt;&gt;"",K32,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="10" t="str">
+        <f>IF(M32="circle","&lt;circle cx="""&amp;I32&amp;""" cy="""&amp;J32&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I32-conf!$B$6&amp;""" y="""&amp;J32-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="637" cy="588" r="6" </v>
+      </c>
+      <c r="O32" s="5" t="str">
+        <f>N32&amp;"fill="""&amp;L32&amp;"""/&gt;&lt;text x="""&amp;I32+conf!$B$2&amp;""" y="""&amp;J32+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B32&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="637" cy="588" r="6" fill="green"/&gt;&lt;text x="645" y="593" font-size="12"&gt;泉华滩&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">龙坝尾 </v>
+      </c>
+      <c r="E33" s="8">
+        <v>102.08516754103201</v>
+      </c>
+      <c r="F33" s="8">
+        <v>29.6678219286336</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-15</v>
+      </c>
+      <c r="I33" s="10">
+        <f>ROUND((E33-conf!$B$10)*conf!$B$7+G33,0)</f>
+        <v>712</v>
+      </c>
+      <c r="J33" s="10">
+        <f>ROUND((conf!$B$11-F33)*conf!$B$8+H33,0)</f>
+        <v>551</v>
+      </c>
+      <c r="L33" s="10" t="str">
+        <f>IF(K33&lt;&gt;"",K33,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="10" t="str">
+        <f>IF(M33="circle","&lt;circle cx="""&amp;I33&amp;""" cy="""&amp;J33&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I33-conf!$B$6&amp;""" y="""&amp;J33-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="712" cy="551" r="6" </v>
+      </c>
+      <c r="O33" s="5" t="str">
+        <f>N33&amp;"fill="""&amp;L33&amp;"""/&gt;&lt;text x="""&amp;I33+conf!$B$2&amp;""" y="""&amp;J33+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B33&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="712" cy="551" r="6" fill="green"/&gt;&lt;text x="720" y="556" font-size="12"&gt;雅家梗红石滩&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">龙坝尾 </v>
+      </c>
+      <c r="E34" s="8">
+        <v>102.08516754103201</v>
+      </c>
+      <c r="F34" s="8">
+        <v>29.6678219286336</v>
+      </c>
+      <c r="I34" s="10">
+        <f>ROUND((E34-conf!$B$10)*conf!$B$7+G34,0)</f>
+        <v>717</v>
+      </c>
+      <c r="J34" s="10">
+        <f>ROUND((conf!$B$11-F34)*conf!$B$8+H34,0)</f>
+        <v>566</v>
+      </c>
+      <c r="L34" s="10" t="str">
+        <f>IF(K34&lt;&gt;"",K34,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="10" t="str">
+        <f>IF(M34="circle","&lt;circle cx="""&amp;I34&amp;""" cy="""&amp;J34&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I34-conf!$B$6&amp;""" y="""&amp;J34-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="717" cy="566" r="6" </v>
+      </c>
+      <c r="O34" s="5" t="str">
+        <f>N34&amp;"fill="""&amp;L34&amp;"""/&gt;&lt;text x="""&amp;I34+conf!$B$2&amp;""" y="""&amp;J34+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B34&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="717" cy="566" r="6" fill="green"/&gt;&lt;text x="725" y="571" font-size="12"&gt;海螺沟 29&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">咱地村 </v>
+      </c>
+      <c r="E35" s="8">
+        <v>102.144887879452</v>
+      </c>
+      <c r="F35" s="8">
+        <v>29.633846859262999</v>
+      </c>
+      <c r="H35" s="4">
+        <v>30</v>
+      </c>
+      <c r="I35" s="10">
+        <f>ROUND((E35-conf!$B$10)*conf!$B$7+G35,0)</f>
+        <v>729</v>
+      </c>
+      <c r="J35" s="10">
+        <f>ROUND((conf!$B$11-F35)*conf!$B$8+H35,0)</f>
+        <v>603</v>
+      </c>
+      <c r="L35" s="10" t="str">
+        <f>IF(K35&lt;&gt;"",K35,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="10" t="str">
+        <f>IF(M35="circle","&lt;circle cx="""&amp;I35&amp;""" cy="""&amp;J35&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I35-conf!$B$6&amp;""" y="""&amp;J35-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="724" y="598" width="10" height="10" </v>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f>N35&amp;"fill="""&amp;L35&amp;"""/&gt;&lt;text x="""&amp;I35+conf!$B$2&amp;""" y="""&amp;J35+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B35&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="724" y="598" width="10" height="10" fill="green"/&gt;&lt;text x="737" y="608" font-size="12"&gt;磨西古镇&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>贡嘎山</v>
+      </c>
+      <c r="E36" s="8">
+        <v>101.88727919148999</v>
+      </c>
+      <c r="F36" s="8">
+        <v>29.599381768531</v>
+      </c>
+      <c r="I36" s="10">
+        <f>ROUND((E36-conf!$B$10)*conf!$B$7+G36,0)</f>
+        <v>677</v>
+      </c>
+      <c r="J36" s="10">
+        <f>ROUND((conf!$B$11-F36)*conf!$B$8+H36,0)</f>
+        <v>580</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="10" t="str">
+        <f>IF(K36&lt;&gt;"",K36,conf!$B$5)</f>
+        <v>red</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="10" t="str">
+        <f>IF(M36="circle","&lt;circle cx="""&amp;I36&amp;""" cy="""&amp;J36&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I36-conf!$B$6&amp;""" y="""&amp;J36-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="677" cy="580" r="6" </v>
+      </c>
+      <c r="O36" s="5" t="str">
+        <f>N36&amp;"fill="""&amp;L36&amp;"""/&gt;&lt;text x="""&amp;I36+conf!$B$2&amp;""" y="""&amp;J36+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B36&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="677" cy="580" r="6" fill="red"/&gt;&lt;text x="685" y="585" font-size="12"&gt;贡嘎山 75&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>汶川</v>
+      </c>
+      <c r="E37" s="8">
+        <v>103.59650000000001</v>
+      </c>
+      <c r="F37" s="8">
+        <v>31.48301</v>
+      </c>
+      <c r="I37" s="10">
+        <f>ROUND((E37-conf!$B$10)*conf!$B$7+G37,0)</f>
+        <v>1019</v>
+      </c>
+      <c r="J37" s="10">
+        <f>ROUND((conf!$B$11-F37)*conf!$B$8+H37,0)</f>
+        <v>203</v>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f>IF(K37&lt;&gt;"",K37,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N37" s="10" t="str">
+        <f>IF(M37="circle","&lt;circle cx="""&amp;I37&amp;""" cy="""&amp;J37&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I37-conf!$B$6&amp;""" y="""&amp;J37-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="1014" y="198" width="10" height="10" </v>
+      </c>
+      <c r="O37" s="5" t="str">
+        <f>N37&amp;"fill="""&amp;L37&amp;"""/&gt;&lt;text x="""&amp;I37+conf!$B$2&amp;""" y="""&amp;J37+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B37&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="1014" y="198" width="10" height="10" fill="green"/&gt;&lt;text x="1027" y="208" font-size="12"&gt;汶川 13&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>毕棚沟</v>
+      </c>
+      <c r="E38" s="8">
+        <v>103.0793</v>
+      </c>
+      <c r="F38" s="8">
+        <v>31.411359999999998</v>
+      </c>
+      <c r="I38" s="10">
+        <f>ROUND((E38-conf!$B$10)*conf!$B$7+G38,0)</f>
+        <v>916</v>
+      </c>
+      <c r="J38" s="10">
+        <f>ROUND((conf!$B$11-F38)*conf!$B$8+H38,0)</f>
+        <v>218</v>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f>IF(K38&lt;&gt;"",K38,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" s="10" t="str">
+        <f>IF(M38="circle","&lt;circle cx="""&amp;I38&amp;""" cy="""&amp;J38&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I38-conf!$B$6&amp;""" y="""&amp;J38-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="916" cy="218" r="6" </v>
+      </c>
+      <c r="O38" s="5" t="str">
+        <f>N38&amp;"fill="""&amp;L38&amp;"""/&gt;&lt;text x="""&amp;I38+conf!$B$2&amp;""" y="""&amp;J38+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B38&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="916" cy="218" r="6" fill="green"/&gt;&lt;text x="924" y="223" font-size="12"&gt;毕棚沟&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>理县</v>
+      </c>
+      <c r="E39" s="8">
+        <v>103.1735</v>
+      </c>
+      <c r="F39" s="8">
+        <v>31.442550000000001</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-10</v>
+      </c>
+      <c r="I39" s="10">
+        <f>ROUND((E39-conf!$B$10)*conf!$B$7+G39,0)</f>
+        <v>935</v>
+      </c>
+      <c r="J39" s="10">
+        <f>ROUND((conf!$B$11-F39)*conf!$B$8+H39,0)</f>
+        <v>201</v>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f>IF(K39&lt;&gt;"",K39,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N39" s="10" t="str">
+        <f>IF(M39="circle","&lt;circle cx="""&amp;I39&amp;""" cy="""&amp;J39&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I39-conf!$B$6&amp;""" y="""&amp;J39-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="930" y="196" width="10" height="10" </v>
+      </c>
+      <c r="O39" s="5" t="str">
+        <f>N39&amp;"fill="""&amp;L39&amp;"""/&gt;&lt;text x="""&amp;I39+conf!$B$2&amp;""" y="""&amp;J39+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B39&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="930" y="196" width="10" height="10" fill="green"/&gt;&lt;text x="943" y="206" font-size="12"&gt;理县&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>龙洞子沟</v>
+      </c>
+      <c r="E40" s="8">
+        <v>102.762139657047</v>
+      </c>
+      <c r="F40" s="8">
+        <v>31.612624620149202</v>
+      </c>
+      <c r="I40" s="10">
+        <f>ROUND((E40-conf!$B$10)*conf!$B$7+G40,0)</f>
+        <v>852</v>
+      </c>
+      <c r="J40" s="10">
+        <f>ROUND((conf!$B$11-F40)*conf!$B$8+H40,0)</f>
+        <v>177</v>
+      </c>
+      <c r="L40" s="10" t="str">
+        <f>IF(K40&lt;&gt;"",K40,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N40" s="10" t="str">
+        <f>IF(M40="circle","&lt;circle cx="""&amp;I40&amp;""" cy="""&amp;J40&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I40-conf!$B$6&amp;""" y="""&amp;J40-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="852" cy="177" r="6" </v>
+      </c>
+      <c r="O40" s="5" t="str">
+        <f>N40&amp;"fill="""&amp;L40&amp;"""/&gt;&lt;text x="""&amp;I40+conf!$B$2&amp;""" y="""&amp;J40+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B40&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="852" cy="177" r="6" fill="green"/&gt;&lt;text x="860" y="182" font-size="12"&gt;米亚罗 28-34&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">列门 </v>
+      </c>
+      <c r="E41" s="8">
+        <v>101.691240373843</v>
+      </c>
+      <c r="F41" s="8">
+        <v>31.824893182642001</v>
+      </c>
+      <c r="I41" s="10">
+        <f>ROUND((E41-conf!$B$10)*conf!$B$7+G41,0)</f>
+        <v>638</v>
+      </c>
+      <c r="J41" s="10">
+        <f>ROUND((conf!$B$11-F41)*conf!$B$8+H41,0)</f>
+        <v>135</v>
+      </c>
+      <c r="L41" s="10" t="str">
+        <f>IF(K41&lt;&gt;"",K41,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N41" s="10" t="str">
+        <f>IF(M41="circle","&lt;circle cx="""&amp;I41&amp;""" cy="""&amp;J41&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I41-conf!$B$6&amp;""" y="""&amp;J41-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="633" y="130" width="10" height="10" </v>
+      </c>
+      <c r="O41" s="5" t="str">
+        <f>N41&amp;"fill="""&amp;L41&amp;"""/&gt;&lt;text x="""&amp;I41+conf!$B$2&amp;""" y="""&amp;J41+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B41&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="633" y="130" width="10" height="10" fill="green"/&gt;&lt;text x="646" y="140" font-size="12"&gt;观音桥&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>翁达镇</v>
+      </c>
+      <c r="E42" s="8">
+        <v>100.736582093121</v>
+      </c>
+      <c r="F42" s="8">
+        <v>31.877294798859602</v>
+      </c>
+      <c r="I42" s="10">
+        <f>ROUND((E42-conf!$B$10)*conf!$B$7+G42,0)</f>
+        <v>447</v>
+      </c>
+      <c r="J42" s="10">
+        <f>ROUND((conf!$B$11-F42)*conf!$B$8+H42,0)</f>
+        <v>125</v>
+      </c>
+      <c r="L42" s="10" t="str">
+        <f>IF(K42&lt;&gt;"",K42,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="10" t="str">
+        <f>IF(M42="circle","&lt;circle cx="""&amp;I42&amp;""" cy="""&amp;J42&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I42-conf!$B$6&amp;""" y="""&amp;J42-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="442" y="120" width="10" height="10" </v>
+      </c>
+      <c r="O42" s="5" t="str">
+        <f>N42&amp;"fill="""&amp;L42&amp;"""/&gt;&lt;text x="""&amp;I42+conf!$B$2&amp;""" y="""&amp;J42+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B42&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="442" y="120" width="10" height="10" fill="green"/&gt;&lt;text x="455" y="130" font-size="12"&gt;翁达&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>卡萨湖</v>
+      </c>
+      <c r="E43" s="8">
+        <v>100.265</v>
+      </c>
+      <c r="F43" s="8">
+        <v>31.66338</v>
+      </c>
+      <c r="I43" s="10">
+        <f>ROUND((E43-conf!$B$10)*conf!$B$7+G43,0)</f>
+        <v>353</v>
+      </c>
+      <c r="J43" s="10">
+        <f>ROUND((conf!$B$11-F43)*conf!$B$8+H43,0)</f>
+        <v>167</v>
+      </c>
+      <c r="L43" s="10" t="str">
+        <f>IF(K43&lt;&gt;"",K43,conf!$B$5)</f>
+        <v>green</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="10" t="str">
+        <f>IF(M43="circle","&lt;circle cx="""&amp;I43&amp;""" cy="""&amp;J43&amp;""" r="""&amp;conf!$B$1&amp;""" ","&lt;rect x="""&amp;I43-conf!$B$6&amp;""" y="""&amp;J43-conf!$B$6&amp;""" width="""&amp;conf!$B$6*2&amp;""" height="""&amp;conf!$B$6*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="353" cy="167" r="6" </v>
+      </c>
+      <c r="O43" s="5" t="str">
+        <f>N43&amp;"fill="""&amp;L43&amp;"""/&gt;&lt;text x="""&amp;I43+conf!$B$2&amp;""" y="""&amp;J43+conf!$B$3&amp;""" font-size="""&amp;conf!$B$4&amp;"""&gt;"&amp;B43&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="353" cy="167" r="6" fill="green"/&gt;&lt;text x="361" y="172" font-size="12"&gt;卡萨湖&lt;/text&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -1553,14 +2964,14 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -1568,7 +2979,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1576,7 +2987,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1584,7 +2995,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1592,15 +3003,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1608,7 +3019,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1616,7 +3027,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1624,7 +3035,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>98.5</v>
@@ -1632,7 +3043,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>32.5</v>
@@ -1640,10 +3051,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1668,272 +3079,272 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F838D99C-A1D1-43D4-A01C-7CEDB01579BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED8911-E97C-45C9-A7C0-B632741B1C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +562,14 @@
   </si>
   <si>
     <t>扎金甲博神山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y-range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +657,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -680,7 +694,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +729,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,16 +1093,16 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="9.06640625" style="3"/>
     <col min="4" max="4" width="9.06640625" style="9"/>
-    <col min="5" max="5" width="7" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.06640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.06640625" style="9" bestFit="1" customWidth="1"/>
@@ -1109,6 +1126,12 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1143,11 +1166,19 @@
       <c r="D2" s="2">
         <v>5</v>
       </c>
+      <c r="E2" s="12" t="str">
+        <f>TEXT(MIN(I5:I1000),"#")&amp;" "&amp;TEXT(MAX(I5:I1000),"#")</f>
+        <v>123 1116</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>TEXT(MIN(J5:J1000),"#")&amp;" "&amp;TEXT(MAX(J5:J1000),"#")</f>
+        <v>45 768</v>
+      </c>
       <c r="G2" s="2">
         <v>98.5</v>
       </c>
       <c r="H2" s="2">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="I2" s="2">
         <v>200</v>
@@ -1275,7 +1306,7 @@
       </c>
       <c r="J5" s="9">
         <f>ROUND((H$2-F5)*J$2+H5,0)</f>
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="L5" s="9" t="str">
         <f>IF(K5&lt;&gt;"",K5,L$2)</f>
@@ -1286,19 +1317,19 @@
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="1111" y="364" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="1111" y="344" width="10" height="10" </v>
       </c>
       <c r="O5" s="9" t="str">
         <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="1124" y="374" font-size="12"&gt;</v>
+        <v>&lt;text x="1124" y="354" font-size="12"&gt;</v>
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="1111" y="364" width="10" height="10" fill="green"/&gt;&lt;text x="1124" y="374" font-size="12"&gt;成都&lt;/text&gt;</v>
+        <v>&lt;rect x="1111" y="344" width="10" height="10" fill="green"/&gt;&lt;text x="1124" y="354" font-size="12"&gt;成都&lt;/text&gt;</v>
       </c>
       <c r="Q5" s="11" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
-        <v xml:space="preserve">M1116 369 </v>
+        <v xml:space="preserve">M1116 349 </v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1321,7 +1352,7 @@
       </c>
       <c r="J6" s="9">
         <f t="shared" ref="J6:J56" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="L6" s="9" t="str">
         <f t="shared" ref="L6:L56" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
@@ -1332,19 +1363,19 @@
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N56" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="905" y="492" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="905" y="472" width="10" height="10" </v>
       </c>
       <c r="O6" s="9" t="str">
         <f t="shared" ref="O6:O56" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="918" y="502" font-size="12"&gt;</v>
+        <v>&lt;text x="918" y="482" font-size="12"&gt;</v>
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ref="P6:P56" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="905" y="492" width="10" height="10" fill="green"/&gt;&lt;text x="918" y="502" font-size="12"&gt;雅安&lt;/text&gt;</v>
+        <v>&lt;rect x="905" y="472" width="10" height="10" fill="green"/&gt;&lt;text x="918" y="482" font-size="12"&gt;雅安&lt;/text&gt;</v>
       </c>
       <c r="Q6" s="4" t="str">
         <f>"L"&amp;I6&amp;" "&amp;J6&amp;" "</f>
-        <v xml:space="preserve">L910 497 </v>
+        <v xml:space="preserve">L910 477 </v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1367,7 +1398,7 @@
       </c>
       <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1378,19 +1409,19 @@
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="743" y="511" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="743" y="491" width="10" height="10" </v>
       </c>
       <c r="O7" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="756" y="521" font-size="12"&gt;</v>
+        <v>&lt;text x="756" y="501" font-size="12"&gt;</v>
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="743" y="511" width="10" height="10" fill="green"/&gt;&lt;text x="756" y="521" font-size="12"&gt;泸定&lt;/text&gt;</v>
+        <v>&lt;rect x="743" y="491" width="10" height="10" fill="green"/&gt;&lt;text x="756" y="501" font-size="12"&gt;泸定&lt;/text&gt;</v>
       </c>
       <c r="Q7" s="4" t="str">
         <f t="shared" ref="Q7:Q27" si="7">"L"&amp;I7&amp;" "&amp;J7&amp;" "</f>
-        <v xml:space="preserve">L748 516 </v>
+        <v xml:space="preserve">L748 496 </v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -1401,7 +1432,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f>IF(C8&lt;&gt;"",C8,B8)</f>
+        <f t="shared" ref="D8:D13" si="8">IF(C8&lt;&gt;"",C8,B8)</f>
         <v xml:space="preserve">龙坝尾 </v>
       </c>
       <c r="E8" s="7">
@@ -1417,31 +1448,31 @@
         <v>-30</v>
       </c>
       <c r="I8" s="9">
-        <f>ROUND((E8-G$2)*I$2+G8,0)</f>
+        <f t="shared" ref="I8:I13" si="9">ROUND((E8-G$2)*I$2+G8,0)</f>
         <v>707</v>
       </c>
       <c r="J8" s="9">
-        <f>ROUND((H$2-F8)*J$2+H8,0)</f>
-        <v>536</v>
+        <f t="shared" ref="J8:J13" si="10">ROUND((H$2-F8)*J$2+H8,0)</f>
+        <v>516</v>
       </c>
       <c r="L8" s="9" t="str">
-        <f>IF(K8&lt;&gt;"",K8,L$2)</f>
+        <f t="shared" ref="L8:L13" si="11">IF(K8&lt;&gt;"",K8,L$2)</f>
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N8" s="9" t="str">
-        <f>IF(M8="circle","&lt;circle cx="""&amp;I8&amp;""" cy="""&amp;J8&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I8-N$2&amp;""" y="""&amp;J8-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="707" cy="536" r="6" </v>
+        <f t="shared" ref="N8:N13" si="12">IF(M8="circle","&lt;circle cx="""&amp;I8&amp;""" cy="""&amp;J8&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I8-N$2&amp;""" y="""&amp;J8-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="707" cy="516" r="6" </v>
       </c>
       <c r="O8" s="9" t="str">
-        <f>"&lt;text x="""&amp;I8+C$2&amp;""" y="""&amp;J8+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="715" y="541" font-size="12"&gt;</v>
+        <f t="shared" ref="O8:O13" si="13">"&lt;text x="""&amp;I8+C$2&amp;""" y="""&amp;J8+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="715" y="521" font-size="12"&gt;</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f>N8&amp;"fill="""&amp;L8&amp;"""/&gt;"&amp;O8&amp;B8&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="707" cy="536" r="6" fill="green"/&gt;&lt;text x="715" y="541" font-size="12"&gt;燕子沟红石公园&lt;/text&gt;</v>
+        <f t="shared" ref="P8:P13" si="14">N8&amp;"fill="""&amp;L8&amp;"""/&gt;"&amp;O8&amp;B8&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="707" cy="516" r="6" fill="green"/&gt;&lt;text x="715" y="521" font-size="12"&gt;燕子沟红石公园&lt;/text&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -1449,7 +1480,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f>IF(C9&lt;&gt;"",C9,B9)</f>
+        <f t="shared" si="8"/>
         <v>泉华滩</v>
       </c>
       <c r="E9" s="7">
@@ -1462,31 +1493,31 @@
         <v>5</v>
       </c>
       <c r="I9" s="9">
-        <f>ROUND((E9-G$2)*I$2+G9,0)</f>
+        <f t="shared" si="9"/>
         <v>637</v>
       </c>
       <c r="J9" s="9">
-        <f>ROUND((H$2-F9)*J$2+H9,0)</f>
-        <v>588</v>
+        <f t="shared" si="10"/>
+        <v>568</v>
       </c>
       <c r="L9" s="9" t="str">
-        <f>IF(K9&lt;&gt;"",K9,L$2)</f>
+        <f t="shared" si="11"/>
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="9" t="str">
-        <f>IF(M9="circle","&lt;circle cx="""&amp;I9&amp;""" cy="""&amp;J9&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I9-N$2&amp;""" y="""&amp;J9-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="637" cy="588" r="6" </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">&lt;circle cx="637" cy="568" r="6" </v>
       </c>
       <c r="O9" s="9" t="str">
-        <f>"&lt;text x="""&amp;I9+C$2&amp;""" y="""&amp;J9+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="645" y="593" font-size="12"&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;text x="645" y="573" font-size="12"&gt;</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f>N9&amp;"fill="""&amp;L9&amp;"""/&gt;"&amp;O9&amp;B9&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="637" cy="588" r="6" fill="green"/&gt;&lt;text x="645" y="593" font-size="12"&gt;泉华滩&lt;/text&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;circle cx="637" cy="568" r="6" fill="green"/&gt;&lt;text x="645" y="573" font-size="12"&gt;泉华滩&lt;/text&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -1497,7 +1528,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f>IF(C10&lt;&gt;"",C10,B10)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">龙坝尾 </v>
       </c>
       <c r="E10" s="7">
@@ -1513,31 +1544,31 @@
         <v>-15</v>
       </c>
       <c r="I10" s="9">
-        <f>ROUND((E10-G$2)*I$2+G10,0)</f>
+        <f t="shared" si="9"/>
         <v>712</v>
       </c>
       <c r="J10" s="9">
-        <f>ROUND((H$2-F10)*J$2+H10,0)</f>
-        <v>551</v>
+        <f t="shared" si="10"/>
+        <v>531</v>
       </c>
       <c r="L10" s="9" t="str">
-        <f>IF(K10&lt;&gt;"",K10,L$2)</f>
+        <f t="shared" si="11"/>
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N10" s="9" t="str">
-        <f>IF(M10="circle","&lt;circle cx="""&amp;I10&amp;""" cy="""&amp;J10&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I10-N$2&amp;""" y="""&amp;J10-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="712" cy="551" r="6" </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">&lt;circle cx="712" cy="531" r="6" </v>
       </c>
       <c r="O10" s="9" t="str">
-        <f>"&lt;text x="""&amp;I10+C$2&amp;""" y="""&amp;J10+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="720" y="556" font-size="12"&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;text x="720" y="536" font-size="12"&gt;</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f>N10&amp;"fill="""&amp;L10&amp;"""/&gt;"&amp;O10&amp;B10&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="712" cy="551" r="6" fill="green"/&gt;&lt;text x="720" y="556" font-size="12"&gt;雅家梗红石滩&lt;/text&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;circle cx="712" cy="531" r="6" fill="green"/&gt;&lt;text x="720" y="536" font-size="12"&gt;雅家梗红石滩&lt;/text&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1548,7 +1579,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f>IF(C11&lt;&gt;"",C11,B11)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">龙坝尾 </v>
       </c>
       <c r="E11" s="7">
@@ -1558,31 +1589,31 @@
         <v>29.6678219286336</v>
       </c>
       <c r="I11" s="9">
-        <f>ROUND((E11-G$2)*I$2+G11,0)</f>
+        <f t="shared" si="9"/>
         <v>717</v>
       </c>
       <c r="J11" s="9">
-        <f>ROUND((H$2-F11)*J$2+H11,0)</f>
-        <v>566</v>
+        <f t="shared" si="10"/>
+        <v>546</v>
       </c>
       <c r="L11" s="9" t="str">
-        <f>IF(K11&lt;&gt;"",K11,L$2)</f>
+        <f t="shared" si="11"/>
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N11" s="9" t="str">
-        <f>IF(M11="circle","&lt;circle cx="""&amp;I11&amp;""" cy="""&amp;J11&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I11-N$2&amp;""" y="""&amp;J11-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="717" cy="566" r="6" </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">&lt;circle cx="717" cy="546" r="6" </v>
       </c>
       <c r="O11" s="9" t="str">
-        <f>"&lt;text x="""&amp;I11+C$2&amp;""" y="""&amp;J11+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="725" y="571" font-size="12"&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;text x="725" y="551" font-size="12"&gt;</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f>N11&amp;"fill="""&amp;L11&amp;"""/&gt;"&amp;O11&amp;B11&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="717" cy="566" r="6" fill="green"/&gt;&lt;text x="725" y="571" font-size="12"&gt;海螺沟 29&lt;/text&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;circle cx="717" cy="546" r="6" fill="green"/&gt;&lt;text x="725" y="551" font-size="12"&gt;海螺沟 29&lt;/text&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1593,7 +1624,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f>IF(C12&lt;&gt;"",C12,B12)</f>
+        <f t="shared" si="8"/>
         <v>贡嘎山</v>
       </c>
       <c r="E12" s="7">
@@ -1603,34 +1634,34 @@
         <v>29.599381768531</v>
       </c>
       <c r="I12" s="9">
-        <f>ROUND((E12-G$2)*I$2+G12,0)</f>
+        <f t="shared" si="9"/>
         <v>677</v>
       </c>
       <c r="J12" s="9">
-        <f>ROUND((H$2-F12)*J$2+H12,0)</f>
-        <v>580</v>
+        <f t="shared" si="10"/>
+        <v>560</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="9" t="str">
-        <f>IF(K12&lt;&gt;"",K12,L$2)</f>
+        <f t="shared" si="11"/>
         <v>red</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N12" s="9" t="str">
-        <f>IF(M12="circle","&lt;circle cx="""&amp;I12&amp;""" cy="""&amp;J12&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I12-N$2&amp;""" y="""&amp;J12-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="677" cy="580" r="6" </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">&lt;circle cx="677" cy="560" r="6" </v>
       </c>
       <c r="O12" s="9" t="str">
-        <f>"&lt;text x="""&amp;I12+C$2&amp;""" y="""&amp;J12+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="685" y="585" font-size="12"&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;text x="685" y="565" font-size="12"&gt;</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f>N12&amp;"fill="""&amp;L12&amp;"""/&gt;"&amp;O12&amp;B12&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="677" cy="580" r="6" fill="red"/&gt;&lt;text x="685" y="585" font-size="12"&gt;贡嘎山 75&lt;/text&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;circle cx="677" cy="560" r="6" fill="red"/&gt;&lt;text x="685" y="565" font-size="12"&gt;贡嘎山 75&lt;/text&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -1641,7 +1672,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>IF(C13&lt;&gt;"",C13,B13)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">咱地村 </v>
       </c>
       <c r="E13" s="7">
@@ -1654,35 +1685,35 @@
         <v>30</v>
       </c>
       <c r="I13" s="9">
-        <f>ROUND((E13-G$2)*I$2+G13,0)</f>
+        <f t="shared" si="9"/>
         <v>729</v>
       </c>
       <c r="J13" s="9">
-        <f>ROUND((H$2-F13)*J$2+H13,0)</f>
-        <v>603</v>
+        <f t="shared" si="10"/>
+        <v>583</v>
       </c>
       <c r="L13" s="9" t="str">
-        <f>IF(K13&lt;&gt;"",K13,L$2)</f>
+        <f t="shared" si="11"/>
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f>IF(M13="circle","&lt;circle cx="""&amp;I13&amp;""" cy="""&amp;J13&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I13-N$2&amp;""" y="""&amp;J13-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="724" y="598" width="10" height="10" </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">&lt;rect x="724" y="578" width="10" height="10" </v>
       </c>
       <c r="O13" s="9" t="str">
-        <f>"&lt;text x="""&amp;I13+C$2&amp;""" y="""&amp;J13+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="737" y="608" font-size="12"&gt;</v>
+        <f t="shared" si="13"/>
+        <v>&lt;text x="737" y="588" font-size="12"&gt;</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f>N13&amp;"fill="""&amp;L13&amp;"""/&gt;"&amp;O13&amp;B13&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="724" y="598" width="10" height="10" fill="green"/&gt;&lt;text x="737" y="608" font-size="12"&gt;磨西古镇&lt;/text&gt;</v>
+        <f t="shared" si="14"/>
+        <v>&lt;rect x="724" y="578" width="10" height="10" fill="green"/&gt;&lt;text x="737" y="588" font-size="12"&gt;磨西古镇&lt;/text&gt;</v>
       </c>
       <c r="Q13" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L729 603 </v>
+        <v xml:space="preserve">L729 583 </v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1708,7 +1739,7 @@
       </c>
       <c r="J14" s="9">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="L14" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1719,19 +1750,19 @@
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="688" y="494" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="688" y="474" width="10" height="10" </v>
       </c>
       <c r="O14" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="701" y="504" font-size="12"&gt;</v>
+        <v>&lt;text x="701" y="484" font-size="12"&gt;</v>
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="688" y="494" width="10" height="10" fill="green"/&gt;&lt;text x="701" y="504" font-size="12"&gt;康定 26&lt;/text&gt;</v>
+        <v>&lt;rect x="688" y="474" width="10" height="10" fill="green"/&gt;&lt;text x="701" y="484" font-size="12"&gt;康定 26&lt;/text&gt;</v>
       </c>
       <c r="Q14" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L693 499 </v>
+        <v xml:space="preserve">L693 479 </v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -1757,7 +1788,7 @@
       </c>
       <c r="J15" s="9">
         <f>ROUND((H$2-F15)*J$2+H15,0)</f>
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>IF(K15&lt;&gt;"",K15,L$2)</f>
@@ -1768,15 +1799,15 @@
       </c>
       <c r="N15" s="9" t="str">
         <f>IF(M15="circle","&lt;circle cx="""&amp;I15&amp;""" cy="""&amp;J15&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I15-N$2&amp;""" y="""&amp;J15-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="681" cy="461" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="681" cy="441" r="6" </v>
       </c>
       <c r="O15" s="9" t="str">
         <f>"&lt;text x="""&amp;I15+C$2&amp;""" y="""&amp;J15+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="689" y="466" font-size="12"&gt;</v>
+        <v>&lt;text x="689" y="446" font-size="12"&gt;</v>
       </c>
       <c r="P15" s="4" t="str">
         <f>N15&amp;"fill="""&amp;L15&amp;"""/&gt;"&amp;O15&amp;B15&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="681" cy="461" r="6" fill="green"/&gt;&lt;text x="689" y="466" font-size="12"&gt;木格措 37&lt;/text&gt;</v>
+        <v>&lt;circle cx="681" cy="441" r="6" fill="green"/&gt;&lt;text x="689" y="446" font-size="12"&gt;木格措 37&lt;/text&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1785,7 +1816,7 @@
       </c>
       <c r="R16" s="4" t="str">
         <f>VLOOKUP(A16,B:Q,16,0)</f>
-        <v xml:space="preserve">L693 499 </v>
+        <v xml:space="preserve">L693 479 </v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
@@ -1811,7 +1842,7 @@
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>25</v>
@@ -1825,19 +1856,19 @@
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="661" cy="476" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="661" cy="456" r="6" </v>
       </c>
       <c r="O17" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="669" y="481" font-size="12"&gt;</v>
+        <v>&lt;text x="669" y="461" font-size="12"&gt;</v>
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="661" cy="476" r="6" fill="red"/&gt;&lt;text x="669" y="481" font-size="12"&gt;折多山 43&lt;/text&gt;</v>
+        <v>&lt;circle cx="661" cy="456" r="6" fill="red"/&gt;&lt;text x="669" y="461" font-size="12"&gt;折多山 43&lt;/text&gt;</v>
       </c>
       <c r="Q17" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L661 476 </v>
+        <v xml:space="preserve">L661 456 </v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
@@ -1863,7 +1894,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="L18" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1874,19 +1905,19 @@
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="600" cy="488" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="600" cy="468" r="6" </v>
       </c>
       <c r="O18" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="608" y="493" font-size="12"&gt;</v>
+        <v>&lt;text x="608" y="473" font-size="12"&gt;</v>
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="600" cy="488" r="6" fill="green"/&gt;&lt;text x="608" y="493" font-size="12"&gt;新都桥 35&lt;/text&gt;</v>
+        <v>&lt;circle cx="600" cy="468" r="6" fill="green"/&gt;&lt;text x="608" y="473" font-size="12"&gt;新都桥 35&lt;/text&gt;</v>
       </c>
       <c r="Q18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L600 488 </v>
+        <v xml:space="preserve">L600 468 </v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
@@ -1912,7 +1943,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>25</v>
@@ -1926,19 +1957,19 @@
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="355" cy="500" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="355" cy="480" r="6" </v>
       </c>
       <c r="O19" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="363" y="505" font-size="12"&gt;</v>
+        <v>&lt;text x="363" y="485" font-size="12"&gt;</v>
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="355" cy="500" r="6" fill="red"/&gt;&lt;text x="363" y="505" font-size="12"&gt;理塘 40&lt;/text&gt;</v>
+        <v>&lt;circle cx="355" cy="480" r="6" fill="red"/&gt;&lt;text x="363" y="485" font-size="12"&gt;理塘 40&lt;/text&gt;</v>
       </c>
       <c r="Q19" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L355 500 </v>
+        <v xml:space="preserve">L355 480 </v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
@@ -1962,12 +1993,12 @@
         <v>-45</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" ref="I20:I22" si="8">ROUND((E20-G$2)*I$2+G20,0)</f>
+        <f t="shared" ref="I20:I22" si="15">ROUND((E20-G$2)*I$2+G20,0)</f>
         <v>355</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" ref="J20:J22" si="9">ROUND((H$2-F20)*J$2+H20,0)</f>
-        <v>455</v>
+        <f t="shared" ref="J20:J22" si="16">ROUND((H$2-F20)*J$2+H20,0)</f>
+        <v>435</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>25</v>
@@ -1980,16 +2011,16 @@
         <v>49</v>
       </c>
       <c r="N20" s="9" t="str">
-        <f t="shared" ref="N20:N22" si="10">IF(M20="circle","&lt;circle cx="""&amp;I20&amp;""" cy="""&amp;J20&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I20-N$2&amp;""" y="""&amp;J20-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="355" cy="455" r="6" </v>
+        <f t="shared" ref="N20:N22" si="17">IF(M20="circle","&lt;circle cx="""&amp;I20&amp;""" cy="""&amp;J20&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I20-N$2&amp;""" y="""&amp;J20-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="355" cy="435" r="6" </v>
       </c>
       <c r="O20" s="9" t="str">
-        <f t="shared" ref="O20:O22" si="11">"&lt;text x="""&amp;I20+C$2&amp;""" y="""&amp;J20+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="363" y="460" font-size="12"&gt;</v>
+        <f t="shared" ref="O20:O22" si="18">"&lt;text x="""&amp;I20+C$2&amp;""" y="""&amp;J20+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="363" y="440" font-size="12"&gt;</v>
       </c>
       <c r="P20" s="4" t="str">
-        <f t="shared" ref="P20:P22" si="12">N20&amp;"fill="""&amp;L20&amp;"""/&gt;"&amp;O20&amp;B20&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="355" cy="455" r="6" fill="red"/&gt;&lt;text x="363" y="460" font-size="12"&gt;长青春科尔寺&lt;/text&gt;</v>
+        <f t="shared" ref="P20:P22" si="19">N20&amp;"fill="""&amp;L20&amp;"""/&gt;"&amp;O20&amp;B20&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="355" cy="435" r="6" fill="red"/&gt;&lt;text x="363" y="440" font-size="12"&gt;长青春科尔寺&lt;/text&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
@@ -2013,12 +2044,12 @@
         <v>-30</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>355</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="9"/>
-        <v>470</v>
+        <f t="shared" si="16"/>
+        <v>450</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>25</v>
@@ -2031,16 +2062,16 @@
         <v>49</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">&lt;circle cx="355" cy="470" r="6" </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;circle cx="355" cy="450" r="6" </v>
       </c>
       <c r="O21" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;text x="363" y="475" font-size="12"&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;text x="363" y="455" font-size="12"&gt;</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;circle cx="355" cy="470" r="6" fill="red"/&gt;&lt;text x="363" y="475" font-size="12"&gt;格聂之眼&lt;/text&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;circle cx="355" cy="450" r="6" fill="red"/&gt;&lt;text x="363" y="455" font-size="12"&gt;格聂之眼&lt;/text&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
@@ -2064,12 +2095,12 @@
         <v>-15</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>355</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="9"/>
-        <v>485</v>
+        <f t="shared" si="16"/>
+        <v>465</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>25</v>
@@ -2082,16 +2113,16 @@
         <v>49</v>
       </c>
       <c r="N22" s="9" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve">&lt;circle cx="355" cy="485" r="6" </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">&lt;circle cx="355" cy="465" r="6" </v>
       </c>
       <c r="O22" s="9" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;text x="363" y="490" font-size="12"&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;text x="363" y="470" font-size="12"&gt;</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;circle cx="355" cy="485" r="6" fill="red"/&gt;&lt;text x="363" y="490" font-size="12"&gt;千户藏寨&lt;/text&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;circle cx="355" cy="465" r="6" fill="red"/&gt;&lt;text x="363" y="470" font-size="12"&gt;千户藏寨&lt;/text&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
@@ -2120,7 +2151,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>25</v>
@@ -2134,19 +2165,19 @@
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="236" cy="455" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="236" cy="435" r="6" </v>
       </c>
       <c r="O23" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="244" y="460" font-size="12"&gt;</v>
+        <v>&lt;text x="244" y="440" font-size="12"&gt;</v>
       </c>
       <c r="P23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="236" cy="455" r="6" fill="red"/&gt;&lt;text x="244" y="460" font-size="12"&gt;毛娅草原 40&lt;/text&gt;</v>
+        <v>&lt;circle cx="236" cy="435" r="6" fill="red"/&gt;&lt;text x="244" y="440" font-size="12"&gt;毛娅草原 40&lt;/text&gt;</v>
       </c>
       <c r="Q23" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L236 455 </v>
+        <v xml:space="preserve">L236 435 </v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
@@ -2175,7 +2206,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="2"/>
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>25</v>
@@ -2189,19 +2220,19 @@
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="191" cy="426" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="191" cy="406" r="6" </v>
       </c>
       <c r="O24" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="199" y="431" font-size="12"&gt;</v>
+        <v>&lt;text x="199" y="411" font-size="12"&gt;</v>
       </c>
       <c r="P24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="191" cy="426" r="6" fill="red"/&gt;&lt;text x="199" y="431" font-size="12"&gt;姊妹湖 47&lt;/text&gt;</v>
+        <v>&lt;circle cx="191" cy="406" r="6" fill="red"/&gt;&lt;text x="199" y="411" font-size="12"&gt;姊妹湖 47&lt;/text&gt;</v>
       </c>
       <c r="Q24" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L191 426 </v>
+        <v xml:space="preserve">L191 406 </v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
@@ -2233,7 +2264,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>25</v>
@@ -2247,19 +2278,19 @@
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="162" cy="441" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="162" cy="421" r="6" </v>
       </c>
       <c r="O25" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="170" y="446" font-size="12"&gt;</v>
+        <v>&lt;text x="170" y="426" font-size="12"&gt;</v>
       </c>
       <c r="P25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="162" cy="441" r="6" fill="red"/&gt;&lt;text x="170" y="446" font-size="12"&gt;措普沟 32-45&lt;/text&gt;</v>
+        <v>&lt;circle cx="162" cy="421" r="6" fill="red"/&gt;&lt;text x="170" y="426" font-size="12"&gt;措普沟 32-45&lt;/text&gt;</v>
       </c>
       <c r="Q25" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L162 441 </v>
+        <v xml:space="preserve">L162 421 </v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
@@ -2270,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f t="shared" ref="D26" si="13">IF(C26&lt;&gt;"",C26,B26)</f>
+        <f t="shared" ref="D26" si="20">IF(C26&lt;&gt;"",C26,B26)</f>
         <v>义敦</v>
       </c>
       <c r="E26" s="7">
@@ -2286,12 +2317,12 @@
         <v>-25</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26" si="14">ROUND((E26-G$2)*I$2+G26,0)</f>
+        <f t="shared" ref="I26" si="21">ROUND((E26-G$2)*I$2+G26,0)</f>
         <v>157</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26" si="15">ROUND((H$2-F26)*J$2+H26,0)</f>
-        <v>411</v>
+        <f t="shared" ref="J26" si="22">ROUND((H$2-F26)*J$2+H26,0)</f>
+        <v>391</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>25</v>
@@ -2304,16 +2335,16 @@
         <v>49</v>
       </c>
       <c r="N26" s="9" t="str">
-        <f t="shared" ref="N26" si="16">IF(M26="circle","&lt;circle cx="""&amp;I26&amp;""" cy="""&amp;J26&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I26-N$2&amp;""" y="""&amp;J26-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="157" cy="411" r="6" </v>
+        <f t="shared" ref="N26" si="23">IF(M26="circle","&lt;circle cx="""&amp;I26&amp;""" cy="""&amp;J26&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I26-N$2&amp;""" y="""&amp;J26-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="157" cy="391" r="6" </v>
       </c>
       <c r="O26" s="9" t="str">
-        <f t="shared" ref="O26" si="17">"&lt;text x="""&amp;I26+C$2&amp;""" y="""&amp;J26+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="165" y="416" font-size="12"&gt;</v>
+        <f t="shared" ref="O26" si="24">"&lt;text x="""&amp;I26+C$2&amp;""" y="""&amp;J26+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="165" y="396" font-size="12"&gt;</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" ref="P26" si="18">N26&amp;"fill="""&amp;L26&amp;"""/&gt;"&amp;O26&amp;B26&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="157" cy="411" r="6" fill="red"/&gt;&lt;text x="165" y="416" font-size="12"&gt;扎金甲博神山&lt;/text&gt;</v>
+        <f t="shared" ref="P26" si="25">N26&amp;"fill="""&amp;L26&amp;"""/&gt;"&amp;O26&amp;B26&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="157" cy="391" r="6" fill="red"/&gt;&lt;text x="165" y="396" font-size="12"&gt;扎金甲博神山&lt;/text&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
@@ -2339,7 +2370,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="2"/>
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2350,19 +2381,19 @@
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="118" y="493" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="118" y="473" width="10" height="10" </v>
       </c>
       <c r="O27" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="131" y="503" font-size="12"&gt;</v>
+        <v>&lt;text x="131" y="483" font-size="12"&gt;</v>
       </c>
       <c r="P27" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="118" y="493" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="503" font-size="12"&gt;巴塘 30&lt;/text&gt;</v>
+        <v>&lt;rect x="118" y="473" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="483" font-size="12"&gt;巴塘 30&lt;/text&gt;</v>
       </c>
       <c r="Q27" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L123 498 </v>
+        <v xml:space="preserve">L123 478 </v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
@@ -2371,7 +2402,7 @@
       </c>
       <c r="R28" s="4" t="str">
         <f>VLOOKUP(A28,B:Q,16,0)</f>
-        <v xml:space="preserve">L162 441 </v>
+        <v xml:space="preserve">L162 421 </v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
@@ -2380,7 +2411,7 @@
       </c>
       <c r="R29" s="4" t="str">
         <f>VLOOKUP(A29,B:Q,16,0)</f>
-        <v xml:space="preserve">L191 426 </v>
+        <v xml:space="preserve">L191 406 </v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
@@ -2389,7 +2420,7 @@
       </c>
       <c r="R30" s="4" t="str">
         <f>VLOOKUP(A30,B:Q,16,0)</f>
-        <v xml:space="preserve">L236 455 </v>
+        <v xml:space="preserve">L236 435 </v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
@@ -2398,7 +2429,7 @@
       </c>
       <c r="R31" s="4" t="str">
         <f>VLOOKUP(A31,B:Q,16,0)</f>
-        <v xml:space="preserve">L355 500 </v>
+        <v xml:space="preserve">L355 480 </v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -2407,7 +2438,7 @@
       </c>
       <c r="R32" s="4" t="str">
         <f>VLOOKUP(A32,B:Q,16,0)</f>
-        <v xml:space="preserve">L600 488 </v>
+        <v xml:space="preserve">L600 468 </v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
@@ -2433,7 +2464,7 @@
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2444,19 +2475,19 @@
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="606" cy="435" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="606" cy="415" r="6" </v>
       </c>
       <c r="O33" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="614" y="440" font-size="12"&gt;</v>
+        <v>&lt;text x="614" y="420" font-size="12"&gt;</v>
       </c>
       <c r="P33" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="606" cy="435" r="6" fill="green"/&gt;&lt;text x="614" y="440" font-size="12"&gt;塔公草原 37&lt;/text&gt;</v>
+        <v>&lt;circle cx="606" cy="415" r="6" fill="green"/&gt;&lt;text x="614" y="420" font-size="12"&gt;塔公草原 37&lt;/text&gt;</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" ref="Q33" si="19">"L"&amp;I33&amp;" "&amp;J33&amp;" "</f>
-        <v xml:space="preserve">L606 435 </v>
+        <f t="shared" ref="Q33" si="26">"L"&amp;I33&amp;" "&amp;J33&amp;" "</f>
+        <v xml:space="preserve">L606 415 </v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
@@ -2482,7 +2513,7 @@
       </c>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2493,19 +2524,19 @@
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="613" cy="411" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="613" cy="391" r="6" </v>
       </c>
       <c r="O34" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="621" y="416" font-size="12"&gt;</v>
+        <v>&lt;text x="621" y="396" font-size="12"&gt;</v>
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="613" cy="411" r="6" fill="green"/&gt;&lt;text x="621" y="416" font-size="12"&gt;墨石公园 35&lt;/text&gt;</v>
+        <v>&lt;circle cx="613" cy="391" r="6" fill="green"/&gt;&lt;text x="621" y="396" font-size="12"&gt;墨石公园 35&lt;/text&gt;</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q41" si="20">"L"&amp;I34&amp;" "&amp;J34&amp;" "</f>
-        <v xml:space="preserve">L613 411 </v>
+        <f t="shared" ref="Q34:Q41" si="27">"L"&amp;I34&amp;" "&amp;J34&amp;" "</f>
+        <v xml:space="preserve">L613 391 </v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
@@ -2531,7 +2562,7 @@
       </c>
       <c r="J35" s="9">
         <f>ROUND((H$2-F35)*J$2+H35,0)</f>
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="L35" s="9" t="str">
         <f>IF(K35&lt;&gt;"",K35,L$2)</f>
@@ -2542,19 +2573,19 @@
       </c>
       <c r="N35" s="9" t="str">
         <f>IF(M35="circle","&lt;circle cx="""&amp;I35&amp;""" cy="""&amp;J35&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I35-N$2&amp;""" y="""&amp;J35-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="588" cy="301" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="588" cy="281" r="6" </v>
       </c>
       <c r="O35" s="9" t="str">
         <f>"&lt;text x="""&amp;I35+C$2&amp;""" y="""&amp;J35+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="596" y="306" font-size="12"&gt;</v>
+        <v>&lt;text x="596" y="286" font-size="12"&gt;</v>
       </c>
       <c r="P35" s="4" t="str">
         <f>N35&amp;"fill="""&amp;L35&amp;"""/&gt;"&amp;O35&amp;B35&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="588" cy="301" r="6" fill="green"/&gt;&lt;text x="596" y="306" font-size="12"&gt;党岭 33&lt;/text&gt;</v>
+        <v>&lt;circle cx="588" cy="281" r="6" fill="green"/&gt;&lt;text x="596" y="286" font-size="12"&gt;党岭 33&lt;/text&gt;</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L588 301 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L588 281 </v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
@@ -2563,7 +2594,7 @@
       </c>
       <c r="R36" s="4" t="str">
         <f>VLOOKUP(A36,B:Q,16,0)</f>
-        <v xml:space="preserve">L613 411 </v>
+        <v xml:space="preserve">L613 391 </v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -2589,7 +2620,7 @@
       </c>
       <c r="J37" s="9">
         <f t="shared" si="2"/>
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2600,19 +2631,19 @@
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="609" cy="389" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="609" cy="369" r="6" </v>
       </c>
       <c r="O37" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="617" y="394" font-size="12"&gt;</v>
+        <v>&lt;text x="617" y="374" font-size="12"&gt;</v>
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="609" cy="389" r="6" fill="green"/&gt;&lt;text x="617" y="394" font-size="12"&gt;亚拉雪山&lt;/text&gt;</v>
+        <v>&lt;circle cx="609" cy="369" r="6" fill="green"/&gt;&lt;text x="617" y="374" font-size="12"&gt;亚拉雪山&lt;/text&gt;</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L609 389 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L609 369 </v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
@@ -2638,7 +2669,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" si="2"/>
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="L38" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2649,19 +2680,19 @@
       </c>
       <c r="N38" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="676" cy="340" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="676" cy="320" r="6" </v>
       </c>
       <c r="O38" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="684" y="345" font-size="12"&gt;</v>
+        <v>&lt;text x="684" y="325" font-size="12"&gt;</v>
       </c>
       <c r="P38" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="676" cy="340" r="6" fill="green"/&gt;&lt;text x="684" y="345" font-size="12"&gt;甲居藏寨&lt;/text&gt;</v>
+        <v>&lt;circle cx="676" cy="320" r="6" fill="green"/&gt;&lt;text x="684" y="325" font-size="12"&gt;甲居藏寨&lt;/text&gt;</v>
       </c>
       <c r="Q38" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L676 340 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L676 320 </v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -2690,7 +2721,7 @@
       </c>
       <c r="J39" s="9">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L39" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2701,19 +2732,19 @@
       </c>
       <c r="N39" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="687" cy="328" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="687" cy="308" r="6" </v>
       </c>
       <c r="O39" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="695" y="333" font-size="12"&gt;</v>
+        <v>&lt;text x="695" y="313" font-size="12"&gt;</v>
       </c>
       <c r="P39" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="687" cy="328" r="6" fill="green"/&gt;&lt;text x="695" y="333" font-size="12"&gt;中路藏寨&lt;/text&gt;</v>
+        <v>&lt;circle cx="687" cy="308" r="6" fill="green"/&gt;&lt;text x="695" y="313" font-size="12"&gt;中路藏寨&lt;/text&gt;</v>
       </c>
       <c r="Q39" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L687 328 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L687 308 </v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -2742,7 +2773,7 @@
       </c>
       <c r="J40" s="9">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="L40" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2753,19 +2784,19 @@
       </c>
       <c r="N40" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="674" y="308" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="674" y="288" width="10" height="10" </v>
       </c>
       <c r="O40" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="687" y="318" font-size="12"&gt;</v>
+        <v>&lt;text x="687" y="298" font-size="12"&gt;</v>
       </c>
       <c r="P40" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="674" y="308" width="10" height="10" fill="green"/&gt;&lt;text x="687" y="318" font-size="12"&gt;丹巴 19&lt;/text&gt;</v>
+        <v>&lt;rect x="674" y="288" width="10" height="10" fill="green"/&gt;&lt;text x="687" y="298" font-size="12"&gt;丹巴 19&lt;/text&gt;</v>
       </c>
       <c r="Q40" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L679 313 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L679 293 </v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
@@ -2794,7 +2825,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L41" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2805,19 +2836,19 @@
       </c>
       <c r="N41" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="687" cy="299" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="687" cy="279" r="6" </v>
       </c>
       <c r="O41" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="695" y="304" font-size="12"&gt;</v>
+        <v>&lt;text x="695" y="284" font-size="12"&gt;</v>
       </c>
       <c r="P41" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="687" cy="299" r="6" fill="green"/&gt;&lt;text x="695" y="304" font-size="12"&gt;梭坡古碉&lt;/text&gt;</v>
+        <v>&lt;circle cx="687" cy="279" r="6" fill="green"/&gt;&lt;text x="695" y="284" font-size="12"&gt;梭坡古碉&lt;/text&gt;</v>
       </c>
       <c r="Q41" s="4" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">L687 299 </v>
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">L687 279 </v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
@@ -2843,7 +2874,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>25</v>
@@ -2857,19 +2888,19 @@
       </c>
       <c r="N42" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="882" cy="312" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="882" cy="292" r="6" </v>
       </c>
       <c r="O42" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="890" y="317" font-size="12"&gt;</v>
+        <v>&lt;text x="890" y="297" font-size="12"&gt;</v>
       </c>
       <c r="P42" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="882" cy="312" r="6" fill="red"/&gt;&lt;text x="890" y="317" font-size="12"&gt;巴郎山 45&lt;/text&gt;</v>
+        <v>&lt;circle cx="882" cy="292" r="6" fill="red"/&gt;&lt;text x="890" y="297" font-size="12"&gt;巴郎山 45&lt;/text&gt;</v>
       </c>
       <c r="Q42" s="4" t="str">
         <f>"L"&amp;I42&amp;" "&amp;J42&amp;" "</f>
-        <v xml:space="preserve">L882 312 </v>
+        <v xml:space="preserve">L882 292 </v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
@@ -2898,7 +2929,7 @@
       </c>
       <c r="J43" s="9">
         <f t="shared" si="2"/>
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>25</v>
@@ -2912,15 +2943,15 @@
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="859" cy="293" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="859" cy="273" r="6" </v>
       </c>
       <c r="O43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="867" y="298" font-size="12"&gt;</v>
+        <v>&lt;text x="867" y="278" font-size="12"&gt;</v>
       </c>
       <c r="P43" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="859" cy="293" r="6" fill="red"/&gt;&lt;text x="867" y="298" font-size="12"&gt;四姑娘山 62&lt;/text&gt;</v>
+        <v>&lt;circle cx="859" cy="273" r="6" fill="red"/&gt;&lt;text x="867" y="278" font-size="12"&gt;四姑娘山 62&lt;/text&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
@@ -2946,7 +2977,7 @@
       </c>
       <c r="J44" s="9">
         <f t="shared" si="2"/>
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="3"/>
@@ -2957,19 +2988,19 @@
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="935" y="284" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="935" y="264" width="10" height="10" </v>
       </c>
       <c r="O44" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="948" y="294" font-size="12"&gt;</v>
+        <v>&lt;text x="948" y="274" font-size="12"&gt;</v>
       </c>
       <c r="P44" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="935" y="284" width="10" height="10" fill="green"/&gt;&lt;text x="948" y="294" font-size="12"&gt;卧龙&lt;/text&gt;</v>
+        <v>&lt;rect x="935" y="264" width="10" height="10" fill="green"/&gt;&lt;text x="948" y="274" font-size="12"&gt;卧龙&lt;/text&gt;</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f t="shared" ref="Q44:Q46" si="21">"L"&amp;I44&amp;" "&amp;J44&amp;" "</f>
-        <v xml:space="preserve">L940 289 </v>
+        <f t="shared" ref="Q44:Q46" si="28">"L"&amp;I44&amp;" "&amp;J44&amp;" "</f>
+        <v xml:space="preserve">L940 269 </v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
@@ -2992,7 +3023,7 @@
       </c>
       <c r="J45" s="9">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="L45" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3003,19 +3034,19 @@
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="994" y="283" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="994" y="263" width="10" height="10" </v>
       </c>
       <c r="O45" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="1007" y="293" font-size="12"&gt;</v>
+        <v>&lt;text x="1007" y="273" font-size="12"&gt;</v>
       </c>
       <c r="P45" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="994" y="283" width="10" height="10" fill="green"/&gt;&lt;text x="1007" y="293" font-size="12"&gt;映秀&lt;/text&gt;</v>
+        <v>&lt;rect x="994" y="263" width="10" height="10" fill="green"/&gt;&lt;text x="1007" y="273" font-size="12"&gt;映秀&lt;/text&gt;</v>
       </c>
       <c r="Q45" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">L999 288 </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">L999 268 </v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
@@ -3038,7 +3069,7 @@
       </c>
       <c r="J46" s="9">
         <f t="shared" si="2"/>
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="L46" s="9" t="str">
         <f t="shared" si="3"/>
@@ -3049,19 +3080,19 @@
       </c>
       <c r="N46" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="1031" cy="301" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="1031" cy="281" r="6" </v>
       </c>
       <c r="O46" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="1039" y="306" font-size="12"&gt;</v>
+        <v>&lt;text x="1039" y="286" font-size="12"&gt;</v>
       </c>
       <c r="P46" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="1031" cy="301" r="6" fill="green"/&gt;&lt;text x="1039" y="306" font-size="12"&gt;都江堰&lt;/text&gt;</v>
+        <v>&lt;circle cx="1031" cy="281" r="6" fill="green"/&gt;&lt;text x="1039" y="286" font-size="12"&gt;都江堰&lt;/text&gt;</v>
       </c>
       <c r="Q46" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">L1031 301 </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">L1031 281 </v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
@@ -3070,7 +3101,7 @@
       </c>
       <c r="R47" s="11" t="str">
         <f>SUBSTITUTE(Q5,"M","L")</f>
-        <v xml:space="preserve">L1116 369 </v>
+        <v xml:space="preserve">L1116 349 </v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -3083,7 +3114,7 @@
       </c>
       <c r="R49" s="11" t="str">
         <f>Q5</f>
-        <v xml:space="preserve">M1116 369 </v>
+        <v xml:space="preserve">M1116 349 </v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
@@ -3103,6 +3134,9 @@
       <c r="F50" s="7">
         <v>31.48301</v>
       </c>
+      <c r="H50" s="3">
+        <v>20</v>
+      </c>
       <c r="I50" s="9">
         <f>ROUND((E50-G$2)*I$2+G50,0)</f>
         <v>1019</v>
@@ -3131,7 +3165,7 @@
         <v>&lt;rect x="1014" y="198" width="10" height="10" fill="green"/&gt;&lt;text x="1027" y="208" font-size="12"&gt;汶川 13&lt;/text&gt;</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f t="shared" ref="Q50:Q57" si="22">"L"&amp;I50&amp;" "&amp;J50&amp;" "</f>
+        <f t="shared" ref="Q50:Q57" si="29">"L"&amp;I50&amp;" "&amp;J50&amp;" "</f>
         <v xml:space="preserve">L1019 203 </v>
       </c>
     </row>
@@ -3149,6 +3183,9 @@
       <c r="F51" s="7">
         <v>31.411359999999998</v>
       </c>
+      <c r="H51" s="3">
+        <v>20</v>
+      </c>
       <c r="I51" s="9">
         <f>ROUND((E51-G$2)*I$2+G51,0)</f>
         <v>916</v>
@@ -3192,7 +3229,7 @@
         <v>31.442550000000001</v>
       </c>
       <c r="H52" s="3">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I52" s="9">
         <f>ROUND((E52-G$2)*I$2+G52,0)</f>
@@ -3222,7 +3259,7 @@
         <v>&lt;rect x="930" y="196" width="10" height="10" fill="green"/&gt;&lt;text x="943" y="206" font-size="12"&gt;理县&lt;/text&gt;</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L935 201 </v>
       </c>
     </row>
@@ -3243,6 +3280,9 @@
       <c r="F53" s="7">
         <v>31.612624620149202</v>
       </c>
+      <c r="H53" s="3">
+        <v>20</v>
+      </c>
       <c r="I53" s="9">
         <f>ROUND((E53-G$2)*I$2+G53,0)</f>
         <v>852</v>
@@ -3271,7 +3311,7 @@
         <v>&lt;circle cx="852" cy="177" r="6" fill="green"/&gt;&lt;text x="860" y="182" font-size="12"&gt;米亚罗 28-34&lt;/text&gt;</v>
       </c>
       <c r="Q53" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L852 177 </v>
       </c>
     </row>
@@ -3289,6 +3329,9 @@
       <c r="F54" s="7">
         <v>31.911747955647702</v>
       </c>
+      <c r="H54" s="3">
+        <v>20</v>
+      </c>
       <c r="I54" s="9">
         <f t="shared" si="1"/>
         <v>743</v>
@@ -3317,7 +3360,7 @@
         <v>&lt;rect x="738" y="113" width="10" height="10" fill="green"/&gt;&lt;text x="751" y="123" font-size="12"&gt;马尔康&lt;/text&gt;</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L743 118 </v>
       </c>
     </row>
@@ -3338,6 +3381,9 @@
       <c r="F55" s="7">
         <v>31.824893182642001</v>
       </c>
+      <c r="H55" s="3">
+        <v>20</v>
+      </c>
       <c r="I55" s="9">
         <f t="shared" si="1"/>
         <v>638</v>
@@ -3366,7 +3412,7 @@
         <v>&lt;rect x="633" y="130" width="10" height="10" fill="green"/&gt;&lt;text x="646" y="140" font-size="12"&gt;观音桥&lt;/text&gt;</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L638 135 </v>
       </c>
     </row>
@@ -3387,6 +3433,9 @@
       <c r="F56" s="7">
         <v>31.877294798859602</v>
       </c>
+      <c r="H56" s="3">
+        <v>20</v>
+      </c>
       <c r="I56" s="9">
         <f t="shared" si="1"/>
         <v>447</v>
@@ -3415,7 +3464,7 @@
         <v>&lt;rect x="442" y="120" width="10" height="10" fill="green"/&gt;&lt;text x="455" y="130" font-size="12"&gt;翁达&lt;/text&gt;</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L447 125 </v>
       </c>
     </row>
@@ -3436,6 +3485,9 @@
       <c r="F57" s="7">
         <v>32.2743304132267</v>
       </c>
+      <c r="H57" s="3">
+        <v>20</v>
+      </c>
       <c r="I57" s="9">
         <f>ROUND((E57-G$2)*I$2+G57,0)</f>
         <v>368</v>
@@ -3464,7 +3516,7 @@
         <v>&lt;circle cx="368" cy="45" r="6" fill="green"/&gt;&lt;text x="376" y="50" font-size="12"&gt;色达 39&lt;/text&gt;</v>
       </c>
       <c r="Q57" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">L368 45 </v>
       </c>
     </row>
@@ -3491,6 +3543,9 @@
       <c r="F59" s="7">
         <v>31.66338</v>
       </c>
+      <c r="H59" s="3">
+        <v>20</v>
+      </c>
       <c r="I59" s="9">
         <f>ROUND((E59-G$2)*I$2+G59,0)</f>
         <v>353</v>
@@ -3550,7 +3605,7 @@
       </c>
       <c r="J62" s="9">
         <f>ROUND((H$2-F62)*J$2+H62,0)</f>
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="L62" s="9" t="str">
         <f>IF(K62&lt;&gt;"",K62,L$2)</f>
@@ -3561,15 +3616,15 @@
       </c>
       <c r="N62" s="9" t="str">
         <f>IF(M62="circle","&lt;circle cx="""&amp;I62&amp;""" cy="""&amp;J62&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I62-N$2&amp;""" y="""&amp;J62-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="389" y="783" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="389" y="763" width="10" height="10" </v>
       </c>
       <c r="O62" s="9" t="str">
         <f>"&lt;text x="""&amp;I62+C$2&amp;""" y="""&amp;J62+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="402" y="793" font-size="12"&gt;</v>
+        <v>&lt;text x="402" y="773" font-size="12"&gt;</v>
       </c>
       <c r="P62" s="4" t="str">
         <f>N62&amp;"fill="""&amp;L62&amp;"""/&gt;"&amp;O62&amp;B62&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="389" y="783" width="10" height="10" fill="green"/&gt;&lt;text x="402" y="793" font-size="12"&gt;日瓦&lt;/text&gt;</v>
+        <v>&lt;rect x="389" y="763" width="10" height="10" fill="green"/&gt;&lt;text x="402" y="773" font-size="12"&gt;日瓦&lt;/text&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED8911-E97C-45C9-A7C0-B632741B1C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E880673F-DD86-438C-9FD7-AE2BE4280A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="1" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日瓦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贡关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">      &lt;animateMotion path="</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t xml:space="preserve">    &lt;/text&gt;</t>
@@ -572,6 +565,50 @@
     <t>y-range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maplocation.sjfkai.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻城 37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日瓦 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海子山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑堆红草地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">牛奶海 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">霍亚然 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚丁 40-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +653,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -688,13 +734,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,22 +783,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1090,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFE20D-EB13-420A-910A-D120BEE25FD9}">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R52" sqref="R52"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R57" sqref="Q5:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1118,19 +1161,19 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -1139,22 +1182,25 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2">
@@ -1167,12 +1213,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="12" t="str">
-        <f>TEXT(MIN(I5:I1000),"#")&amp;" "&amp;TEXT(MAX(I5:I1000),"#")</f>
+        <f>TEXT(MIN(I5:I1009),"#")&amp;" "&amp;TEXT(MAX(I5:I1009),"#")</f>
         <v>123 1116</v>
       </c>
       <c r="F2" s="12" t="str">
-        <f>TEXT(MIN(J5:J1000),"#")&amp;" "&amp;TEXT(MAX(J5:J1000),"#")</f>
-        <v>45 768</v>
+        <f>TEXT(MIN(J5:J1009),"#")&amp;" "&amp;TEXT(MAX(J5:J1009),"#")</f>
+        <v>45 714</v>
       </c>
       <c r="G2" s="2">
         <v>98.5</v>
@@ -1188,7 +1234,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -1197,19 +1243,22 @@
         <v>5</v>
       </c>
       <c r="O2" s="2"/>
+      <c r="Q2" s="13" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
@@ -1230,60 +1279,60 @@
         <v>11</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="N4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1313,7 +1362,7 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -1337,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" ref="D6:D56" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
+        <f t="shared" ref="D6:D66" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
         <v>雅安</v>
       </c>
       <c r="E6" s="7">
@@ -1347,30 +1396,30 @@
         <v>30.016792545706071</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" ref="I6:I56" si="1">ROUND((E6-G$2)*I$2+G6,0)</f>
+        <f t="shared" ref="I6:I66" si="1">ROUND((E6-G$2)*I$2+G6,0)</f>
         <v>910</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" ref="J6:J56" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
+        <f t="shared" ref="J6:J66" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
         <v>477</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L56" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <f t="shared" ref="L6:L66" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N56" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <f t="shared" ref="N6:N66" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
         <v xml:space="preserve">&lt;rect x="905" y="472" width="10" height="10" </v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" ref="O6:O56" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <f t="shared" ref="O6:O66" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
         <v>&lt;text x="918" y="482" font-size="12"&gt;</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" ref="P6:P56" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <f t="shared" ref="P6:P66" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
         <v>&lt;rect x="905" y="472" width="10" height="10" fill="green"/&gt;&lt;text x="918" y="482" font-size="12"&gt;雅安&lt;/text&gt;</v>
       </c>
       <c r="Q6" s="4" t="str">
@@ -1405,7 +1454,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1420,16 +1469,16 @@
         <v>&lt;rect x="743" y="491" width="10" height="10" fill="green"/&gt;&lt;text x="756" y="501" font-size="12"&gt;泸定&lt;/text&gt;</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f t="shared" ref="Q7:Q27" si="7">"L"&amp;I7&amp;" "&amp;J7&amp;" "</f>
+        <f t="shared" ref="Q7:Q37" si="7">"L"&amp;I7&amp;" "&amp;J7&amp;" "</f>
         <v xml:space="preserve">L748 496 </v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" ref="D8:D13" si="8">IF(C8&lt;&gt;"",C8,B8)</f>
@@ -1460,7 +1509,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" ref="N8:N13" si="12">IF(M8="circle","&lt;circle cx="""&amp;I8&amp;""" cy="""&amp;J8&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I8-N$2&amp;""" y="""&amp;J8-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -1477,7 +1526,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1490,7 +1539,7 @@
         <v>29.587319374211798</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="9"/>
@@ -1498,34 +1547,34 @@
       </c>
       <c r="J9" s="9">
         <f t="shared" si="10"/>
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="L9" s="9" t="str">
         <f t="shared" si="11"/>
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">&lt;circle cx="637" cy="568" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="637" cy="578" r="6" </v>
       </c>
       <c r="O9" s="9" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;text x="645" y="573" font-size="12"&gt;</v>
+        <v>&lt;text x="645" y="583" font-size="12"&gt;</v>
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;circle cx="637" cy="568" r="6" fill="green"/&gt;&lt;text x="645" y="573" font-size="12"&gt;泉华滩&lt;/text&gt;</v>
+        <v>&lt;circle cx="637" cy="578" r="6" fill="green"/&gt;&lt;text x="645" y="583" font-size="12"&gt;泉华滩&lt;/text&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1556,7 +1605,7 @@
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="12"/>
@@ -1573,10 +1622,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1601,7 +1650,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="12"/>
@@ -1618,10 +1667,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1633,43 +1682,46 @@
       <c r="F12" s="7">
         <v>29.599381768531</v>
       </c>
+      <c r="G12" s="3">
+        <v>-20</v>
+      </c>
       <c r="I12" s="9">
         <f t="shared" si="9"/>
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="10"/>
         <v>560</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="11"/>
         <v>red</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">&lt;circle cx="677" cy="560" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="657" cy="560" r="6" </v>
       </c>
       <c r="O12" s="9" t="str">
         <f t="shared" si="13"/>
-        <v>&lt;text x="685" y="565" font-size="12"&gt;</v>
+        <v>&lt;text x="665" y="565" font-size="12"&gt;</v>
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;circle cx="677" cy="560" r="6" fill="red"/&gt;&lt;text x="685" y="565" font-size="12"&gt;贡嘎山 75&lt;/text&gt;</v>
+        <v>&lt;circle cx="657" cy="560" r="6" fill="red"/&gt;&lt;text x="665" y="565" font-size="12"&gt;贡嘎山 75&lt;/text&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1697,7 +1749,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="12"/>
@@ -1718,10 +1770,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1746,7 +1798,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1767,10 +1819,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>IF(C15&lt;&gt;"",C15,B15)</f>
@@ -1795,7 +1847,7 @@
         <v>green</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N15" s="9" t="str">
         <f>IF(M15="circle","&lt;circle cx="""&amp;I15&amp;""" cy="""&amp;J15&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I15-N$2&amp;""" y="""&amp;J15-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -1812,7 +1864,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R16" s="4" t="str">
         <f>VLOOKUP(A16,B:Q,16,0)</f>
@@ -1821,10 +1873,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1845,14 +1897,14 @@
         <v>456</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1873,7 +1925,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>5</v>
@@ -1901,7 +1953,7 @@
         <v>green</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1922,10 +1974,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1946,14 +1998,14 @@
         <v>480</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1974,10 +2026,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1993,7 +2045,7 @@
         <v>-45</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" ref="I20:I22" si="15">ROUND((E20-G$2)*I$2+G20,0)</f>
+        <f t="shared" ref="I20:I24" si="15">ROUND((E20-G$2)*I$2+G20,0)</f>
         <v>355</v>
       </c>
       <c r="J20" s="9">
@@ -2001,14 +2053,14 @@
         <v>435</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" ref="N20:N22" si="17">IF(M20="circle","&lt;circle cx="""&amp;I20&amp;""" cy="""&amp;J20&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I20-N$2&amp;""" y="""&amp;J20-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -2025,10 +2077,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2052,14 +2104,14 @@
         <v>450</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="17"/>
@@ -2076,10 +2128,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2103,14 +2155,14 @@
         <v>465</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="17"/>
@@ -2127,309 +2179,301 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>玛亚隆</v>
+        <v xml:space="preserve">霍亚然 </v>
       </c>
       <c r="E23" s="7">
-        <v>99.678584183821201</v>
+        <v>100.127829543944</v>
       </c>
       <c r="F23" s="7">
-        <v>30.325251381243874</v>
+        <v>29.416866997312201</v>
       </c>
       <c r="H23" s="3">
-        <v>20</v>
+        <v>-60</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="1"/>
-        <v>236</v>
+        <f t="shared" ref="I23:I27" si="20">ROUND((E23-G$2)*I$2+G23,0)</f>
+        <v>326</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="2"/>
-        <v>435</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>25</v>
+        <f t="shared" ref="J23:J27" si="21">ROUND((H$2-F23)*J$2+H23,0)</f>
+        <v>537</v>
       </c>
       <c r="L23" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>red</v>
+        <v>green</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N23" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="236" cy="435" r="6" </v>
+        <f t="shared" ref="N23:N27" si="22">IF(M23="circle","&lt;circle cx="""&amp;I23&amp;""" cy="""&amp;J23&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I23-N$2&amp;""" y="""&amp;J23-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="326" cy="537" r="6" </v>
       </c>
       <c r="O23" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="244" y="440" font-size="12"&gt;</v>
+        <f t="shared" ref="O23:O27" si="23">"&lt;text x="""&amp;I23+C$2&amp;""" y="""&amp;J23+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="334" y="542" font-size="12"&gt;</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="236" cy="435" r="6" fill="red"/&gt;&lt;text x="244" y="440" font-size="12"&gt;毛娅草原 40&lt;/text&gt;</v>
+        <f t="shared" ref="P23:P27" si="24">N23&amp;"fill="""&amp;L23&amp;"""/&gt;"&amp;O23&amp;B23&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="326" cy="537" r="6" fill="green"/&gt;&lt;text x="334" y="542" font-size="12"&gt;海子山&lt;/text&gt;</v>
       </c>
       <c r="Q23" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L236 435 </v>
+        <v xml:space="preserve">L326 537 </v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>色烔玛</v>
+        <v>银母</v>
       </c>
       <c r="E24" s="7">
-        <v>99.455180005186605</v>
+        <v>100.21847485801</v>
       </c>
       <c r="F24" s="7">
-        <v>30.3123774737365</v>
+        <v>29.111890113716701</v>
       </c>
       <c r="H24" s="3">
-        <v>-12</v>
+        <v>-70</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="1"/>
-        <v>191</v>
+        <f t="shared" si="20"/>
+        <v>344</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>25</v>
+        <f t="shared" si="21"/>
+        <v>588</v>
       </c>
       <c r="L24" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>red</v>
+        <v>green</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="191" cy="406" r="6" </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;circle cx="344" cy="588" r="6" </v>
       </c>
       <c r="O24" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="199" y="411" font-size="12"&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;text x="352" y="593" font-size="12"&gt;</v>
       </c>
       <c r="P24" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="191" cy="406" r="6" fill="red"/&gt;&lt;text x="199" y="411" font-size="12"&gt;姊妹湖 47&lt;/text&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;circle cx="344" cy="588" r="6" fill="green"/&gt;&lt;text x="352" y="593" font-size="12"&gt;桑堆红草地&lt;/text&gt;</v>
       </c>
       <c r="Q24" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L191 406 </v>
+        <v xml:space="preserve">L344 588 </v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>义敦</v>
+        <v>稻城</v>
       </c>
       <c r="E25" s="7">
-        <v>99.358396389880539</v>
+        <v>100.30446155970201</v>
       </c>
       <c r="F25" s="7">
-        <v>30.318605727541321</v>
-      </c>
-      <c r="G25" s="3">
-        <v>-10</v>
+        <v>29.043121558126298</v>
       </c>
       <c r="H25" s="3">
-        <v>5</v>
+        <v>-60</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="1"/>
-        <v>162</v>
+        <f t="shared" si="20"/>
+        <v>361</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>25</v>
+        <f t="shared" si="21"/>
+        <v>611</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>red</v>
+        <v>green</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N25" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="162" cy="421" r="6" </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;rect x="356" y="606" width="10" height="10" </v>
       </c>
       <c r="O25" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="170" y="426" font-size="12"&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;text x="369" y="616" font-size="12"&gt;</v>
       </c>
       <c r="P25" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="162" cy="421" r="6" fill="red"/&gt;&lt;text x="170" y="426" font-size="12"&gt;措普沟 32-45&lt;/text&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;rect x="356" y="606" width="10" height="10" fill="green"/&gt;&lt;text x="369" y="616" font-size="12"&gt;稻城 37&lt;/text&gt;</v>
       </c>
       <c r="Q25" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L162 421 </v>
+        <v xml:space="preserve">L361 611 </v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f t="shared" ref="D26" si="20">IF(C26&lt;&gt;"",C26,B26)</f>
-        <v>义敦</v>
+        <f t="shared" si="0"/>
+        <v>贡关</v>
       </c>
       <c r="E26" s="7">
-        <v>99.358396389880539</v>
+        <v>100.467542726676</v>
       </c>
       <c r="F26" s="7">
-        <v>30.318605727541321</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-15</v>
+        <v>28.5624425825897</v>
       </c>
       <c r="H26" s="3">
-        <v>-25</v>
+        <v>-90</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26" si="21">ROUND((E26-G$2)*I$2+G26,0)</f>
-        <v>157</v>
+        <f t="shared" si="20"/>
+        <v>394</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26" si="22">ROUND((H$2-F26)*J$2+H26,0)</f>
-        <v>391</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>25</v>
+        <f t="shared" si="21"/>
+        <v>678</v>
       </c>
       <c r="L26" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>red</v>
+        <v>green</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N26" s="9" t="str">
-        <f t="shared" ref="N26" si="23">IF(M26="circle","&lt;circle cx="""&amp;I26&amp;""" cy="""&amp;J26&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I26-N$2&amp;""" y="""&amp;J26-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="157" cy="391" r="6" </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;rect x="389" y="673" width="10" height="10" </v>
       </c>
       <c r="O26" s="9" t="str">
-        <f t="shared" ref="O26" si="24">"&lt;text x="""&amp;I26+C$2&amp;""" y="""&amp;J26+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="165" y="396" font-size="12"&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;text x="402" y="683" font-size="12"&gt;</v>
       </c>
       <c r="P26" s="4" t="str">
-        <f t="shared" ref="P26" si="25">N26&amp;"fill="""&amp;L26&amp;"""/&gt;"&amp;O26&amp;B26&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="157" cy="391" r="6" fill="red"/&gt;&lt;text x="165" y="396" font-size="12"&gt;扎金甲博神山&lt;/text&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;rect x="389" y="673" width="10" height="10" fill="green"/&gt;&lt;text x="402" y="683" font-size="12"&gt;日瓦 29&lt;/text&gt;</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L394 678 </v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>巴塘</v>
+        <v xml:space="preserve">牛奶海 </v>
       </c>
       <c r="E27" s="7">
-        <v>99.116726695819992</v>
+        <v>100.35553822284599</v>
       </c>
       <c r="F27" s="7">
-        <v>30.011661707376408</v>
+        <v>28.378361347195899</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-90</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f t="shared" si="20"/>
+        <v>371</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="2"/>
-        <v>478</v>
+        <f t="shared" si="21"/>
+        <v>714</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>red</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N27" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="118" y="473" width="10" height="10" </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;circle cx="371" cy="714" r="6" </v>
       </c>
       <c r="O27" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="131" y="483" font-size="12"&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;text x="379" y="719" font-size="12"&gt;</v>
       </c>
       <c r="P27" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;rect x="118" y="473" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="483" font-size="12"&gt;巴塘 30&lt;/text&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;circle cx="371" cy="714" r="6" fill="red"/&gt;&lt;text x="379" y="719" font-size="12"&gt;亚丁 40-46&lt;/text&gt;</v>
       </c>
       <c r="Q27" s="4" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">L123 478 </v>
+        <v xml:space="preserve">L371 714 </v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="R28" s="4" t="str">
-        <f>VLOOKUP(A28,B:Q,16,0)</f>
-        <v xml:space="preserve">L162 421 </v>
+        <f t="shared" ref="R28:R32" si="25">VLOOKUP(A28,B:Q,16,0)</f>
+        <v xml:space="preserve">L394 678 </v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="R29" s="4" t="str">
-        <f>VLOOKUP(A29,B:Q,16,0)</f>
-        <v xml:space="preserve">L191 406 </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">L361 611 </v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="R30" s="4" t="str">
-        <f>VLOOKUP(A30,B:Q,16,0)</f>
-        <v xml:space="preserve">L236 435 </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">L344 588 </v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="R31" s="4" t="str">
-        <f>VLOOKUP(A31,B:Q,16,0)</f>
-        <v xml:space="preserve">L355 480 </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">L326 537 </v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
@@ -2437,1270 +2481,1544 @@
         <v>55</v>
       </c>
       <c r="R32" s="4" t="str">
-        <f>VLOOKUP(A32,B:Q,16,0)</f>
-        <v xml:space="preserve">L600 468 </v>
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">L355 480 </v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>塔公寺</v>
+        <v>玛亚隆</v>
       </c>
       <c r="E33" s="7">
-        <v>101.528742835904</v>
+        <v>99.678584183821201</v>
       </c>
       <c r="F33" s="7">
-        <v>30.3249315436282</v>
+        <v>30.325251381243874</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>606</v>
+        <v>236</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>435</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>red</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="606" cy="415" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="236" cy="435" r="6" </v>
       </c>
       <c r="O33" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="614" y="420" font-size="12"&gt;</v>
+        <v>&lt;text x="244" y="440" font-size="12"&gt;</v>
       </c>
       <c r="P33" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="606" cy="415" r="6" fill="green"/&gt;&lt;text x="614" y="420" font-size="12"&gt;塔公草原 37&lt;/text&gt;</v>
+        <v>&lt;circle cx="236" cy="435" r="6" fill="red"/&gt;&lt;text x="244" y="440" font-size="12"&gt;毛娅草原 40&lt;/text&gt;</v>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" ref="Q33" si="26">"L"&amp;I33&amp;" "&amp;J33&amp;" "</f>
-        <v xml:space="preserve">L606 415 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L236 435 </v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>下瓦西村</v>
+        <v>色烔玛</v>
       </c>
       <c r="E34" s="7">
-        <v>101.56605215865</v>
+        <v>99.455180005186605</v>
       </c>
       <c r="F34" s="7">
-        <v>30.445635306429899</v>
+        <v>30.3123774737365</v>
+      </c>
+      <c r="H34" s="3">
+        <v>-12</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="1"/>
-        <v>613</v>
+        <v>191</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
-        <v>391</v>
+        <v>406</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>green</v>
+        <v>red</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="613" cy="391" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="191" cy="406" r="6" </v>
       </c>
       <c r="O34" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="621" y="396" font-size="12"&gt;</v>
+        <v>&lt;text x="199" y="411" font-size="12"&gt;</v>
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="613" cy="391" r="6" fill="green"/&gt;&lt;text x="621" y="396" font-size="12"&gt;墨石公园 35&lt;/text&gt;</v>
+        <v>&lt;circle cx="191" cy="406" r="6" fill="red"/&gt;&lt;text x="199" y="411" font-size="12"&gt;姊妹湖 47&lt;/text&gt;</v>
       </c>
       <c r="Q34" s="4" t="str">
-        <f t="shared" ref="Q34:Q41" si="27">"L"&amp;I34&amp;" "&amp;J34&amp;" "</f>
-        <v xml:space="preserve">L613 391 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L191 406 </v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f>IF(C35&lt;&gt;"",C35,B35)</f>
-        <v xml:space="preserve">八美沟 </v>
+        <f t="shared" si="0"/>
+        <v>义敦</v>
       </c>
       <c r="E35" s="7">
-        <v>101.438509754207</v>
+        <v>99.358396389880539</v>
       </c>
       <c r="F35" s="7">
-        <v>30.995421142445199</v>
+        <v>30.318605727541321</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
       </c>
       <c r="I35" s="9">
-        <f>ROUND((E35-G$2)*I$2+G35,0)</f>
-        <v>588</v>
+        <f t="shared" si="1"/>
+        <v>162</v>
       </c>
       <c r="J35" s="9">
-        <f>ROUND((H$2-F35)*J$2+H35,0)</f>
-        <v>281</v>
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L35" s="9" t="str">
-        <f>IF(K35&lt;&gt;"",K35,L$2)</f>
-        <v>green</v>
+        <f t="shared" si="3"/>
+        <v>red</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N35" s="9" t="str">
-        <f>IF(M35="circle","&lt;circle cx="""&amp;I35&amp;""" cy="""&amp;J35&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I35-N$2&amp;""" y="""&amp;J35-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="588" cy="281" r="6" </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="162" cy="421" r="6" </v>
       </c>
       <c r="O35" s="9" t="str">
-        <f>"&lt;text x="""&amp;I35+C$2&amp;""" y="""&amp;J35+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="596" y="286" font-size="12"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;text x="170" y="426" font-size="12"&gt;</v>
       </c>
       <c r="P35" s="4" t="str">
-        <f>N35&amp;"fill="""&amp;L35&amp;"""/&gt;"&amp;O35&amp;B35&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="588" cy="281" r="6" fill="green"/&gt;&lt;text x="596" y="286" font-size="12"&gt;党岭 33&lt;/text&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="162" cy="421" r="6" fill="red"/&gt;&lt;text x="170" y="426" font-size="12"&gt;措普沟 32-45&lt;/text&gt;</v>
       </c>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L588 281 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L162 421 </v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R36" s="4" t="str">
-        <f>VLOOKUP(A36,B:Q,16,0)</f>
-        <v xml:space="preserve">L613 391 </v>
+      <c r="B36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f t="shared" ref="D36" si="26">IF(C36&lt;&gt;"",C36,B36)</f>
+        <v>义敦</v>
+      </c>
+      <c r="E36" s="7">
+        <v>99.358396389880539</v>
+      </c>
+      <c r="F36" s="7">
+        <v>30.318605727541321</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-25</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" ref="I36" si="27">ROUND((E36-G$2)*I$2+G36,0)</f>
+        <v>157</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" ref="J36" si="28">ROUND((H$2-F36)*J$2+H36,0)</f>
+        <v>391</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>red</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="9" t="str">
+        <f t="shared" ref="N36" si="29">IF(M36="circle","&lt;circle cx="""&amp;I36&amp;""" cy="""&amp;J36&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I36-N$2&amp;""" y="""&amp;J36-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="157" cy="391" r="6" </v>
+      </c>
+      <c r="O36" s="9" t="str">
+        <f t="shared" ref="O36" si="30">"&lt;text x="""&amp;I36+C$2&amp;""" y="""&amp;J36+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="165" y="396" font-size="12"&gt;</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f t="shared" ref="P36" si="31">N36&amp;"fill="""&amp;L36&amp;"""/&gt;"&amp;O36&amp;B36&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="157" cy="391" r="6" fill="red"/&gt;&lt;text x="165" y="396" font-size="12"&gt;扎金甲博神山&lt;/text&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">可子寺 </v>
+        <v>巴塘</v>
       </c>
       <c r="E37" s="7">
-        <v>101.5435568819</v>
+        <v>99.116726695819992</v>
       </c>
       <c r="F37" s="7">
-        <v>30.5542786875186</v>
+        <v>30.011661707376408</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="1"/>
-        <v>609</v>
+        <v>123</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="2"/>
-        <v>369</v>
+        <v>478</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="609" cy="369" r="6" </v>
+        <v xml:space="preserve">&lt;rect x="118" y="473" width="10" height="10" </v>
       </c>
       <c r="O37" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="617" y="374" font-size="12"&gt;</v>
+        <v>&lt;text x="131" y="483" font-size="12"&gt;</v>
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="609" cy="369" r="6" fill="green"/&gt;&lt;text x="617" y="374" font-size="12"&gt;亚拉雪山&lt;/text&gt;</v>
+        <v>&lt;rect x="118" y="473" width="10" height="10" fill="green"/&gt;&lt;text x="131" y="483" font-size="12"&gt;巴塘 30&lt;/text&gt;</v>
       </c>
       <c r="Q37" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L609 369 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L123 478 </v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="9" t="str">
-        <f>IF(C38&lt;&gt;"",C38,B38)</f>
-        <v>甲居藏寨</v>
-      </c>
-      <c r="E38" s="7">
-        <v>101.88079999999999</v>
-      </c>
-      <c r="F38" s="7">
-        <v>30.92324</v>
-      </c>
-      <c r="H38" s="3">
-        <v>25</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="A38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" s="4" t="str">
+        <f>VLOOKUP(A38,B:Q,16,0)</f>
+        <v xml:space="preserve">L162 421 </v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" s="4" t="str">
+        <f>VLOOKUP(A39,B:Q,16,0)</f>
+        <v xml:space="preserve">L191 406 </v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" s="4" t="str">
+        <f>VLOOKUP(A40,B:Q,16,0)</f>
+        <v xml:space="preserve">L236 435 </v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R41" s="4" t="str">
+        <f>VLOOKUP(A41,B:Q,16,0)</f>
+        <v xml:space="preserve">L355 480 </v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R42" s="4" t="str">
+        <f>VLOOKUP(A42,B:Q,16,0)</f>
+        <v xml:space="preserve">L600 468 </v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>塔公寺</v>
+      </c>
+      <c r="E43" s="7">
+        <v>101.528742835904</v>
+      </c>
+      <c r="F43" s="7">
+        <v>30.3249315436282</v>
+      </c>
+      <c r="I43" s="9">
         <f t="shared" si="1"/>
-        <v>676</v>
-      </c>
-      <c r="J38" s="9">
+        <v>606</v>
+      </c>
+      <c r="J43" s="9">
         <f t="shared" si="2"/>
-        <v>320</v>
-      </c>
-      <c r="L38" s="9" t="str">
+        <v>415</v>
+      </c>
+      <c r="L43" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
-      <c r="M38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N38" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="676" cy="320" r="6" </v>
-      </c>
-      <c r="O38" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="684" y="325" font-size="12"&gt;</v>
-      </c>
-      <c r="P38" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="676" cy="320" r="6" fill="green"/&gt;&lt;text x="684" y="325" font-size="12"&gt;甲居藏寨&lt;/text&gt;</v>
-      </c>
-      <c r="Q38" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L676 320 </v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="9" t="str">
-        <f>IF(C39&lt;&gt;"",C39,B39)</f>
-        <v xml:space="preserve">俄满村 </v>
-      </c>
-      <c r="E39" s="7">
-        <v>101.93311577986501</v>
-      </c>
-      <c r="F39" s="7">
-        <v>30.9086779323606</v>
-      </c>
-      <c r="H39" s="3">
-        <v>10</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" si="1"/>
-        <v>687</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" si="2"/>
-        <v>308</v>
-      </c>
-      <c r="L39" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>green</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N39" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="687" cy="308" r="6" </v>
-      </c>
-      <c r="O39" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="695" y="313" font-size="12"&gt;</v>
-      </c>
-      <c r="P39" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="687" cy="308" r="6" fill="green"/&gt;&lt;text x="695" y="313" font-size="12"&gt;中路藏寨&lt;/text&gt;</v>
-      </c>
-      <c r="Q39" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L687 308 </v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="9" t="str">
-        <f>IF(C40&lt;&gt;"",C40,B40)</f>
-        <v>丹巴</v>
-      </c>
-      <c r="E40" s="7">
-        <v>101.8964</v>
-      </c>
-      <c r="F40" s="7">
-        <v>30.88477</v>
-      </c>
-      <c r="H40" s="3">
-        <v>-10</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="1"/>
-        <v>679</v>
-      </c>
-      <c r="J40" s="9">
-        <f t="shared" si="2"/>
-        <v>293</v>
-      </c>
-      <c r="L40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>green</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N40" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="674" y="288" width="10" height="10" </v>
-      </c>
-      <c r="O40" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="687" y="298" font-size="12"&gt;</v>
-      </c>
-      <c r="P40" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;rect x="674" y="288" width="10" height="10" fill="green"/&gt;&lt;text x="687" y="298" font-size="12"&gt;丹巴 19&lt;/text&gt;</v>
-      </c>
-      <c r="Q40" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L679 293 </v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="9" t="str">
-        <f>IF(C41&lt;&gt;"",C41,B41)</f>
-        <v xml:space="preserve">宋达村 </v>
-      </c>
-      <c r="E41" s="7">
-        <v>101.934586575477</v>
-      </c>
-      <c r="F41" s="7">
-        <v>30.855898351717698</v>
-      </c>
-      <c r="H41" s="3">
-        <v>-30</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="1"/>
-        <v>687</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="2"/>
-        <v>279</v>
-      </c>
-      <c r="L41" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>green</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N41" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="687" cy="279" r="6" </v>
-      </c>
-      <c r="O41" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="695" y="284" font-size="12"&gt;</v>
-      </c>
-      <c r="P41" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="687" cy="279" r="6" fill="green"/&gt;&lt;text x="695" y="284" font-size="12"&gt;梭坡古碉&lt;/text&gt;</v>
-      </c>
-      <c r="Q41" s="4" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">L687 279 </v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>巴郎山</v>
-      </c>
-      <c r="E42" s="7">
-        <v>102.9085</v>
-      </c>
-      <c r="F42" s="7">
-        <v>30.94097</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="1"/>
-        <v>882</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="2"/>
-        <v>292</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>red</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N42" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="882" cy="292" r="6" </v>
-      </c>
-      <c r="O42" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="890" y="297" font-size="12"&gt;</v>
-      </c>
-      <c r="P42" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;circle cx="882" cy="292" r="6" fill="red"/&gt;&lt;text x="890" y="297" font-size="12"&gt;巴郎山 45&lt;/text&gt;</v>
-      </c>
-      <c r="Q42" s="4" t="str">
-        <f>"L"&amp;I42&amp;" "&amp;J42&amp;" "</f>
-        <v xml:space="preserve">L882 292 </v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>四姑娘山</v>
-      </c>
-      <c r="E43" s="7">
-        <v>102.81870000000001</v>
-      </c>
-      <c r="F43" s="7">
-        <v>31.035119999999999</v>
-      </c>
-      <c r="G43" s="3">
-        <v>-5</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="1"/>
-        <v>859</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>red</v>
-      </c>
       <c r="M43" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="859" cy="273" r="6" </v>
+        <v xml:space="preserve">&lt;circle cx="606" cy="415" r="6" </v>
       </c>
       <c r="O43" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="867" y="278" font-size="12"&gt;</v>
+        <v>&lt;text x="614" y="420" font-size="12"&gt;</v>
       </c>
       <c r="P43" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="859" cy="273" r="6" fill="red"/&gt;&lt;text x="867" y="278" font-size="12"&gt;四姑娘山 62&lt;/text&gt;</v>
+        <v>&lt;circle cx="606" cy="415" r="6" fill="green"/&gt;&lt;text x="614" y="420" font-size="12"&gt;塔公草原 37&lt;/text&gt;</v>
+      </c>
+      <c r="Q43" s="4" t="str">
+        <f t="shared" ref="Q43" si="32">"L"&amp;I43&amp;" "&amp;J43&amp;" "</f>
+        <v xml:space="preserve">L606 415 </v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">脚木沟 </v>
+        <v>下瓦西村</v>
       </c>
       <c r="E44" s="7">
-        <v>103.20159062269801</v>
+        <v>101.56605215865</v>
       </c>
       <c r="F44" s="7">
-        <v>31.0574249622195</v>
+        <v>30.445635306429899</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="1"/>
-        <v>940</v>
+        <v>613</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="L44" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="935" y="264" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;circle cx="613" cy="391" r="6" </v>
       </c>
       <c r="O44" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="948" y="274" font-size="12"&gt;</v>
+        <v>&lt;text x="621" y="396" font-size="12"&gt;</v>
       </c>
       <c r="P44" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="935" y="264" width="10" height="10" fill="green"/&gt;&lt;text x="948" y="274" font-size="12"&gt;卧龙&lt;/text&gt;</v>
+        <v>&lt;circle cx="613" cy="391" r="6" fill="green"/&gt;&lt;text x="621" y="396" font-size="12"&gt;墨石公园 35&lt;/text&gt;</v>
       </c>
       <c r="Q44" s="4" t="str">
-        <f t="shared" ref="Q44:Q46" si="28">"L"&amp;I44&amp;" "&amp;J44&amp;" "</f>
-        <v xml:space="preserve">L940 269 </v>
+        <f t="shared" ref="Q44:Q51" si="33">"L"&amp;I44&amp;" "&amp;J44&amp;" "</f>
+        <v xml:space="preserve">L613 391 </v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D45" s="9" t="str">
+        <f>IF(C45&lt;&gt;"",C45,B45)</f>
+        <v xml:space="preserve">八美沟 </v>
+      </c>
+      <c r="E45" s="7">
+        <v>101.438509754207</v>
+      </c>
+      <c r="F45" s="7">
+        <v>30.995421142445199</v>
+      </c>
+      <c r="I45" s="9">
+        <f>ROUND((E45-G$2)*I$2+G45,0)</f>
+        <v>588</v>
+      </c>
+      <c r="J45" s="9">
+        <f>ROUND((H$2-F45)*J$2+H45,0)</f>
+        <v>281</v>
+      </c>
+      <c r="L45" s="9" t="str">
+        <f>IF(K45&lt;&gt;"",K45,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N45" s="9" t="str">
+        <f>IF(M45="circle","&lt;circle cx="""&amp;I45&amp;""" cy="""&amp;J45&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I45-N$2&amp;""" y="""&amp;J45-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="588" cy="281" r="6" </v>
+      </c>
+      <c r="O45" s="9" t="str">
+        <f>"&lt;text x="""&amp;I45+C$2&amp;""" y="""&amp;J45+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="596" y="286" font-size="12"&gt;</v>
+      </c>
+      <c r="P45" s="4" t="str">
+        <f>N45&amp;"fill="""&amp;L45&amp;"""/&gt;"&amp;O45&amp;B45&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="588" cy="281" r="6" fill="green"/&gt;&lt;text x="596" y="286" font-size="12"&gt;党岭 33&lt;/text&gt;</v>
+      </c>
+      <c r="Q45" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L588 281 </v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R46" s="4" t="str">
+        <f>VLOOKUP(A46,B:Q,16,0)</f>
+        <v xml:space="preserve">L613 391 </v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>映秀</v>
-      </c>
-      <c r="E45" s="7">
-        <v>103.4939</v>
-      </c>
-      <c r="F45" s="7">
-        <v>31.059889999999999</v>
-      </c>
-      <c r="I45" s="9">
+        <v xml:space="preserve">可子寺 </v>
+      </c>
+      <c r="E47" s="7">
+        <v>101.5435568819</v>
+      </c>
+      <c r="F47" s="7">
+        <v>30.5542786875186</v>
+      </c>
+      <c r="I47" s="9">
         <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-      <c r="J45" s="9">
+        <v>609</v>
+      </c>
+      <c r="J47" s="9">
         <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="L45" s="9" t="str">
+        <v>369</v>
+      </c>
+      <c r="L47" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N45" s="9" t="str">
+      <c r="M47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="994" y="263" width="10" height="10" </v>
-      </c>
-      <c r="O45" s="9" t="str">
+        <v xml:space="preserve">&lt;circle cx="609" cy="369" r="6" </v>
+      </c>
+      <c r="O47" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="1007" y="273" font-size="12"&gt;</v>
-      </c>
-      <c r="P45" s="4" t="str">
+        <v>&lt;text x="617" y="374" font-size="12"&gt;</v>
+      </c>
+      <c r="P47" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="994" y="263" width="10" height="10" fill="green"/&gt;&lt;text x="1007" y="273" font-size="12"&gt;映秀&lt;/text&gt;</v>
-      </c>
-      <c r="Q45" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">L999 268 </v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>都江堰</v>
-      </c>
-      <c r="E46" s="7">
-        <v>103.65349999999999</v>
-      </c>
-      <c r="F46" s="7">
-        <v>30.994260000000001</v>
-      </c>
-      <c r="I46" s="9">
+        <v>&lt;circle cx="609" cy="369" r="6" fill="green"/&gt;&lt;text x="617" y="374" font-size="12"&gt;亚拉雪山&lt;/text&gt;</v>
+      </c>
+      <c r="Q47" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L609 369 </v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="9" t="str">
+        <f>IF(C48&lt;&gt;"",C48,B48)</f>
+        <v>甲居藏寨</v>
+      </c>
+      <c r="E48" s="7">
+        <v>101.88079999999999</v>
+      </c>
+      <c r="F48" s="7">
+        <v>30.92324</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25</v>
+      </c>
+      <c r="I48" s="9">
         <f t="shared" si="1"/>
-        <v>1031</v>
-      </c>
-      <c r="J46" s="9">
+        <v>676</v>
+      </c>
+      <c r="J48" s="9">
         <f t="shared" si="2"/>
-        <v>281</v>
-      </c>
-      <c r="L46" s="9" t="str">
+        <v>320</v>
+      </c>
+      <c r="L48" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N46" s="9" t="str">
+      <c r="M48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;circle cx="1031" cy="281" r="6" </v>
-      </c>
-      <c r="O46" s="9" t="str">
+        <v xml:space="preserve">&lt;circle cx="676" cy="320" r="6" </v>
+      </c>
+      <c r="O48" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="1039" y="286" font-size="12"&gt;</v>
-      </c>
-      <c r="P46" s="4" t="str">
+        <v>&lt;text x="684" y="325" font-size="12"&gt;</v>
+      </c>
+      <c r="P48" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;circle cx="1031" cy="281" r="6" fill="green"/&gt;&lt;text x="1039" y="286" font-size="12"&gt;都江堰&lt;/text&gt;</v>
-      </c>
-      <c r="Q46" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">L1031 281 </v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="11" t="str">
-        <f>SUBSTITUTE(Q5,"M","L")</f>
-        <v xml:space="preserve">L1116 349 </v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+        <v>&lt;circle cx="676" cy="320" r="6" fill="green"/&gt;&lt;text x="684" y="325" font-size="12"&gt;甲居藏寨&lt;/text&gt;</v>
+      </c>
+      <c r="Q48" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L676 320 </v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="11" t="str">
-        <f>Q5</f>
-        <v xml:space="preserve">M1116 349 </v>
+      <c r="B49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="9" t="str">
+        <f>IF(C49&lt;&gt;"",C49,B49)</f>
+        <v xml:space="preserve">俄满村 </v>
+      </c>
+      <c r="E49" s="7">
+        <v>101.93311577986501</v>
+      </c>
+      <c r="F49" s="7">
+        <v>30.9086779323606</v>
+      </c>
+      <c r="H49" s="3">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="1"/>
+        <v>687</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="L49" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="687" cy="308" r="6" </v>
+      </c>
+      <c r="O49" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="695" y="313" font-size="12"&gt;</v>
+      </c>
+      <c r="P49" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="687" cy="308" r="6" fill="green"/&gt;&lt;text x="695" y="313" font-size="12"&gt;中路藏寨&lt;/text&gt;</v>
+      </c>
+      <c r="Q49" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L687 308 </v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D50" s="9" t="str">
         <f>IF(C50&lt;&gt;"",C50,B50)</f>
-        <v>汶川</v>
+        <v>丹巴</v>
       </c>
       <c r="E50" s="7">
-        <v>103.59650000000001</v>
+        <v>101.8964</v>
       </c>
       <c r="F50" s="7">
-        <v>31.48301</v>
+        <v>30.88477</v>
       </c>
       <c r="H50" s="3">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="I50" s="9">
-        <f>ROUND((E50-G$2)*I$2+G50,0)</f>
-        <v>1019</v>
+        <f t="shared" si="1"/>
+        <v>679</v>
       </c>
       <c r="J50" s="9">
-        <f>ROUND((H$2-F50)*J$2+H50,0)</f>
-        <v>203</v>
+        <f t="shared" si="2"/>
+        <v>293</v>
       </c>
       <c r="L50" s="9" t="str">
-        <f>IF(K50&lt;&gt;"",K50,L$2)</f>
+        <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="N50" s="9" t="str">
-        <f>IF(M50="circle","&lt;circle cx="""&amp;I50&amp;""" cy="""&amp;J50&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I50-N$2&amp;""" y="""&amp;J50-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="1014" y="198" width="10" height="10" </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="674" y="288" width="10" height="10" </v>
       </c>
       <c r="O50" s="9" t="str">
-        <f>"&lt;text x="""&amp;I50+C$2&amp;""" y="""&amp;J50+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="1027" y="208" font-size="12"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;text x="687" y="298" font-size="12"&gt;</v>
       </c>
       <c r="P50" s="4" t="str">
-        <f>N50&amp;"fill="""&amp;L50&amp;"""/&gt;"&amp;O50&amp;B50&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="1014" y="198" width="10" height="10" fill="green"/&gt;&lt;text x="1027" y="208" font-size="12"&gt;汶川 13&lt;/text&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="674" y="288" width="10" height="10" fill="green"/&gt;&lt;text x="687" y="298" font-size="12"&gt;丹巴 19&lt;/text&gt;</v>
       </c>
       <c r="Q50" s="4" t="str">
-        <f t="shared" ref="Q50:Q57" si="29">"L"&amp;I50&amp;" "&amp;J50&amp;" "</f>
-        <v xml:space="preserve">L1019 203 </v>
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L679 293 </v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>62</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="9" t="str">
         <f>IF(C51&lt;&gt;"",C51,B51)</f>
-        <v>毕棚沟</v>
+        <v xml:space="preserve">宋达村 </v>
       </c>
       <c r="E51" s="7">
-        <v>103.0793</v>
+        <v>101.934586575477</v>
       </c>
       <c r="F51" s="7">
-        <v>31.411359999999998</v>
+        <v>30.855898351717698</v>
       </c>
       <c r="H51" s="3">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="I51" s="9">
-        <f>ROUND((E51-G$2)*I$2+G51,0)</f>
-        <v>916</v>
+        <f t="shared" si="1"/>
+        <v>687</v>
       </c>
       <c r="J51" s="9">
-        <f>ROUND((H$2-F51)*J$2+H51,0)</f>
-        <v>218</v>
+        <f t="shared" si="2"/>
+        <v>279</v>
       </c>
       <c r="L51" s="9" t="str">
-        <f>IF(K51&lt;&gt;"",K51,L$2)</f>
+        <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N51" s="9" t="str">
-        <f>IF(M51="circle","&lt;circle cx="""&amp;I51&amp;""" cy="""&amp;J51&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I51-N$2&amp;""" y="""&amp;J51-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="916" cy="218" r="6" </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="687" cy="279" r="6" </v>
       </c>
       <c r="O51" s="9" t="str">
-        <f>"&lt;text x="""&amp;I51+C$2&amp;""" y="""&amp;J51+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="924" y="223" font-size="12"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;text x="695" y="284" font-size="12"&gt;</v>
       </c>
       <c r="P51" s="4" t="str">
-        <f>N51&amp;"fill="""&amp;L51&amp;"""/&gt;"&amp;O51&amp;B51&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="916" cy="218" r="6" fill="green"/&gt;&lt;text x="924" y="223" font-size="12"&gt;毕棚沟&lt;/text&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="687" cy="279" r="6" fill="green"/&gt;&lt;text x="695" y="284" font-size="12"&gt;梭坡古碉&lt;/text&gt;</v>
+      </c>
+      <c r="Q51" s="4" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">L687 279 </v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D52" s="9" t="str">
-        <f>IF(C52&lt;&gt;"",C52,B52)</f>
-        <v>理县</v>
+        <f t="shared" si="0"/>
+        <v>巴郎山</v>
       </c>
       <c r="E52" s="7">
-        <v>103.1735</v>
+        <v>102.9085</v>
       </c>
       <c r="F52" s="7">
-        <v>31.442550000000001</v>
-      </c>
-      <c r="H52" s="3">
-        <v>10</v>
+        <v>30.94097</v>
       </c>
       <c r="I52" s="9">
-        <f>ROUND((E52-G$2)*I$2+G52,0)</f>
-        <v>935</v>
+        <f t="shared" si="1"/>
+        <v>882</v>
       </c>
       <c r="J52" s="9">
-        <f>ROUND((H$2-F52)*J$2+H52,0)</f>
-        <v>201</v>
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L52" s="9" t="str">
-        <f>IF(K52&lt;&gt;"",K52,L$2)</f>
-        <v>green</v>
+        <f t="shared" si="3"/>
+        <v>red</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="N52" s="9" t="str">
-        <f>IF(M52="circle","&lt;circle cx="""&amp;I52&amp;""" cy="""&amp;J52&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I52-N$2&amp;""" y="""&amp;J52-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="930" y="196" width="10" height="10" </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="882" cy="292" r="6" </v>
       </c>
       <c r="O52" s="9" t="str">
-        <f>"&lt;text x="""&amp;I52+C$2&amp;""" y="""&amp;J52+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="943" y="206" font-size="12"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;text x="890" y="297" font-size="12"&gt;</v>
       </c>
       <c r="P52" s="4" t="str">
-        <f>N52&amp;"fill="""&amp;L52&amp;"""/&gt;"&amp;O52&amp;B52&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="930" y="196" width="10" height="10" fill="green"/&gt;&lt;text x="943" y="206" font-size="12"&gt;理县&lt;/text&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="882" cy="292" r="6" fill="red"/&gt;&lt;text x="890" y="297" font-size="12"&gt;巴郎山 45&lt;/text&gt;</v>
       </c>
       <c r="Q52" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L935 201 </v>
+        <f>"L"&amp;I52&amp;" "&amp;J52&amp;" "</f>
+        <v xml:space="preserve">L882 292 </v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D53" s="9" t="str">
-        <f>IF(C53&lt;&gt;"",C53,B53)</f>
-        <v>龙洞子沟</v>
+        <f t="shared" si="0"/>
+        <v>四姑娘山</v>
       </c>
       <c r="E53" s="7">
-        <v>102.762139657047</v>
+        <v>102.81870000000001</v>
       </c>
       <c r="F53" s="7">
-        <v>31.612624620149202</v>
-      </c>
-      <c r="H53" s="3">
-        <v>20</v>
+        <v>31.035119999999999</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-5</v>
       </c>
       <c r="I53" s="9">
-        <f>ROUND((E53-G$2)*I$2+G53,0)</f>
-        <v>852</v>
+        <f t="shared" si="1"/>
+        <v>859</v>
       </c>
       <c r="J53" s="9">
-        <f>ROUND((H$2-F53)*J$2+H53,0)</f>
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L53" s="9" t="str">
-        <f>IF(K53&lt;&gt;"",K53,L$2)</f>
-        <v>green</v>
+        <f t="shared" si="3"/>
+        <v>red</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N53" s="9" t="str">
-        <f>IF(M53="circle","&lt;circle cx="""&amp;I53&amp;""" cy="""&amp;J53&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I53-N$2&amp;""" y="""&amp;J53-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="852" cy="177" r="6" </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="859" cy="273" r="6" </v>
       </c>
       <c r="O53" s="9" t="str">
-        <f>"&lt;text x="""&amp;I53+C$2&amp;""" y="""&amp;J53+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="860" y="182" font-size="12"&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;text x="867" y="278" font-size="12"&gt;</v>
       </c>
       <c r="P53" s="4" t="str">
-        <f>N53&amp;"fill="""&amp;L53&amp;"""/&gt;"&amp;O53&amp;B53&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="852" cy="177" r="6" fill="green"/&gt;&lt;text x="860" y="182" font-size="12"&gt;米亚罗 28-34&lt;/text&gt;</v>
-      </c>
-      <c r="Q53" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L852 177 </v>
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="859" cy="273" r="6" fill="red"/&gt;&lt;text x="867" y="278" font-size="12"&gt;四姑娘山 62&lt;/text&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>马尔康</v>
+        <v xml:space="preserve">脚木沟 </v>
       </c>
       <c r="E54" s="7">
-        <v>102.21350208208401</v>
+        <v>103.20159062269801</v>
       </c>
       <c r="F54" s="7">
-        <v>31.911747955647702</v>
-      </c>
-      <c r="H54" s="3">
-        <v>20</v>
+        <v>31.0574249622195</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="1"/>
-        <v>743</v>
+        <v>940</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="L54" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N54" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="738" y="113" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="935" y="264" width="10" height="10" </v>
       </c>
       <c r="O54" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="751" y="123" font-size="12"&gt;</v>
+        <v>&lt;text x="948" y="274" font-size="12"&gt;</v>
       </c>
       <c r="P54" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="738" y="113" width="10" height="10" fill="green"/&gt;&lt;text x="751" y="123" font-size="12"&gt;马尔康&lt;/text&gt;</v>
+        <v>&lt;rect x="935" y="264" width="10" height="10" fill="green"/&gt;&lt;text x="948" y="274" font-size="12"&gt;卧龙&lt;/text&gt;</v>
       </c>
       <c r="Q54" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L743 118 </v>
+        <f t="shared" ref="Q54:Q56" si="34">"L"&amp;I54&amp;" "&amp;J54&amp;" "</f>
+        <v xml:space="preserve">L940 269 </v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">列门 </v>
+        <v>映秀</v>
       </c>
       <c r="E55" s="7">
-        <v>101.691240373843</v>
+        <v>103.4939</v>
       </c>
       <c r="F55" s="7">
-        <v>31.824893182642001</v>
-      </c>
-      <c r="H55" s="3">
-        <v>20</v>
+        <v>31.059889999999999</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="1"/>
-        <v>638</v>
+        <v>999</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="L55" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="633" y="130" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="994" y="263" width="10" height="10" </v>
       </c>
       <c r="O55" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="646" y="140" font-size="12"&gt;</v>
+        <v>&lt;text x="1007" y="273" font-size="12"&gt;</v>
       </c>
       <c r="P55" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="633" y="130" width="10" height="10" fill="green"/&gt;&lt;text x="646" y="140" font-size="12"&gt;观音桥&lt;/text&gt;</v>
+        <v>&lt;rect x="994" y="263" width="10" height="10" fill="green"/&gt;&lt;text x="1007" y="273" font-size="12"&gt;映秀&lt;/text&gt;</v>
       </c>
       <c r="Q55" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L638 135 </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">L999 268 </v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>翁达镇</v>
+        <v>都江堰</v>
       </c>
       <c r="E56" s="7">
-        <v>100.736582093121</v>
+        <v>103.65349999999999</v>
       </c>
       <c r="F56" s="7">
-        <v>31.877294798859602</v>
-      </c>
-      <c r="H56" s="3">
-        <v>20</v>
+        <v>30.994260000000001</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="1"/>
-        <v>447</v>
+        <v>1031</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="L56" s="9" t="str">
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="442" y="120" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;circle cx="1031" cy="281" r="6" </v>
       </c>
       <c r="O56" s="9" t="str">
         <f t="shared" si="5"/>
-        <v>&lt;text x="455" y="130" font-size="12"&gt;</v>
+        <v>&lt;text x="1039" y="286" font-size="12"&gt;</v>
       </c>
       <c r="P56" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>&lt;rect x="442" y="120" width="10" height="10" fill="green"/&gt;&lt;text x="455" y="130" font-size="12"&gt;翁达&lt;/text&gt;</v>
+        <v>&lt;circle cx="1031" cy="281" r="6" fill="green"/&gt;&lt;text x="1039" y="286" font-size="12"&gt;都江堰&lt;/text&gt;</v>
       </c>
       <c r="Q56" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L447 125 </v>
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">L1031 281 </v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R57" s="11" t="str">
+        <f>SUBSTITUTE(Q5,"M","L")</f>
+        <v xml:space="preserve">L1116 349 </v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="11" t="str">
+        <f>Q5</f>
+        <v xml:space="preserve">M1116 349 </v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="9" t="str">
-        <f>IF(C57&lt;&gt;"",C57,B57)</f>
-        <v>色达</v>
-      </c>
-      <c r="E57" s="7">
-        <v>100.339413649181</v>
-      </c>
-      <c r="F57" s="7">
-        <v>32.2743304132267</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="D60" s="9" t="str">
+        <f>IF(C60&lt;&gt;"",C60,B60)</f>
+        <v>汶川</v>
+      </c>
+      <c r="E60" s="7">
+        <v>103.59650000000001</v>
+      </c>
+      <c r="F60" s="7">
+        <v>31.48301</v>
+      </c>
+      <c r="H60" s="3">
         <v>20</v>
       </c>
-      <c r="I57" s="9">
-        <f>ROUND((E57-G$2)*I$2+G57,0)</f>
-        <v>368</v>
-      </c>
-      <c r="J57" s="9">
-        <f>ROUND((H$2-F57)*J$2+H57,0)</f>
-        <v>45</v>
-      </c>
-      <c r="L57" s="9" t="str">
-        <f>IF(K57&lt;&gt;"",K57,L$2)</f>
+      <c r="I60" s="9">
+        <f>ROUND((E60-G$2)*I$2+G60,0)</f>
+        <v>1019</v>
+      </c>
+      <c r="J60" s="9">
+        <f>ROUND((H$2-F60)*J$2+H60,0)</f>
+        <v>203</v>
+      </c>
+      <c r="L60" s="9" t="str">
+        <f>IF(K60&lt;&gt;"",K60,L$2)</f>
         <v>green</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N57" s="9" t="str">
-        <f>IF(M57="circle","&lt;circle cx="""&amp;I57&amp;""" cy="""&amp;J57&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I57-N$2&amp;""" y="""&amp;J57-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="368" cy="45" r="6" </v>
-      </c>
-      <c r="O57" s="9" t="str">
-        <f>"&lt;text x="""&amp;I57+C$2&amp;""" y="""&amp;J57+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="376" y="50" font-size="12"&gt;</v>
-      </c>
-      <c r="P57" s="4" t="str">
-        <f>N57&amp;"fill="""&amp;L57&amp;"""/&gt;"&amp;O57&amp;B57&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="368" cy="45" r="6" fill="green"/&gt;&lt;text x="376" y="50" font-size="12"&gt;色达 39&lt;/text&gt;</v>
-      </c>
-      <c r="Q57" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">L368 45 </v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R58" s="4" t="str">
-        <f>VLOOKUP(A58,B:Q,16,0)</f>
-        <v xml:space="preserve">L447 125 </v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="9" t="str">
-        <f>IF(C59&lt;&gt;"",C59,B59)</f>
-        <v>卡萨湖</v>
-      </c>
-      <c r="E59" s="7">
-        <v>100.265</v>
-      </c>
-      <c r="F59" s="7">
-        <v>31.66338</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="M60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" s="9" t="str">
+        <f>IF(M60="circle","&lt;circle cx="""&amp;I60&amp;""" cy="""&amp;J60&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I60-N$2&amp;""" y="""&amp;J60-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="1014" y="198" width="10" height="10" </v>
+      </c>
+      <c r="O60" s="9" t="str">
+        <f>"&lt;text x="""&amp;I60+C$2&amp;""" y="""&amp;J60+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="1027" y="208" font-size="12"&gt;</v>
+      </c>
+      <c r="P60" s="4" t="str">
+        <f>N60&amp;"fill="""&amp;L60&amp;"""/&gt;"&amp;O60&amp;B60&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="1014" y="198" width="10" height="10" fill="green"/&gt;&lt;text x="1027" y="208" font-size="12"&gt;汶川 13&lt;/text&gt;</v>
+      </c>
+      <c r="Q60" s="4" t="str">
+        <f t="shared" ref="Q60:Q67" si="35">"L"&amp;I60&amp;" "&amp;J60&amp;" "</f>
+        <v xml:space="preserve">L1019 203 </v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="9" t="str">
+        <f>IF(C61&lt;&gt;"",C61,B61)</f>
+        <v>毕棚沟</v>
+      </c>
+      <c r="E61" s="7">
+        <v>103.0793</v>
+      </c>
+      <c r="F61" s="7">
+        <v>31.411359999999998</v>
+      </c>
+      <c r="H61" s="3">
         <v>20</v>
       </c>
-      <c r="I59" s="9">
-        <f>ROUND((E59-G$2)*I$2+G59,0)</f>
-        <v>353</v>
-      </c>
-      <c r="J59" s="9">
-        <f>ROUND((H$2-F59)*J$2+H59,0)</f>
-        <v>167</v>
-      </c>
-      <c r="L59" s="9" t="str">
-        <f>IF(K59&lt;&gt;"",K59,L$2)</f>
+      <c r="I61" s="9">
+        <f>ROUND((E61-G$2)*I$2+G61,0)</f>
+        <v>916</v>
+      </c>
+      <c r="J61" s="9">
+        <f>ROUND((H$2-F61)*J$2+H61,0)</f>
+        <v>218</v>
+      </c>
+      <c r="L61" s="9" t="str">
+        <f>IF(K61&lt;&gt;"",K61,L$2)</f>
         <v>green</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N59" s="9" t="str">
-        <f>IF(M59="circle","&lt;circle cx="""&amp;I59&amp;""" cy="""&amp;J59&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I59-N$2&amp;""" y="""&amp;J59-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;circle cx="353" cy="167" r="6" </v>
-      </c>
-      <c r="O59" s="9" t="str">
-        <f>"&lt;text x="""&amp;I59+C$2&amp;""" y="""&amp;J59+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="361" y="172" font-size="12"&gt;</v>
-      </c>
-      <c r="P59" s="4" t="str">
-        <f>N59&amp;"fill="""&amp;L59&amp;"""/&gt;"&amp;O59&amp;B59&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="353" cy="167" r="6" fill="green"/&gt;&lt;text x="361" y="172" font-size="12"&gt;卡萨湖&lt;/text&gt;</v>
-      </c>
-      <c r="Q59" s="4" t="str">
-        <f>"L"&amp;I59&amp;" "&amp;J59&amp;" "</f>
-        <v xml:space="preserve">L353 167 </v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="M61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="9" t="str">
+        <f>IF(M61="circle","&lt;circle cx="""&amp;I61&amp;""" cy="""&amp;J61&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I61-N$2&amp;""" y="""&amp;J61-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="916" cy="218" r="6" </v>
+      </c>
+      <c r="O61" s="9" t="str">
+        <f>"&lt;text x="""&amp;I61+C$2&amp;""" y="""&amp;J61+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="924" y="223" font-size="12"&gt;</v>
+      </c>
+      <c r="P61" s="4" t="str">
+        <f>N61&amp;"fill="""&amp;L61&amp;"""/&gt;"&amp;O61&amp;B61&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="916" cy="218" r="6" fill="green"/&gt;&lt;text x="924" y="223" font-size="12"&gt;毕棚沟&lt;/text&gt;</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D62" s="9" t="str">
         <f>IF(C62&lt;&gt;"",C62,B62)</f>
-        <v>贡关</v>
+        <v>理县</v>
       </c>
       <c r="E62" s="7">
-        <v>100.467542726676</v>
+        <v>103.1735</v>
       </c>
       <c r="F62" s="7">
-        <v>28.5624425825897</v>
+        <v>31.442550000000001</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10</v>
       </c>
       <c r="I62" s="9">
         <f>ROUND((E62-G$2)*I$2+G62,0)</f>
-        <v>394</v>
+        <v>935</v>
       </c>
       <c r="J62" s="9">
         <f>ROUND((H$2-F62)*J$2+H62,0)</f>
-        <v>768</v>
+        <v>201</v>
       </c>
       <c r="L62" s="9" t="str">
         <f>IF(K62&lt;&gt;"",K62,L$2)</f>
         <v>green</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="N62" s="9" t="str">
         <f>IF(M62="circle","&lt;circle cx="""&amp;I62&amp;""" cy="""&amp;J62&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I62-N$2&amp;""" y="""&amp;J62-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="389" y="763" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="930" y="196" width="10" height="10" </v>
       </c>
       <c r="O62" s="9" t="str">
         <f>"&lt;text x="""&amp;I62+C$2&amp;""" y="""&amp;J62+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="402" y="773" font-size="12"&gt;</v>
+        <v>&lt;text x="943" y="206" font-size="12"&gt;</v>
       </c>
       <c r="P62" s="4" t="str">
         <f>N62&amp;"fill="""&amp;L62&amp;"""/&gt;"&amp;O62&amp;B62&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="389" y="763" width="10" height="10" fill="green"/&gt;&lt;text x="402" y="773" font-size="12"&gt;日瓦&lt;/text&gt;</v>
-      </c>
+        <v>&lt;rect x="930" y="196" width="10" height="10" fill="green"/&gt;&lt;text x="943" y="206" font-size="12"&gt;理县&lt;/text&gt;</v>
+      </c>
+      <c r="Q62" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L935 201 </v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="9" t="str">
+        <f>IF(C63&lt;&gt;"",C63,B63)</f>
+        <v>龙洞子沟</v>
+      </c>
+      <c r="E63" s="7">
+        <v>102.762139657047</v>
+      </c>
+      <c r="F63" s="7">
+        <v>31.612624620149202</v>
+      </c>
+      <c r="H63" s="3">
+        <v>20</v>
+      </c>
+      <c r="I63" s="9">
+        <f>ROUND((E63-G$2)*I$2+G63,0)</f>
+        <v>852</v>
+      </c>
+      <c r="J63" s="9">
+        <f>ROUND((H$2-F63)*J$2+H63,0)</f>
+        <v>177</v>
+      </c>
+      <c r="L63" s="9" t="str">
+        <f>IF(K63&lt;&gt;"",K63,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="9" t="str">
+        <f>IF(M63="circle","&lt;circle cx="""&amp;I63&amp;""" cy="""&amp;J63&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I63-N$2&amp;""" y="""&amp;J63-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="852" cy="177" r="6" </v>
+      </c>
+      <c r="O63" s="9" t="str">
+        <f>"&lt;text x="""&amp;I63+C$2&amp;""" y="""&amp;J63+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="860" y="182" font-size="12"&gt;</v>
+      </c>
+      <c r="P63" s="4" t="str">
+        <f>N63&amp;"fill="""&amp;L63&amp;"""/&gt;"&amp;O63&amp;B63&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="852" cy="177" r="6" fill="green"/&gt;&lt;text x="860" y="182" font-size="12"&gt;米亚罗 28-34&lt;/text&gt;</v>
+      </c>
+      <c r="Q63" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L852 177 </v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>马尔康</v>
+      </c>
+      <c r="E64" s="7">
+        <v>102.21350208208401</v>
+      </c>
+      <c r="F64" s="7">
+        <v>31.911747955647702</v>
+      </c>
+      <c r="H64" s="3">
+        <v>20</v>
+      </c>
+      <c r="I64" s="9">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="L64" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="738" y="113" width="10" height="10" </v>
+      </c>
+      <c r="O64" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="751" y="123" font-size="12"&gt;</v>
+      </c>
+      <c r="P64" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="738" y="113" width="10" height="10" fill="green"/&gt;&lt;text x="751" y="123" font-size="12"&gt;马尔康&lt;/text&gt;</v>
+      </c>
+      <c r="Q64" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L743 118 </v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">列门 </v>
+      </c>
+      <c r="E65" s="7">
+        <v>101.691240373843</v>
+      </c>
+      <c r="F65" s="7">
+        <v>31.824893182642001</v>
+      </c>
+      <c r="H65" s="3">
+        <v>20</v>
+      </c>
+      <c r="I65" s="9">
+        <f t="shared" si="1"/>
+        <v>638</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="L65" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="633" y="130" width="10" height="10" </v>
+      </c>
+      <c r="O65" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="646" y="140" font-size="12"&gt;</v>
+      </c>
+      <c r="P65" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="633" y="130" width="10" height="10" fill="green"/&gt;&lt;text x="646" y="140" font-size="12"&gt;观音桥&lt;/text&gt;</v>
+      </c>
+      <c r="Q65" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L638 135 </v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>翁达镇</v>
+      </c>
+      <c r="E66" s="7">
+        <v>100.736582093121</v>
+      </c>
+      <c r="F66" s="7">
+        <v>31.877294798859602</v>
+      </c>
+      <c r="H66" s="3">
+        <v>20</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="1"/>
+        <v>447</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="L66" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="442" y="120" width="10" height="10" </v>
+      </c>
+      <c r="O66" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="455" y="130" font-size="12"&gt;</v>
+      </c>
+      <c r="P66" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="442" y="120" width="10" height="10" fill="green"/&gt;&lt;text x="455" y="130" font-size="12"&gt;翁达&lt;/text&gt;</v>
+      </c>
+      <c r="Q66" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L447 125 </v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="9" t="str">
+        <f>IF(C67&lt;&gt;"",C67,B67)</f>
+        <v>色达</v>
+      </c>
+      <c r="E67" s="7">
+        <v>100.339413649181</v>
+      </c>
+      <c r="F67" s="7">
+        <v>32.2743304132267</v>
+      </c>
+      <c r="H67" s="3">
+        <v>20</v>
+      </c>
+      <c r="I67" s="9">
+        <f>ROUND((E67-G$2)*I$2+G67,0)</f>
+        <v>368</v>
+      </c>
+      <c r="J67" s="9">
+        <f>ROUND((H$2-F67)*J$2+H67,0)</f>
+        <v>45</v>
+      </c>
+      <c r="L67" s="9" t="str">
+        <f>IF(K67&lt;&gt;"",K67,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="9" t="str">
+        <f>IF(M67="circle","&lt;circle cx="""&amp;I67&amp;""" cy="""&amp;J67&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I67-N$2&amp;""" y="""&amp;J67-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="368" cy="45" r="6" </v>
+      </c>
+      <c r="O67" s="9" t="str">
+        <f>"&lt;text x="""&amp;I67+C$2&amp;""" y="""&amp;J67+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="376" y="50" font-size="12"&gt;</v>
+      </c>
+      <c r="P67" s="4" t="str">
+        <f>N67&amp;"fill="""&amp;L67&amp;"""/&gt;"&amp;O67&amp;B67&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="368" cy="45" r="6" fill="green"/&gt;&lt;text x="376" y="50" font-size="12"&gt;色达 39&lt;/text&gt;</v>
+      </c>
+      <c r="Q67" s="4" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve">L368 45 </v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" s="4" t="str">
+        <f>VLOOKUP(A68,B:Q,16,0)</f>
+        <v xml:space="preserve">L447 125 </v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="9" t="str">
+        <f>IF(C69&lt;&gt;"",C69,B69)</f>
+        <v>卡萨湖</v>
+      </c>
+      <c r="E69" s="7">
+        <v>100.265</v>
+      </c>
+      <c r="F69" s="7">
+        <v>31.66338</v>
+      </c>
+      <c r="H69" s="3">
+        <v>20</v>
+      </c>
+      <c r="I69" s="9">
+        <f>ROUND((E69-G$2)*I$2+G69,0)</f>
+        <v>353</v>
+      </c>
+      <c r="J69" s="9">
+        <f>ROUND((H$2-F69)*J$2+H69,0)</f>
+        <v>167</v>
+      </c>
+      <c r="L69" s="9" t="str">
+        <f>IF(K69&lt;&gt;"",K69,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="9" t="str">
+        <f>IF(M69="circle","&lt;circle cx="""&amp;I69&amp;""" cy="""&amp;J69&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I69-N$2&amp;""" y="""&amp;J69-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="353" cy="167" r="6" </v>
+      </c>
+      <c r="O69" s="9" t="str">
+        <f>"&lt;text x="""&amp;I69+C$2&amp;""" y="""&amp;J69+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="361" y="172" font-size="12"&gt;</v>
+      </c>
+      <c r="P69" s="4" t="str">
+        <f>N69&amp;"fill="""&amp;L69&amp;"""/&gt;"&amp;O69&amp;B69&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="353" cy="167" r="6" fill="green"/&gt;&lt;text x="361" y="172" font-size="12"&gt;卡萨湖&lt;/text&gt;</v>
+      </c>
+      <c r="Q69" s="4" t="str">
+        <f>"L"&amp;I69&amp;" "&amp;J69&amp;" "</f>
+        <v xml:space="preserve">L353 167 </v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M1:M19 M50:M1048576 M23:M25 M27:M48">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="M37:M58 M60:M1048576 M1:M35">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="M59">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M22">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"rect"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
+  <conditionalFormatting sqref="M36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{1D951DC8-D115-4EC6-9004-5DEA034427AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EFDD0F-2EC1-4512-B8A2-C238EEC40632}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3709,69 +4027,59 @@
         <v>32</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>34</v>
+      <c r="A16" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E880673F-DD86-438C-9FD7-AE2BE4280A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFDF0C-4A07-49B8-AE49-EFC8898705F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="1" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="html" sheetId="3" r:id="rId2"/>
+    <sheet name="川西" sheetId="1" r:id="rId1"/>
+    <sheet name="甘南" sheetId="4" r:id="rId2"/>
+    <sheet name="html" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="180">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +608,162 @@
   </si>
   <si>
     <t>亚丁 40-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉不楞寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏河 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑科草原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏河机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭莽湿地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛曲黄河第一湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿万仓湿地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久治 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿坝 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲宝叶则 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红原月亮湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日干乔湿地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦切塔林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐克 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄河九曲第一湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若尔盖花湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭部县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎尕那 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎木寺 36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳摩峡谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尕海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则岔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作市 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米拉日巴佛阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠聚德大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠石城人家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠珠峰大酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎尕那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎木寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">甲央玛 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿不去乎镇 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰索尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格尔登寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">希格朗 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +949,27 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1136,8 +1313,8 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="Q5:R57"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2045,7 +2222,7 @@
         <v>-45</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" ref="I20:I24" si="15">ROUND((E20-G$2)*I$2+G20,0)</f>
+        <f t="shared" ref="I20:I22" si="15">ROUND((E20-G$2)*I$2+G20,0)</f>
         <v>355</v>
       </c>
       <c r="J20" s="9">
@@ -3460,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="11" t="str">
-        <f>SUBSTITUTE(Q5,"M","L")</f>
+        <f>SUBSTITUTE(Q$5,"M","L")</f>
         <v xml:space="preserve">L1116 349 </v>
       </c>
     </row>
@@ -3473,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="11" t="str">
-        <f>Q5</f>
+        <f>Q$5</f>
         <v xml:space="preserve">M1116 349 </v>
       </c>
     </row>
@@ -3945,17 +4122,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M37:M58 M60:M1048576 M1:M35">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3968,10 +4145,1699 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976EC30B-1ADB-4B27-A200-889545FA47E4}">
+  <dimension ref="A1:R45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="9"/>
+    <col min="5" max="5" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.9296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.73046875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.9296875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="9.06640625" style="4"/>
+    <col min="19" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="str">
+        <f>TEXT(MIN(I5:I983),"#")&amp;" "&amp;TEXT(MAX(I5:I983),"#")</f>
+        <v>50 568</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>TEXT(MIN(J5:J983),"#")&amp;" "&amp;TEXT(MAX(J5:J983),"#")</f>
+        <v>87 755</v>
+      </c>
+      <c r="G2" s="2">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2">
+        <v>200</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>IF(C5&lt;&gt;"",C5,B5)</f>
+        <v>兰州</v>
+      </c>
+      <c r="E5" s="7">
+        <v>103.84050000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>36.067230000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <f>ROUND((E5-G$2)*I$2+G5,0)</f>
+        <v>568</v>
+      </c>
+      <c r="J5" s="9">
+        <f>ROUND((H$2-F5)*J$2+H5,0)</f>
+        <v>87</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f>IF(K5&lt;&gt;"",K5,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="9" t="str">
+        <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="563" y="82" width="10" height="10" </v>
+      </c>
+      <c r="O5" s="9" t="str">
+        <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="576" y="92" font-size="12"&gt;</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="563" y="82" width="10" height="10" fill="green"/&gt;&lt;text x="576" y="92" font-size="12"&gt;兰州&lt;/text&gt;</v>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
+        <v xml:space="preserve">M568 87 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" ref="D6:D32" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
+        <v>夏河</v>
+      </c>
+      <c r="E6" s="7">
+        <v>102.5286</v>
+      </c>
+      <c r="F6" s="7">
+        <v>35.208320000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I17" si="1">ROUND((E6-G$2)*I$2+G6,0)</f>
+        <v>306</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J17" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
+        <v>258</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6:L38" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" ref="N6:N17" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="301" y="253" width="10" height="10" </v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f t="shared" ref="O6:O17" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="314" y="263" font-size="12"&gt;</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" ref="P6:P17" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="301" y="253" width="10" height="10" fill="green"/&gt;&lt;text x="314" y="263" font-size="12"&gt;夏河 36&lt;/text&gt;</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>"L"&amp;I6&amp;" "&amp;J6&amp;" "</f>
+        <v xml:space="preserve">L306 258 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>夏河</v>
+      </c>
+      <c r="E7" s="7">
+        <v>102.5286</v>
+      </c>
+      <c r="F7" s="7">
+        <v>35.208320000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="286" y="238" width="10" height="10" </v>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="299" y="248" font-size="12"&gt;</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="286" y="238" width="10" height="10" fill="green"/&gt;&lt;text x="299" y="248" font-size="12"&gt;拉不楞寺&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>桑科草原</v>
+      </c>
+      <c r="E8" s="7">
+        <v>102.5767</v>
+      </c>
+      <c r="F8" s="7">
+        <v>35.008279999999999</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="315" cy="298" r="6" </v>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="323" y="303" font-size="12"&gt;</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="315" cy="298" r="6" fill="green"/&gt;&lt;text x="323" y="303" font-size="12"&gt;桑科草原&lt;/text&gt;</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" ref="Q8:Q17" si="7">"L"&amp;I8&amp;" "&amp;J8&amp;" "</f>
+        <v xml:space="preserve">L315 298 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">阿不去乎镇 </v>
+      </c>
+      <c r="E9" s="7">
+        <v>102.694183563862</v>
+      </c>
+      <c r="F9" s="7">
+        <v>34.817566047942101</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="334" y="331" width="10" height="10" </v>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="347" y="341" font-size="12"&gt;</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="334" y="331" width="10" height="10" fill="green"/&gt;&lt;text x="347" y="341" font-size="12"&gt;夏河机场&lt;/text&gt;</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L339 336 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>郭莽湿地</v>
+      </c>
+      <c r="E10" s="7">
+        <v>102.3193</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34.316130000000001</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>437</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="264" cy="437" r="6" </v>
+      </c>
+      <c r="O10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="272" y="442" font-size="12"&gt;</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="264" cy="437" r="6" fill="green"/&gt;&lt;text x="272" y="442" font-size="12"&gt;郭莽湿地&lt;/text&gt;</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L264 437 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>玛曲黄河第一湾</v>
+      </c>
+      <c r="E11" s="7">
+        <v>102.0831</v>
+      </c>
+      <c r="F11" s="7">
+        <v>33.967570000000002</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="217" cy="506" r="6" </v>
+      </c>
+      <c r="O11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="225" y="511" font-size="12"&gt;</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="217" cy="506" r="6" fill="green"/&gt;&lt;text x="225" y="511" font-size="12"&gt;玛曲黄河第一湾&lt;/text&gt;</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L217 506 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>阿万仓湿地</v>
+      </c>
+      <c r="E12" s="7">
+        <v>101.6923</v>
+      </c>
+      <c r="F12" s="7">
+        <v>33.77834</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="138" cy="544" r="6" </v>
+      </c>
+      <c r="O12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="146" y="549" font-size="12"&gt;</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="138" cy="544" r="6" fill="green"/&gt;&lt;text x="146" y="549" font-size="12"&gt;阿万仓湿地&lt;/text&gt;</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L138 544 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>久治</v>
+      </c>
+      <c r="E13" s="7">
+        <v>101.4885</v>
+      </c>
+      <c r="F13" s="7">
+        <v>33.43477</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>613</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="93" y="608" width="10" height="10" </v>
+      </c>
+      <c r="O13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="106" y="618" font-size="12"&gt;</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="93" y="608" width="10" height="10" fill="green"/&gt;&lt;text x="106" y="618" font-size="12"&gt;久治 36&lt;/text&gt;</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L98 613 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">希格朗 </v>
+      </c>
+      <c r="E14" s="7">
+        <v>101.53448363692701</v>
+      </c>
+      <c r="F14" s="7">
+        <v>32.727051327222703</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
+        <v>755</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="102" y="750" width="10" height="10" </v>
+      </c>
+      <c r="O14" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="115" y="760" font-size="12"&gt;</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="102" y="750" width="10" height="10" fill="green"/&gt;&lt;text x="115" y="760" font-size="12"&gt;阿坝 33&lt;/text&gt;</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L107 755 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">希格朗 </v>
+      </c>
+      <c r="E15" s="7">
+        <v>101.53448363692701</v>
+      </c>
+      <c r="F15" s="7">
+        <v>32.727051327222703</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="87" y="735" width="10" height="10" </v>
+      </c>
+      <c r="O15" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="100" y="745" font-size="12"&gt;</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="87" y="735" width="10" height="10" fill="green"/&gt;&lt;text x="100" y="745" font-size="12"&gt;🏠聚德大酒店&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">希格朗 </v>
+      </c>
+      <c r="E16" s="7">
+        <v>101.53448363692701</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32.727051327222703</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-30</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" ref="I16" si="8">ROUND((E16-G$2)*I$2+G16,0)</f>
+        <v>77</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" ref="J16" si="9">ROUND((H$2-F16)*J$2+H16,0)</f>
+        <v>725</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="str">
+        <f t="shared" ref="N16" si="10">IF(M16="circle","&lt;circle cx="""&amp;I16&amp;""" cy="""&amp;J16&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I16-N$2&amp;""" y="""&amp;J16-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="77" cy="725" r="6" </v>
+      </c>
+      <c r="O16" s="9" t="str">
+        <f t="shared" ref="O16" si="11">"&lt;text x="""&amp;I16+C$2&amp;""" y="""&amp;J16+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="85" y="730" font-size="12"&gt;</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f t="shared" ref="P16" si="12">N16&amp;"fill="""&amp;L16&amp;"""/&gt;"&amp;O16&amp;B16&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="77" cy="725" r="6" fill="green"/&gt;&lt;text x="85" y="730" font-size="12"&gt;格尔登寺&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>智日</v>
+      </c>
+      <c r="E17" s="7">
+        <v>101.252120343942</v>
+      </c>
+      <c r="F17" s="7">
+        <v>32.992636950365103</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
+        <v>701</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>red</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="50" cy="701" r="6" </v>
+      </c>
+      <c r="O17" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="58" y="706" font-size="12"&gt;</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="50" cy="701" r="6" fill="red"/&gt;&lt;text x="58" y="706" font-size="12"&gt;莲宝叶则 42&lt;/text&gt;</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L50 701 </v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <f>VLOOKUP(A18,B:Q,16,0)</f>
+        <v xml:space="preserve">L107 755 </v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>红原月亮湾</v>
+      </c>
+      <c r="E19" s="7">
+        <v>102.49039999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>32.791440000000001</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" ref="I19:I27" si="13">ROUND((E19-G$2)*I$2+G19,0)</f>
+        <v>298</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" ref="J19:J27" si="14">ROUND((H$2-F19)*J$2+H19,0)</f>
+        <v>742</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="9" t="str">
+        <f t="shared" ref="N19:N27" si="15">IF(M19="circle","&lt;circle cx="""&amp;I19&amp;""" cy="""&amp;J19&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I19-N$2&amp;""" y="""&amp;J19-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="298" cy="742" r="6" </v>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f t="shared" ref="O19:O27" si="16">"&lt;text x="""&amp;I19+C$2&amp;""" y="""&amp;J19+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="306" y="747" font-size="12"&gt;</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <f t="shared" ref="P19:P27" si="17">N19&amp;"fill="""&amp;L19&amp;"""/&gt;"&amp;O19&amp;B19&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="298" cy="742" r="6" fill="green"/&gt;&lt;text x="306" y="747" font-size="12"&gt;红原月亮湾&lt;/text&gt;</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f t="shared" ref="Q19:Q26" si="18">"L"&amp;I19&amp;" "&amp;J19&amp;" "</f>
+        <v xml:space="preserve">L298 742 </v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>日干乔湿地</v>
+      </c>
+      <c r="E20" s="7">
+        <v>102.78270000000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>33.153930000000003</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="13"/>
+        <v>357</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="14"/>
+        <v>669</v>
+      </c>
+      <c r="L20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;circle cx="357" cy="669" r="6" </v>
+      </c>
+      <c r="O20" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="365" y="674" font-size="12"&gt;</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;circle cx="357" cy="669" r="6" fill="green"/&gt;&lt;text x="365" y="674" font-size="12"&gt;日干乔湿地&lt;/text&gt;</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">L357 669 </v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>瓦切塔林</v>
+      </c>
+      <c r="E21" s="7">
+        <v>102.63379999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>33.131079999999997</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="13"/>
+        <v>327</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="14"/>
+        <v>674</v>
+      </c>
+      <c r="L21" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;circle cx="327" cy="674" r="6" </v>
+      </c>
+      <c r="O21" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="335" y="679" font-size="12"&gt;</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;circle cx="327" cy="674" r="6" fill="green"/&gt;&lt;text x="335" y="679" font-size="12"&gt;瓦切塔林&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">甲央玛 </v>
+      </c>
+      <c r="E22" s="7">
+        <v>102.411462385962</v>
+      </c>
+      <c r="F22" s="7">
+        <v>33.816438585524899</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="13"/>
+        <v>282</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="14"/>
+        <v>537</v>
+      </c>
+      <c r="L22" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;rect x="277" y="532" width="10" height="10" </v>
+      </c>
+      <c r="O22" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="290" y="542" font-size="12"&gt;</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;rect x="277" y="532" width="10" height="10" fill="green"/&gt;&lt;text x="290" y="542" font-size="12"&gt;唐克 34&lt;/text&gt;</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">L282 537 </v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f t="shared" ref="D23" si="19">IF(C23&lt;&gt;"",C23,B23)</f>
+        <v xml:space="preserve">甲央玛 </v>
+      </c>
+      <c r="E23" s="7">
+        <v>102.411462385962</v>
+      </c>
+      <c r="F23" s="7">
+        <v>33.816438585524899</v>
+      </c>
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="13"/>
+        <v>297</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="14"/>
+        <v>522</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;circle cx="297" cy="522" r="6" </v>
+      </c>
+      <c r="O23" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="305" y="527" font-size="12"&gt;</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;circle cx="297" cy="522" r="6" fill="green"/&gt;&lt;text x="305" y="527" font-size="12"&gt;黄河九曲第一湾&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>若尔盖花湖</v>
+      </c>
+      <c r="E24" s="7">
+        <v>102.9744</v>
+      </c>
+      <c r="F24" s="7">
+        <v>33.584380000000003</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="13"/>
+        <v>395</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="14"/>
+        <v>583</v>
+      </c>
+      <c r="L24" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;circle cx="395" cy="583" r="6" </v>
+      </c>
+      <c r="O24" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="403" y="588" font-size="12"&gt;</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;circle cx="395" cy="583" r="6" fill="green"/&gt;&lt;text x="403" y="588" font-size="12"&gt;若尔盖花湖&lt;/text&gt;</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">L395 583 </v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>迭部县</v>
+      </c>
+      <c r="E25" s="7">
+        <v>103.22839999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>34.062019999999997</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="13"/>
+        <v>446</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="14"/>
+        <v>488</v>
+      </c>
+      <c r="L25" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;rect x="441" y="483" width="10" height="10" </v>
+      </c>
+      <c r="O25" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="454" y="493" font-size="12"&gt;</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;rect x="441" y="483" width="10" height="10" fill="green"/&gt;&lt;text x="454" y="493" font-size="12"&gt;迭部县&lt;/text&gt;</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">L446 488 </v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>扎尕那</v>
+      </c>
+      <c r="E26" s="7">
+        <v>103.2029</v>
+      </c>
+      <c r="F26" s="7">
+        <v>34.242159999999998</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="13"/>
+        <v>441</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="14"/>
+        <v>452</v>
+      </c>
+      <c r="L26" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;circle cx="441" cy="452" r="6" </v>
+      </c>
+      <c r="O26" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="449" y="457" font-size="12"&gt;</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;circle cx="441" cy="452" r="6" fill="green"/&gt;&lt;text x="449" y="457" font-size="12"&gt;扎尕那 30&lt;/text&gt;</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">L441 452 </v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>扎尕那</v>
+      </c>
+      <c r="E27" s="7">
+        <v>103.2029</v>
+      </c>
+      <c r="F27" s="7">
+        <v>34.242159999999998</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="13"/>
+        <v>456</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="14"/>
+        <v>437</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">&lt;rect x="451" y="432" width="10" height="10" </v>
+      </c>
+      <c r="O27" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;text x="464" y="442" font-size="12"&gt;</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;rect x="451" y="432" width="10" height="10" fill="green"/&gt;&lt;text x="464" y="442" font-size="12"&gt;🏠石城人家&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="R28" s="4" t="str">
+        <f>VLOOKUP(A28,B:Q,16,0)</f>
+        <v xml:space="preserve">L446 488 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>郎木寺</v>
+      </c>
+      <c r="E29" s="7">
+        <v>102.6435</v>
+      </c>
+      <c r="F29" s="7">
+        <v>34.095860000000002</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" ref="I29:I32" si="20">ROUND((E29-G$2)*I$2+G29,0)</f>
+        <v>329</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" ref="J29:J32" si="21">ROUND((H$2-F29)*J$2+H29,0)</f>
+        <v>481</v>
+      </c>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="9" t="str">
+        <f t="shared" ref="N29:N32" si="22">IF(M29="circle","&lt;circle cx="""&amp;I29&amp;""" cy="""&amp;J29&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I29-N$2&amp;""" y="""&amp;J29-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="329" cy="481" r="6" </v>
+      </c>
+      <c r="O29" s="9" t="str">
+        <f t="shared" ref="O29:O32" si="23">"&lt;text x="""&amp;I29+C$2&amp;""" y="""&amp;J29+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="337" y="486" font-size="12"&gt;</v>
+      </c>
+      <c r="P29" s="4" t="str">
+        <f t="shared" ref="P29:P32" si="24">N29&amp;"fill="""&amp;L29&amp;"""/&gt;"&amp;O29&amp;B29&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="329" cy="481" r="6" fill="green"/&gt;&lt;text x="337" y="486" font-size="12"&gt;郎木寺 36&lt;/text&gt;</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f t="shared" ref="Q29:Q31" si="25">"L"&amp;I29&amp;" "&amp;J29&amp;" "</f>
+        <v xml:space="preserve">L329 481 </v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f t="shared" ref="D30" si="26">IF(C30&lt;&gt;"",C30,B30)</f>
+        <v>郎木寺</v>
+      </c>
+      <c r="E30" s="7">
+        <v>102.6435</v>
+      </c>
+      <c r="F30" s="7">
+        <v>34.095860000000002</v>
+      </c>
+      <c r="G30" s="3">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="20"/>
+        <v>344</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="21"/>
+        <v>466</v>
+      </c>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;circle cx="344" cy="466" r="6" </v>
+      </c>
+      <c r="O30" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;text x="352" y="471" font-size="12"&gt;</v>
+      </c>
+      <c r="P30" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;circle cx="344" cy="466" r="6" fill="green"/&gt;&lt;text x="352" y="471" font-size="12"&gt;纳摩峡谷&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>恰索尔</v>
+      </c>
+      <c r="E31" s="7">
+        <v>102.273959749686</v>
+      </c>
+      <c r="F31" s="7">
+        <v>34.220995230267803</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="20"/>
+        <v>255</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="21"/>
+        <v>456</v>
+      </c>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;circle cx="255" cy="456" r="6" </v>
+      </c>
+      <c r="O31" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;text x="263" y="461" font-size="12"&gt;</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;circle cx="255" cy="456" r="6" fill="green"/&gt;&lt;text x="263" y="461" font-size="12"&gt;尕海&lt;/text&gt;</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">L255 456 </v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>则岔</v>
+      </c>
+      <c r="E32" s="7">
+        <v>102.72490000000001</v>
+      </c>
+      <c r="F32" s="7">
+        <v>34.49342</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="20"/>
+        <v>345</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="21"/>
+        <v>401</v>
+      </c>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">&lt;circle cx="345" cy="401" r="6" </v>
+      </c>
+      <c r="O32" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;text x="353" y="406" font-size="12"&gt;</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;circle cx="345" cy="401" r="6" fill="green"/&gt;&lt;text x="353" y="406" font-size="12"&gt;则岔&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="R33" s="4" t="str">
+        <f>VLOOKUP(A33,B:Q,16,0)</f>
+        <v xml:space="preserve">L264 437 </v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="R34" s="4" t="str">
+        <f>VLOOKUP(A34,B:Q,16,0)</f>
+        <v xml:space="preserve">L339 336 </v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="9" t="str">
+        <f t="shared" ref="D35:D37" si="27">IF(C35&lt;&gt;"",C35,B35)</f>
+        <v>合作市</v>
+      </c>
+      <c r="E35" s="7">
+        <v>102.91759999999999</v>
+      </c>
+      <c r="F35" s="7">
+        <v>35.005940000000002</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" ref="I35:I37" si="28">ROUND((E35-G$2)*I$2+G35,0)</f>
+        <v>384</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" ref="J35:J37" si="29">ROUND((H$2-F35)*J$2+H35,0)</f>
+        <v>299</v>
+      </c>
+      <c r="L35" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="9" t="str">
+        <f t="shared" ref="N35:N37" si="30">IF(M35="circle","&lt;circle cx="""&amp;I35&amp;""" cy="""&amp;J35&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I35-N$2&amp;""" y="""&amp;J35-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="379" y="294" width="10" height="10" </v>
+      </c>
+      <c r="O35" s="9" t="str">
+        <f t="shared" ref="O35:O37" si="31">"&lt;text x="""&amp;I35+C$2&amp;""" y="""&amp;J35+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="392" y="304" font-size="12"&gt;</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f t="shared" ref="P35:P37" si="32">N35&amp;"fill="""&amp;L35&amp;"""/&gt;"&amp;O35&amp;B35&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="379" y="294" width="10" height="10" fill="green"/&gt;&lt;text x="392" y="304" font-size="12"&gt;合作市 30&lt;/text&gt;</v>
+      </c>
+      <c r="Q35" s="4" t="str">
+        <f t="shared" ref="Q35" si="33">"L"&amp;I35&amp;" "&amp;J35&amp;" "</f>
+        <v xml:space="preserve">L384 299 </v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>合作市</v>
+      </c>
+      <c r="E36" s="7">
+        <v>102.91759999999999</v>
+      </c>
+      <c r="F36" s="7">
+        <v>35.005940000000002</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="28"/>
+        <v>399</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="29"/>
+        <v>284</v>
+      </c>
+      <c r="L36" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">&lt;rect x="394" y="279" width="10" height="10" </v>
+      </c>
+      <c r="O36" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;text x="407" y="289" font-size="12"&gt;</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;rect x="394" y="279" width="10" height="10" fill="green"/&gt;&lt;text x="407" y="289" font-size="12"&gt;🏠珠峰大酒店&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>米拉日巴佛阁</v>
+      </c>
+      <c r="E37" s="7">
+        <v>102.9192</v>
+      </c>
+      <c r="F37" s="7">
+        <v>35.012210000000003</v>
+      </c>
+      <c r="G37" s="3">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-30</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="28"/>
+        <v>414</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="29"/>
+        <v>268</v>
+      </c>
+      <c r="L37" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N37" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">&lt;circle cx="414" cy="268" r="6" </v>
+      </c>
+      <c r="O37" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;text x="422" y="273" font-size="12"&gt;</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;circle cx="414" cy="268" r="6" fill="green"/&gt;&lt;text x="422" y="273" font-size="12"&gt;米拉日巴佛阁&lt;/text&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="R38" s="11" t="str">
+        <f>SUBSTITUTE(Q$5,"M","L")</f>
+        <v xml:space="preserve">L568 87 </v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M1:M15 M17:M1048576">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{76250914-BA14-45AC-9610-F1C42F189F91}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EFDD0F-2EC1-4512-B8A2-C238EEC40632}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFDF0C-4A07-49B8-AE49-EFC8898705F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0342874-B1C5-4A39-9B1E-3E5C458A1C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="1" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="2" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
   <sheets>
     <sheet name="川西" sheetId="1" r:id="rId1"/>
     <sheet name="甘南" sheetId="4" r:id="rId2"/>
-    <sheet name="html" sheetId="3" r:id="rId3"/>
+    <sheet name="新疆" sheetId="5" r:id="rId3"/>
+    <sheet name="html" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="195">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +765,66 @@
   </si>
   <si>
     <t xml:space="preserve">希格朗 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界魔鬼城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀纳斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白哈巴村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">乌尔禾区 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀纳斯机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">富蕴县 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">司德拜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阜康市 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠布尔津</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1010,27 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4122,17 +4203,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M37:M58 M60:M1048576 M1:M35">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4148,9 +4229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976EC30B-1ADB-4B27-A200-889545FA47E4}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5816,12 +5897,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M1:M15 M17:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5834,6 +5915,675 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417F85D9-A47E-48D9-8B56-5FBB05888ACF}">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="9.06640625" style="9"/>
+    <col min="5" max="5" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.9296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.73046875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.9296875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="9.06640625" style="4"/>
+    <col min="19" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="str">
+        <f>TEXT(MIN(I5:I982),"#")&amp;" "&amp;TEXT(MAX(I5:I982),"#")</f>
+        <v>17 668</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>TEXT(MIN(J5:J982),"#")&amp;" "&amp;TEXT(MAX(J5:J982),"#")</f>
+        <v>51 879</v>
+      </c>
+      <c r="G2" s="2">
+        <v>85.6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2">
+        <v>170</v>
+      </c>
+      <c r="J2" s="2">
+        <v>170</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>IF(C5&lt;&gt;"",C5,B5)</f>
+        <v>乌鲁木齐</v>
+      </c>
+      <c r="E5" s="7">
+        <v>87.6244399353604</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43.830763204290399</v>
+      </c>
+      <c r="I5" s="9">
+        <f>ROUND((E5-G$2)*I$2+G5,0)</f>
+        <v>344</v>
+      </c>
+      <c r="J5" s="9">
+        <f>ROUND((H$2-F5)*J$2+H5,0)</f>
+        <v>879</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f>IF(K5&lt;&gt;"",K5,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="9" t="str">
+        <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;rect x="339" y="874" width="10" height="10" </v>
+      </c>
+      <c r="O5" s="9" t="str">
+        <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="352" y="884" font-size="12"&gt;</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
+        <v>&lt;rect x="339" y="874" width="10" height="10" fill="green"/&gt;&lt;text x="352" y="884" font-size="12"&gt;乌鲁木齐&lt;/text&gt;</v>
+      </c>
+      <c r="Q5" s="11" t="str">
+        <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
+        <v xml:space="preserve">M344 879 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f t="shared" ref="D6:D13" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
+        <v xml:space="preserve">乌尔禾区 </v>
+      </c>
+      <c r="E6" s="7">
+        <v>85.700304826441695</v>
+      </c>
+      <c r="F6" s="7">
+        <v>46.095295184689299</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I13" si="1">ROUND((E6-G$2)*I$2+G6,0)</f>
+        <v>17</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J13" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
+        <v>494</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6:L13" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" ref="N6:N13" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="17" cy="494" r="6" </v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f t="shared" ref="O6:O13" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="25" y="499" font-size="12"&gt;</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" ref="P6:P13" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="17" cy="494" r="6" fill="green"/&gt;&lt;text x="25" y="499" font-size="12"&gt;世界魔鬼城&lt;/text&gt;</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f t="shared" ref="Q6:Q13" si="7">"L"&amp;I6&amp;" "&amp;J6&amp;" "</f>
+        <v xml:space="preserve">L17 494 </v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>布尔津</v>
+      </c>
+      <c r="E7" s="7">
+        <v>86.881360170272799</v>
+      </c>
+      <c r="F7" s="7">
+        <v>47.707951723887497</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;rect x="213" y="215" width="10" height="10" </v>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="226" y="225" font-size="12"&gt;</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;rect x="213" y="215" width="10" height="10" fill="green"/&gt;&lt;text x="226" y="225" font-size="12"&gt;🏠布尔津&lt;/text&gt;</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L218 220 </v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>喀纳斯</v>
+      </c>
+      <c r="E8" s="7">
+        <v>87.042950868800105</v>
+      </c>
+      <c r="F8" s="7">
+        <v>48.700434931569703</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="245" cy="51" r="6" </v>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="253" y="56" font-size="12"&gt;</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="245" cy="51" r="6" fill="green"/&gt;&lt;text x="253" y="56" font-size="12"&gt;喀纳斯&lt;/text&gt;</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L245 51 </v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>白哈巴村</v>
+      </c>
+      <c r="E9" s="7">
+        <v>86.791855973666202</v>
+      </c>
+      <c r="F9" s="7">
+        <v>48.699168039366398</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="203" cy="51" r="6" </v>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="211" y="56" font-size="12"&gt;</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="203" cy="51" r="6" fill="green"/&gt;&lt;text x="211" y="56" font-size="12"&gt;白哈巴村&lt;/text&gt;</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L203 51 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>喀纳斯机场</v>
+      </c>
+      <c r="E10" s="7">
+        <v>87.007135517947603</v>
+      </c>
+      <c r="F10" s="7">
+        <v>48.229425316205599</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="239" cy="131" r="6" </v>
+      </c>
+      <c r="O10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="247" y="136" font-size="12"&gt;</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="239" cy="131" r="6" fill="green"/&gt;&lt;text x="247" y="136" font-size="12"&gt;禾木&lt;/text&gt;</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L239 131 </v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">富蕴县 </v>
+      </c>
+      <c r="E11" s="7">
+        <v>89.531953408055401</v>
+      </c>
+      <c r="F11" s="7">
+        <v>46.999951053054502</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>668</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="668" cy="340" r="6" </v>
+      </c>
+      <c r="O11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="676" y="345" font-size="12"&gt;</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="668" cy="340" r="6" fill="green"/&gt;&lt;text x="676" y="345" font-size="12"&gt;可可托海&lt;/text&gt;</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L668 340 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">司德拜 </v>
+      </c>
+      <c r="E12" s="7">
+        <v>86.679827574871695</v>
+      </c>
+      <c r="F12" s="7">
+        <v>47.858917365578002</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="184" cy="194" r="6" </v>
+      </c>
+      <c r="O12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="192" y="199" font-size="12"&gt;</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="184" cy="194" r="6" fill="green"/&gt;&lt;text x="192" y="199" font-size="12"&gt;五彩滩&lt;/text&gt;</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L184 194 </v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">阜康市 </v>
+      </c>
+      <c r="E13" s="7">
+        <v>87.993677905062398</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44.163137321345701</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="407" cy="822" r="6" </v>
+      </c>
+      <c r="O13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="415" y="827" font-size="12"&gt;</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="407" cy="822" r="6" fill="green"/&gt;&lt;text x="415" y="827" font-size="12"&gt;天池&lt;/text&gt;</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">L407 822 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>SUBSTITUTE(Q$5,"M","L")</f>
+        <v xml:space="preserve">L344 879 </v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M16:M1048576 M1:M14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{174580DA-FFB3-44D1-8FFC-EDFC7BAD54DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EFDD0F-2EC1-4512-B8A2-C238EEC40632}">
   <dimension ref="A1:A26"/>
   <sheetViews>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87ABC75-9CD0-4C9B-8ED3-FA6C33433D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBE044-F25F-4440-93F3-54895C39636B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="3" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="217">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,7 +984,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1027,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1061,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,23 +1110,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5689,17 +5688,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M60:M1048576 M1:M35 M37:M58">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6104,11 +6103,11 @@
         <v>&lt;rect x="380" y="238" width="10" height="10" fill="green"/&gt;&lt;text x="393" y="248" font-size="12"&gt;拉不楞寺&lt;/text&gt;</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" ref="S7:S57" si="7">ROUND((I6+I7)/2,0)</f>
+        <f t="shared" ref="S7:S38" si="7">ROUND((I6+I7)/2,0)</f>
         <v>393</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" ref="T7:T57" si="8">J6</f>
+        <f t="shared" ref="T7:T38" si="8">J6</f>
         <v>258</v>
       </c>
       <c r="U7" s="9">
@@ -7163,7 +7162,7 @@
         <v>537</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" ref="U23:V59" si="24">ROUND((I22+I23)/2,0)</f>
+        <f t="shared" ref="U23:V38" si="24">ROUND((I22+I23)/2,0)</f>
         <v>375</v>
       </c>
       <c r="V23" s="9">
@@ -8071,7 +8070,7 @@
         <v>178</v>
       </c>
       <c r="W38" s="4" t="str">
-        <f t="shared" ref="W37:W52" si="39">"L"&amp;I38&amp;" "&amp;J38</f>
+        <f t="shared" ref="W38" si="39">"L"&amp;I38&amp;" "&amp;J38</f>
         <v>L767 87</v>
       </c>
     </row>
@@ -8177,17 +8176,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M1:M15 M17:M44 M46:M1048576">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9066,12 +9065,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M16:M1048576 M1:M14">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9089,13 +9088,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="3"/>
-    <col min="4" max="4" width="9.06640625" style="9"/>
+    <col min="1" max="2" width="9.06640625" style="3"/>
+    <col min="3" max="4" width="9.06640625" style="14"/>
     <col min="5" max="5" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.796875" style="3" bestFit="1" customWidth="1"/>
@@ -9220,10 +9219,10 @@
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -9273,7 +9272,8 @@
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -9308,7 +9308,7 @@
       <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="14" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
         <v>海拉尔</v>
       </c>
@@ -9358,7 +9358,7 @@
       <c r="B6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" ref="D6:D9" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
         <v>白桦林</v>
       </c>
@@ -9377,22 +9377,22 @@
         <v>164</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L24" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <f t="shared" ref="L6:L23" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N24" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <f t="shared" ref="N6:N23" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
         <v xml:space="preserve">&lt;circle cx="506" cy="164" r="6" </v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" ref="O6:O24" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <f t="shared" ref="O6:O23" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
         <v>&lt;text x="514" y="169" font-size="12"&gt;</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" ref="P6:P25" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <f t="shared" ref="P6:P23" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
         <v>&lt;circle cx="506" cy="164" r="6" fill="green"/&gt;&lt;text x="514" y="169" font-size="12"&gt;白桦林&lt;/text&gt;</v>
       </c>
       <c r="W6" s="4" t="str">
@@ -9404,7 +9404,7 @@
       <c r="B7" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>恩和</v>
       </c>
@@ -9450,7 +9450,7 @@
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>室韦</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="B9" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>临江</v>
       </c>
@@ -9566,7 +9566,7 @@
       <c r="B11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="14" t="str">
         <f t="shared" ref="D11:D14" si="8">IF(C11&lt;&gt;"",C11,B11)</f>
         <v>莫尔道嘎</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="B12" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="14" t="str">
         <f t="shared" si="8"/>
         <v>好力堡林场</v>
       </c>
@@ -9634,21 +9634,7 @@
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="683" y="134" width="10" height="10" </v>
-      </c>
-      <c r="O12" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="696" y="144" font-size="12"&gt;</v>
-      </c>
-      <c r="P12" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;rect x="683" y="134" width="10" height="10" fill="green"/&gt;&lt;text x="696" y="144" font-size="12"&gt;好力堡林场&lt;/text&gt;</v>
-      </c>
+      <c r="P12" s="14"/>
       <c r="W12" s="4" t="str">
         <f t="shared" si="7"/>
         <v>L688 139</v>
@@ -9658,7 +9644,7 @@
       <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="14" t="str">
         <f t="shared" si="8"/>
         <v>敖鲁古雅</v>
       </c>
@@ -9704,7 +9690,7 @@
       <c r="B14" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="14" t="str">
         <f t="shared" si="8"/>
         <v>根河湿地</v>
       </c>
@@ -9795,7 +9781,7 @@
       <c r="B17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="14" t="str">
         <f t="shared" ref="D17:D20" si="11">IF(C17&lt;&gt;"",C17,B17)</f>
         <v>额尔古纳</v>
       </c>
@@ -9841,7 +9827,7 @@
       <c r="B18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="14" t="str">
         <f t="shared" si="11"/>
         <v>黑山头</v>
       </c>
@@ -9887,7 +9873,7 @@
       <c r="B19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="14" t="str">
         <f t="shared" si="11"/>
         <v>呼伦湖</v>
       </c>
@@ -9933,7 +9919,7 @@
       <c r="B20" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="14" t="str">
         <f t="shared" si="11"/>
         <v>满洲里</v>
       </c>
@@ -10000,7 +9986,7 @@
       <c r="B22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="14" t="str">
         <f t="shared" ref="D22:D23" si="14">IF(C22&lt;&gt;"",C22,B22)</f>
         <v>沙日林花</v>
       </c>
@@ -10022,21 +10008,7 @@
         <f t="shared" si="3"/>
         <v>green</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">&lt;rect x="355" y="636" width="10" height="10" </v>
-      </c>
-      <c r="O22" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;text x="368" y="646" font-size="12"&gt;</v>
-      </c>
-      <c r="P22" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;rect x="355" y="636" width="10" height="10" fill="green"/&gt;&lt;text x="368" y="646" font-size="12"&gt;沙日林花&lt;/text&gt;</v>
-      </c>
+      <c r="P22" s="14"/>
       <c r="W22" s="4" t="str">
         <f t="shared" si="7"/>
         <v>L360 641</v>
@@ -10046,7 +10018,7 @@
       <c r="B23" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="14" t="str">
         <f t="shared" si="14"/>
         <v>阿尔山</v>
       </c>
@@ -10130,14 +10102,16 @@
         <v>L438 389</v>
       </c>
     </row>
-    <row r="46" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M25:M1048576 M1:M5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CBE044-F25F-4440-93F3-54895C39636B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219376C-5234-4DCA-824C-B70B6DE4085E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="3" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="4" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
   <sheets>
     <sheet name="川西" sheetId="1" r:id="rId1"/>
     <sheet name="甘南" sheetId="4" r:id="rId2"/>
     <sheet name="新疆" sheetId="5" r:id="rId3"/>
     <sheet name="内蒙" sheetId="6" r:id="rId4"/>
-    <sheet name="html" sheetId="3" r:id="rId5"/>
+    <sheet name="云南" sheetId="7" r:id="rId5"/>
+    <sheet name="html" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="230">
   <si>
     <t>成都</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +926,58 @@
   </si>
   <si>
     <t>``</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独克宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松赞林寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳帕海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠老谢车马店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普达措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅里雪山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滇池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1172,37 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{14A8975D-2D17-4770-BE50-E9802ECC2273}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -5688,17 +5771,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M60:M1048576 M1:M35 M37:M58">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8176,17 +8259,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M1:M15 M17:M44 M46:M1048576">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8204,7 +8287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9065,12 +9148,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M16:M1048576 M1:M14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9086,7 +9169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478CA3C4-A377-4752-9EB7-60129709821D}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
@@ -10111,12 +10194,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M25:M1048576 M1:M5">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"rect"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10131,6 +10214,897 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9108E7-1E7E-48C1-99BB-343439395924}">
+  <dimension ref="A1:Y46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9.06640625" style="3"/>
+    <col min="3" max="4" width="9.06640625" style="14"/>
+    <col min="5" max="5" width="8.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.9296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.73046875" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.9296875" style="4" customWidth="1"/>
+    <col min="17" max="18" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="str">
+        <f>TEXT(MIN(I5:I984),"#")&amp;" "&amp;TEXT(MAX(I5:I984),"#")</f>
+        <v>78 749</v>
+      </c>
+      <c r="F2" s="12" t="str">
+        <f>TEXT(MIN(J5:J984),"#")&amp;" "&amp;TEXT(MAX(J5:J984),"#")</f>
+        <v>33 743</v>
+      </c>
+      <c r="G2" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>180</v>
+      </c>
+      <c r="J2" s="2">
+        <v>200</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="14" t="str">
+        <f>IF(C5&lt;&gt;"",C5,B5)</f>
+        <v>丽江</v>
+      </c>
+      <c r="E5" s="7">
+        <v>100.23399999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>26.876000000000001</v>
+      </c>
+      <c r="I5" s="9">
+        <f>ROUND((E5-G$2)*I$2+G5,0)</f>
+        <v>312</v>
+      </c>
+      <c r="J5" s="9">
+        <f>ROUND((H$2-F5)*J$2+H5,0)</f>
+        <v>345</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f>IF(K5&lt;&gt;"",K5,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="9" t="str">
+        <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="312" cy="345" r="6" </v>
+      </c>
+      <c r="O5" s="9" t="str">
+        <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="320" y="350" font-size="12"&gt;</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="312" cy="345" r="6" fill="green"/&gt;&lt;text x="320" y="350" font-size="12"&gt;丽江&lt;/text&gt;</v>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
+        <v xml:space="preserve">M312 345 </v>
+      </c>
+      <c r="W5" s="11" t="str">
+        <f>"M"&amp;I5&amp;" "&amp;J5</f>
+        <v>M312 345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" ref="D6:D17" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
+        <v>虎跳峡</v>
+      </c>
+      <c r="E6" s="7">
+        <v>100.07</v>
+      </c>
+      <c r="F6" s="7">
+        <v>27.166</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I17" si="1">ROUND((E6-G$2)*I$2+G6,0)</f>
+        <v>283</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J17" si="2">ROUND((H$2-F6)*J$2+H6,0)</f>
+        <v>287</v>
+      </c>
+      <c r="L6" s="9" t="str">
+        <f t="shared" ref="L6:L23" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="9" t="str">
+        <f t="shared" ref="N6:N23" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <v xml:space="preserve">&lt;circle cx="283" cy="287" r="6" </v>
+      </c>
+      <c r="O6" s="9" t="str">
+        <f t="shared" ref="O6:O23" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <v>&lt;text x="291" y="292" font-size="12"&gt;</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f t="shared" ref="P6:P23" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <v>&lt;circle cx="283" cy="287" r="6" fill="green"/&gt;&lt;text x="291" y="292" font-size="12"&gt;虎跳峡&lt;/text&gt;</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <f>"L"&amp;I6&amp;" "&amp;J6</f>
+        <v>L283 287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>香格里拉</v>
+      </c>
+      <c r="E7" s="7">
+        <v>99.706999999999994</v>
+      </c>
+      <c r="F7" s="7">
+        <v>27.806000000000001</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="L7" s="9" t="str">
+        <f>IF(K7&lt;&gt;"",K7,L$2)</f>
+        <v>green</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="217" cy="159" r="6" </v>
+      </c>
+      <c r="O7" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="225" y="164" font-size="12"&gt;</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="217" cy="159" r="6" fill="green"/&gt;&lt;text x="225" y="164" font-size="12"&gt;香格里拉&lt;/text&gt;</v>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f t="shared" ref="W7:W17" si="7">"L"&amp;I7&amp;" "&amp;J7</f>
+        <v>L217 159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>独克宗</v>
+      </c>
+      <c r="E8" s="7">
+        <v>99.706999999999994</v>
+      </c>
+      <c r="F8" s="7">
+        <v>27.806000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="L8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="217" cy="144" r="6" </v>
+      </c>
+      <c r="O8" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="225" y="149" font-size="12"&gt;</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="217" cy="144" r="6" fill="green"/&gt;&lt;text x="225" y="149" font-size="12"&gt;独克宗&lt;/text&gt;</v>
+      </c>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>松赞林寺</v>
+      </c>
+      <c r="E9" s="7">
+        <v>99.706999999999994</v>
+      </c>
+      <c r="F9" s="7">
+        <v>27.852</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-20</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="L9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="217" cy="130" r="6" </v>
+      </c>
+      <c r="O9" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="225" y="135" font-size="12"&gt;</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="217" cy="130" r="6" fill="green"/&gt;&lt;text x="225" y="135" font-size="12"&gt;松赞林寺&lt;/text&gt;</v>
+      </c>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>纳帕海</v>
+      </c>
+      <c r="E10" s="7">
+        <v>99.643000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="206" cy="175" r="6" </v>
+      </c>
+      <c r="O10" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="214" y="180" font-size="12"&gt;</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="206" cy="175" r="6" fill="green"/&gt;&lt;text x="214" y="180" font-size="12"&gt;纳帕海&lt;/text&gt;</v>
+      </c>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>🏠老谢车马店</v>
+      </c>
+      <c r="E11" s="7">
+        <v>99.662999999999997</v>
+      </c>
+      <c r="F11" s="7">
+        <v>27.81</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="L11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="209" cy="188" r="6" </v>
+      </c>
+      <c r="O11" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="217" y="193" font-size="12"&gt;</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="209" cy="188" r="6" fill="green"/&gt;&lt;text x="217" y="193" font-size="12"&gt;🏠老谢车马店&lt;/text&gt;</v>
+      </c>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>普达措</v>
+      </c>
+      <c r="E12" s="7">
+        <v>99.93</v>
+      </c>
+      <c r="F12" s="7">
+        <v>27.83</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="L12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="257" cy="204" r="6" </v>
+      </c>
+      <c r="O12" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="265" y="209" font-size="12"&gt;</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="257" cy="204" r="6" fill="green"/&gt;&lt;text x="265" y="209" font-size="12"&gt;普达措&lt;/text&gt;</v>
+      </c>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>梅里雪山</v>
+      </c>
+      <c r="E13" s="7">
+        <v>98.88</v>
+      </c>
+      <c r="F13" s="7">
+        <v>28.434999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>20</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="88" cy="33" r="6" </v>
+      </c>
+      <c r="O13" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="96" y="38" font-size="12"&gt;</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="88" cy="33" r="6" fill="green"/&gt;&lt;text x="96" y="38" font-size="12"&gt;梅里雪山&lt;/text&gt;</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>L88 33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>雨崩</v>
+      </c>
+      <c r="E14" s="7">
+        <v>98.82</v>
+      </c>
+      <c r="F14" s="7">
+        <v>28.36</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="L14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="78" cy="48" r="6" </v>
+      </c>
+      <c r="O14" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="86" y="53" font-size="12"&gt;</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="78" cy="48" r="6" fill="green"/&gt;&lt;text x="86" y="53" font-size="12"&gt;雨崩&lt;/text&gt;</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>L78 48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>束河</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100.21</v>
+      </c>
+      <c r="F15" s="7">
+        <v>26.92</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-30</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="278" cy="336" r="6" </v>
+      </c>
+      <c r="O15" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="286" y="341" font-size="12"&gt;</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="278" cy="336" r="6" fill="green"/&gt;&lt;text x="286" y="341" font-size="12"&gt;束河&lt;/text&gt;</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>L278 336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>昆明</v>
+      </c>
+      <c r="E16" s="7">
+        <v>102.66</v>
+      </c>
+      <c r="F16" s="7">
+        <v>24.96</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
+        <v>728</v>
+      </c>
+      <c r="L16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="749" cy="728" r="6" </v>
+      </c>
+      <c r="O16" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="757" y="733" font-size="12"&gt;</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="749" cy="728" r="6" fill="green"/&gt;&lt;text x="757" y="733" font-size="12"&gt;昆明&lt;/text&gt;</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>L749 728</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>滇池</v>
+      </c>
+      <c r="E17" s="7">
+        <v>102.66</v>
+      </c>
+      <c r="F17" s="7">
+        <v>24.96</v>
+      </c>
+      <c r="H17" s="3">
+        <v>15</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
+        <v>743</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>green</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">&lt;circle cx="749" cy="743" r="6" </v>
+      </c>
+      <c r="O17" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;text x="757" y="748" font-size="12"&gt;</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>&lt;circle cx="749" cy="743" r="6" fill="green"/&gt;&lt;text x="757" y="748" font-size="12"&gt;滇池&lt;/text&gt;</v>
+      </c>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="P22" s="14"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="W25" s="4"/>
+    </row>
+    <row r="46" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M25:M1048576 M1:M4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M24">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"rect"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{D6E6878C-F8A8-4CED-BAC2-3311F7338649}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{2D37D5E6-98B4-4273-B33E-5B80EE9B9589}"/>
+    <hyperlink ref="W2" r:id="rId3" display="http://map.jiqrxx.com/jingweidu/" xr:uid="{04117B59-47C9-443C-9EC5-2670B0A91F69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EFDD0F-2EC1-4512-B8A2-C238EEC40632}">
   <dimension ref="A1:A26"/>
   <sheetViews>

--- a/map-gen.xlsx
+++ b/map-gen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprojs\github\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9219376C-5234-4DCA-824C-B70B6DE4085E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85304EDE-9DE1-42E9-8703-A875EAE5C044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="4" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{4E52873A-2E54-4D2E-9DDA-CDEB27E7976A}"/>
   </bookViews>
   <sheets>
     <sheet name="川西" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="230">
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="235">
   <si>
     <t>雅安</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兰州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏河</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乌鲁木齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>世界魔鬼城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -777,10 +765,6 @@
   </si>
   <si>
     <t>🏠布尔津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海拉尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -929,55 +913,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>虎跳峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独克宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松赞林寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳帕海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🏠老谢车马店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普达措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅里雪山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>束河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滇池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚗成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚗兰州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚗乌鲁木齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚗海拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🚗丽江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>丽江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎跳峡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香格里拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独克宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松赞林寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳帕海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🏠老谢车马店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普达措</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅里雪山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>束河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滇池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AFE20D-EB13-420A-910A-D120BEE25FD9}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1642,45 +1662,45 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1695,7 +1715,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>TEXT(MIN(I5:I1009),"#")&amp;" "&amp;TEXT(MAX(I5:I1009),"#")</f>
-        <v>18 762</v>
+        <v>18 742</v>
       </c>
       <c r="F2" s="12" t="str">
         <f>TEXT(MIN(J5:J1009),"#")&amp;" "&amp;TEXT(MAX(J5:J1009),"#")</f>
@@ -1715,7 +1735,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -1725,115 +1745,118 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="S3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
@@ -1845,9 +1868,12 @@
       <c r="F5" s="7">
         <v>30.655821878416408</v>
       </c>
+      <c r="G5" s="3">
+        <v>-20</v>
+      </c>
       <c r="I5" s="9">
         <f>ROUND((E5-G$2)*I$2+G5,0)</f>
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="J5" s="9">
         <f>ROUND((H$2-F5)*J$2+H5,0)</f>
@@ -1858,28 +1884,28 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="757" y="357" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="737" y="357" width="10" height="10" </v>
       </c>
       <c r="O5" s="9" t="str">
         <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="770" y="367" font-size="12"&gt;</v>
+        <v>&lt;text x="750" y="367" font-size="12"&gt;</v>
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="757" y="357" width="10" height="10" fill="green"/&gt;&lt;text x="770" y="367" font-size="12"&gt;成都&lt;/text&gt;</v>
+        <v>&lt;rect x="737" y="357" width="10" height="10" fill="green"/&gt;&lt;text x="750" y="367" font-size="12"&gt;🚗成都&lt;/text&gt;</v>
       </c>
       <c r="W5" s="11" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5</f>
-        <v>M762 362</v>
+        <v>M742 362</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D66" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
@@ -1904,7 +1930,7 @@
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N66" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -1920,7 +1946,7 @@
       </c>
       <c r="S6" s="9">
         <f>ROUND((I5+I6)/2,0)</f>
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="T6" s="9">
         <f>J5</f>
@@ -1928,7 +1954,7 @@
       </c>
       <c r="U6" s="9">
         <f>ROUND((I5+I6)/2,0)</f>
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="V6" s="9">
         <f>ROUND((J5+J6)/2,0)</f>
@@ -1941,7 +1967,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -1966,7 +1992,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2003,10 +2029,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" ref="D8:D13" si="11">IF(C8&lt;&gt;"",C8,B8)</f>
@@ -2037,7 +2063,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" ref="N8:N13" si="15">IF(M8="circle","&lt;circle cx="""&amp;I8&amp;""" cy="""&amp;J8&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I8-N$2&amp;""" y="""&amp;J8-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -2071,7 +2097,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="11"/>
@@ -2099,7 +2125,7 @@
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2133,10 +2159,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="11"/>
@@ -2167,7 +2193,7 @@
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2201,10 +2227,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="11"/>
@@ -2229,7 +2255,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2263,10 +2289,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="11"/>
@@ -2290,14 +2316,14 @@
         <v>594</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="14"/>
         <v>red</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2331,10 +2357,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="11"/>
@@ -2362,7 +2388,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="15"/>
@@ -2399,10 +2425,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2427,7 +2453,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2464,10 +2490,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="9" t="str">
         <f>IF(C15&lt;&gt;"",C15,B15)</f>
@@ -2495,7 +2521,7 @@
         <v>green</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="9" t="str">
         <f>IF(M15="circle","&lt;circle cx="""&amp;I15&amp;""" cy="""&amp;J15&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I15-N$2&amp;""" y="""&amp;J15-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -2532,7 +2558,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9">
         <f>VLOOKUP(A16,B:I,8,0)</f>
@@ -2573,10 +2599,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2597,14 +2623,14 @@
         <v>479</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2645,10 +2671,10 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2673,7 +2699,7 @@
         <v>green</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2714,10 +2740,10 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2738,14 +2764,14 @@
         <v>506</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -2786,10 +2812,10 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2813,14 +2839,14 @@
         <v>461</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L20" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" ref="N20:N22" si="26">IF(M20="circle","&lt;circle cx="""&amp;I20&amp;""" cy="""&amp;J20&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I20-N$2&amp;""" y="""&amp;J20-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -2854,10 +2880,10 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2881,14 +2907,14 @@
         <v>476</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L21" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="26"/>
@@ -2922,10 +2948,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -2949,14 +2975,14 @@
         <v>491</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="26"/>
@@ -2990,10 +3016,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3021,7 +3047,7 @@
         <v>green</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" ref="N23:N27" si="35">IF(M23="circle","&lt;circle cx="""&amp;I23&amp;""" cy="""&amp;J23&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I23-N$2&amp;""" y="""&amp;J23-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -3062,10 +3088,10 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3119,7 @@
         <v>green</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="35"/>
@@ -3134,10 +3160,10 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3165,7 +3191,7 @@
         <v>green</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="35"/>
@@ -3206,10 +3232,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3237,7 +3263,7 @@
         <v>green</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="35"/>
@@ -3278,10 +3304,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3305,14 +3331,14 @@
         <v>773</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="35"/>
@@ -3353,7 +3379,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" s="9">
         <f>VLOOKUP(A28,B:I,8,0)</f>
@@ -3390,7 +3416,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29" s="9">
         <f>VLOOKUP(A29,B:I,8,0)</f>
@@ -3427,7 +3453,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I30" s="9">
         <f>VLOOKUP(A30,B:I,8,0)</f>
@@ -3464,7 +3490,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" s="9">
         <f>VLOOKUP(A31,B:I,8,0)</f>
@@ -3501,7 +3527,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9">
         <f>VLOOKUP(A32,B:I,8,0)</f>
@@ -3538,10 +3564,10 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3565,14 +3591,14 @@
         <v>454</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L33" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N33" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3613,10 +3639,10 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3640,14 +3666,14 @@
         <v>425</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L34" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N34" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3688,10 +3714,10 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3718,14 +3744,14 @@
         <v>441</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L35" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3766,10 +3792,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" ref="D36" si="39">IF(C36&lt;&gt;"",C36,B36)</f>
@@ -3796,14 +3822,14 @@
         <v>411</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L36" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" ref="N36" si="42">IF(M36="circle","&lt;circle cx="""&amp;I36&amp;""" cy="""&amp;J36&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I36-N$2&amp;""" y="""&amp;J36-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -3837,10 +3863,10 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3865,7 +3891,7 @@
         <v>green</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="4"/>
@@ -3906,7 +3932,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9">
         <f>VLOOKUP(A38,B:I,8,0)</f>
@@ -3943,7 +3969,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9">
         <f>VLOOKUP(A39,B:I,8,0)</f>
@@ -3980,7 +4006,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9">
         <f>VLOOKUP(A40,B:I,8,0)</f>
@@ -4017,7 +4043,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9">
         <f>VLOOKUP(A41,B:I,8,0)</f>
@@ -4054,7 +4080,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9">
         <f>VLOOKUP(A42,B:I,8,0)</f>
@@ -4091,10 +4117,10 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4119,7 +4145,7 @@
         <v>green</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N43" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4160,10 +4186,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4188,7 +4214,7 @@
         <v>green</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N44" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4229,10 +4255,10 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4257,7 +4283,7 @@
         <v>green</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N45" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4298,10 +4324,10 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="9" t="str">
         <f>IF(C46&lt;&gt;"",C46,B46)</f>
@@ -4326,7 +4352,7 @@
         <v>green</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N46" s="9" t="str">
         <f>IF(M46="circle","&lt;circle cx="""&amp;I46&amp;""" cy="""&amp;J46&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I46-N$2&amp;""" y="""&amp;J46-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -4367,7 +4393,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9">
         <f>VLOOKUP(A47,B:I,8,0)</f>
@@ -4404,7 +4430,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="9" t="str">
         <f>IF(C48&lt;&gt;"",C48,B48)</f>
@@ -4432,7 +4458,7 @@
         <v>green</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N48" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4473,10 +4499,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="9" t="str">
         <f>IF(C49&lt;&gt;"",C49,B49)</f>
@@ -4504,7 +4530,7 @@
         <v>green</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N49" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4545,10 +4571,10 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="9" t="str">
         <f>IF(C50&lt;&gt;"",C50,B50)</f>
@@ -4576,7 +4602,7 @@
         <v>green</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N50" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4617,10 +4643,10 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="9" t="str">
         <f>IF(C51&lt;&gt;"",C51,B51)</f>
@@ -4648,7 +4674,7 @@
         <v>green</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N51" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4689,10 +4715,10 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4713,14 +4739,14 @@
         <v>299</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L52" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N52" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4761,10 +4787,10 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4788,14 +4814,14 @@
         <v>278</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L53" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N53" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4829,10 +4855,10 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4857,7 +4883,7 @@
         <v>green</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N54" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4898,7 +4924,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4923,7 +4949,7 @@
         <v>green</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N55" s="9" t="str">
         <f t="shared" si="4"/>
@@ -4964,7 +4990,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4989,7 +5015,7 @@
         <v>green</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N56" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5030,11 +5056,11 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I57" s="9">
         <f>VLOOKUP(A57,B:I,8,0)</f>
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="J57" s="9">
         <f>VLOOKUP(A57,B:J,9,0)</f>
@@ -5046,7 +5072,7 @@
       </c>
       <c r="S57" s="9">
         <f t="shared" ref="S57" si="50">ROUND((I56+I57)/2,0)</f>
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="T57" s="9">
         <f t="shared" ref="T57" si="51">J56</f>
@@ -5054,7 +5080,7 @@
       </c>
       <c r="U57" s="9">
         <f t="shared" ref="U57" si="52">ROUND((I56+I57)/2,0)</f>
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="V57" s="9">
         <f t="shared" ref="V57" si="53">ROUND((J56+J57)/2,0)</f>
@@ -5062,7 +5088,7 @@
       </c>
       <c r="W57" s="4" t="str">
         <f t="shared" si="49"/>
-        <v>L762 362</v>
+        <v>L742 362</v>
       </c>
     </row>
     <row r="58" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -5075,11 +5101,11 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I59" s="9">
         <f>VLOOKUP(A59,B:I,8,0)</f>
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="J59" s="9">
         <f>VLOOKUP(A59,B:J,9,0)</f>
@@ -5091,15 +5117,15 @@
       </c>
       <c r="W59" s="11" t="str">
         <f>"M"&amp;I59&amp;" "&amp;J59</f>
-        <v>M762 362</v>
+        <v>M742 362</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="9" t="str">
         <f>IF(C60&lt;&gt;"",C60,B60)</f>
@@ -5127,7 +5153,7 @@
         <v>green</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N60" s="9" t="str">
         <f>IF(M60="circle","&lt;circle cx="""&amp;I60&amp;""" cy="""&amp;J60&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I60-N$2&amp;""" y="""&amp;J60-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5147,7 +5173,7 @@
       </c>
       <c r="S60" s="9">
         <f t="shared" ref="S60:S69" si="55">ROUND((I59+I60)/2,0)</f>
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="T60" s="9">
         <f t="shared" ref="T60:T69" si="56">J59</f>
@@ -5155,7 +5181,7 @@
       </c>
       <c r="U60" s="9">
         <f t="shared" ref="U60:U69" si="57">ROUND((I59+I60)/2,0)</f>
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="V60" s="9">
         <f t="shared" ref="V60:V69" si="58">ROUND((J59+J60)/2,0)</f>
@@ -5168,7 +5194,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="9" t="str">
         <f>IF(C61&lt;&gt;"",C61,B61)</f>
@@ -5196,7 +5222,7 @@
         <v>green</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N61" s="9" t="str">
         <f>IF(M61="circle","&lt;circle cx="""&amp;I61&amp;""" cy="""&amp;J61&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I61-N$2&amp;""" y="""&amp;J61-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5230,7 +5256,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" s="9" t="str">
         <f>IF(C62&lt;&gt;"",C62,B62)</f>
@@ -5258,7 +5284,7 @@
         <v>green</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N62" s="9" t="str">
         <f>IF(M62="circle","&lt;circle cx="""&amp;I62&amp;""" cy="""&amp;J62&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I62-N$2&amp;""" y="""&amp;J62-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5299,10 +5325,10 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="9" t="str">
         <f>IF(C63&lt;&gt;"",C63,B63)</f>
@@ -5330,7 +5356,7 @@
         <v>green</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N63" s="9" t="str">
         <f>IF(M63="circle","&lt;circle cx="""&amp;I63&amp;""" cy="""&amp;J63&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I63-N$2&amp;""" y="""&amp;J63-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5371,7 +5397,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5399,7 +5425,7 @@
         <v>green</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N64" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5440,10 +5466,10 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5471,7 +5497,7 @@
         <v>green</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N65" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5512,10 +5538,10 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5543,7 +5569,7 @@
         <v>green</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N66" s="9" t="str">
         <f t="shared" si="4"/>
@@ -5584,10 +5610,10 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D67" s="9" t="str">
         <f>IF(C67&lt;&gt;"",C67,B67)</f>
@@ -5615,7 +5641,7 @@
         <v>green</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N67" s="9" t="str">
         <f>IF(M67="circle","&lt;circle cx="""&amp;I67&amp;""" cy="""&amp;J67&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I67-N$2&amp;""" y="""&amp;J67-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5656,7 +5682,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I68" s="9">
         <f>VLOOKUP(A68,B:I,8,0)</f>
@@ -5693,7 +5719,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="9" t="str">
         <f>IF(C69&lt;&gt;"",C69,B69)</f>
@@ -5721,7 +5747,7 @@
         <v>green</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N69" s="9" t="str">
         <f>IF(M69="circle","&lt;circle cx="""&amp;I69&amp;""" cy="""&amp;J69&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I69-N$2&amp;""" y="""&amp;J69-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -5801,8 +5827,8 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:V1048576"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5827,45 +5853,45 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -5880,7 +5906,7 @@
       </c>
       <c r="E2" s="12" t="str">
         <f>TEXT(MIN(I5:I983),"#")&amp;" "&amp;TEXT(MAX(I5:I983),"#")</f>
-        <v>43 767</v>
+        <v>43 747</v>
       </c>
       <c r="F2" s="12" t="str">
         <f>TEXT(MIN(J5:J983),"#")&amp;" "&amp;TEXT(MAX(J5:J983),"#")</f>
@@ -5900,7 +5926,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -5910,115 +5936,118 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="S3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>140</v>
+        <v>227</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
@@ -6030,9 +6059,12 @@
       <c r="F5" s="7">
         <v>36.067230000000002</v>
       </c>
+      <c r="G5" s="3">
+        <v>-20</v>
+      </c>
       <c r="I5" s="9">
         <f>ROUND((E5-G$2)*I$2+G5,0)</f>
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="J5" s="9">
         <f>ROUND((H$2-F5)*J$2+H5,0)</f>
@@ -6043,35 +6075,35 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
-        <v xml:space="preserve">&lt;rect x="762" y="82" width="10" height="10" </v>
+        <v xml:space="preserve">&lt;rect x="742" y="82" width="10" height="10" </v>
       </c>
       <c r="O5" s="9" t="str">
         <f>"&lt;text x="""&amp;I5+C$2&amp;""" y="""&amp;J5+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
-        <v>&lt;text x="775" y="92" font-size="12"&gt;</v>
+        <v>&lt;text x="755" y="92" font-size="12"&gt;</v>
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="762" y="82" width="10" height="10" fill="green"/&gt;&lt;text x="775" y="92" font-size="12"&gt;兰州&lt;/text&gt;</v>
+        <v>&lt;rect x="742" y="82" width="10" height="10" fill="green"/&gt;&lt;text x="755" y="92" font-size="12"&gt;🚗兰州&lt;/text&gt;</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
-        <v xml:space="preserve">M767 87 </v>
+        <v xml:space="preserve">M747 87 </v>
       </c>
       <c r="W5" s="11" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5</f>
-        <v>M767 87</v>
+        <v>M747 87</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D32" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
@@ -6096,7 +6128,7 @@
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N17" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -6116,7 +6148,7 @@
       </c>
       <c r="S6" s="9">
         <f>ROUND((I5+I6)/2,0)</f>
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="T6" s="9">
         <f>J5</f>
@@ -6124,7 +6156,7 @@
       </c>
       <c r="U6" s="9">
         <f>ROUND((I5+I6)/2,0)</f>
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="V6" s="9">
         <f>ROUND((J5+J6)/2,0)</f>
@@ -6137,10 +6169,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6171,7 +6203,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6205,7 +6237,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6230,7 +6262,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6271,10 +6303,10 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6299,7 +6331,7 @@
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6340,7 +6372,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6365,7 +6397,7 @@
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6406,7 +6438,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6431,7 +6463,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6472,7 +6504,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6497,7 +6529,7 @@
         <v>green</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6538,10 +6570,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6566,7 +6598,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6607,10 +6639,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6635,7 +6667,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6676,10 +6708,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6710,7 +6742,7 @@
         <v>green</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6744,10 +6776,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6778,7 +6810,7 @@
         <v>green</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" ref="N16" si="14">IF(M16="circle","&lt;circle cx="""&amp;I16&amp;""" cy="""&amp;J16&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I16-N$2&amp;""" y="""&amp;J16-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -6812,10 +6844,10 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6836,14 +6868,14 @@
         <v>701</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="9" t="str">
         <f t="shared" si="3"/>
         <v>red</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6884,7 +6916,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I18" s="9">
         <f>VLOOKUP(A18,B:I,8,0)</f>
@@ -6925,7 +6957,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -6950,7 +6982,7 @@
         <v>green</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" ref="N19:N27" si="19">IF(M19="circle","&lt;circle cx="""&amp;I19&amp;""" cy="""&amp;J19&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I19-N$2&amp;""" y="""&amp;J19-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -6991,7 +7023,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7016,7 +7048,7 @@
         <v>green</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7057,7 +7089,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7082,7 +7114,7 @@
         <v>green</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7119,10 +7151,10 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7147,7 +7179,7 @@
         <v>green</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7188,10 +7220,10 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" ref="D23" si="23">IF(C23&lt;&gt;"",C23,B23)</f>
@@ -7222,7 +7254,7 @@
         <v>green</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7256,7 +7288,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7281,7 +7313,7 @@
         <v>green</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7322,7 +7354,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7347,7 +7379,7 @@
         <v>green</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7388,10 +7420,10 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7416,7 +7448,7 @@
         <v>green</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7457,10 +7489,10 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7491,7 +7523,7 @@
         <v>green</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N27" s="9" t="str">
         <f t="shared" si="19"/>
@@ -7525,7 +7557,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I28" s="9">
         <f>VLOOKUP(A28,B:I,8,0)</f>
@@ -7566,10 +7598,10 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7594,7 +7626,7 @@
         <v>green</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N29" s="9" t="str">
         <f t="shared" ref="N29:N32" si="27">IF(M29="circle","&lt;circle cx="""&amp;I29&amp;""" cy="""&amp;J29&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I29-N$2&amp;""" y="""&amp;J29-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -7635,10 +7667,10 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" ref="D30" si="31">IF(C30&lt;&gt;"",C30,B30)</f>
@@ -7669,7 +7701,7 @@
         <v>green</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N30" s="9" t="str">
         <f t="shared" si="27"/>
@@ -7703,10 +7735,10 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7731,7 +7763,7 @@
         <v>green</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="27"/>
@@ -7772,7 +7804,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -7797,7 +7829,7 @@
         <v>green</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N32" s="9" t="str">
         <f t="shared" si="27"/>
@@ -7831,7 +7863,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I33" s="9">
         <f>VLOOKUP(A33,B:I,8,0)</f>
@@ -7872,7 +7904,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I34" s="9">
         <f>VLOOKUP(A34,B:I,8,0)</f>
@@ -7913,10 +7945,10 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" ref="D35:D37" si="32">IF(C35&lt;&gt;"",C35,B35)</f>
@@ -7941,7 +7973,7 @@
         <v>green</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N35" s="9" t="str">
         <f t="shared" ref="N35:N37" si="35">IF(M35="circle","&lt;circle cx="""&amp;I35&amp;""" cy="""&amp;J35&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I35-N$2&amp;""" y="""&amp;J35-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -7982,10 +8014,10 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" si="32"/>
@@ -8016,7 +8048,7 @@
         <v>green</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N36" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8050,7 +8082,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" si="32"/>
@@ -8081,7 +8113,7 @@
         <v>green</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="35"/>
@@ -8118,11 +8150,11 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="I38" s="9">
         <f>VLOOKUP(A38,B:I,8,0)</f>
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="J38" s="9">
         <f>VLOOKUP(A38,B:J,9,0)</f>
@@ -8134,11 +8166,11 @@
       </c>
       <c r="R38" s="1" t="str">
         <f>SUBSTITUTE(Q$5,"M","L")</f>
-        <v xml:space="preserve">L767 87 </v>
+        <v xml:space="preserve">L747 87 </v>
       </c>
       <c r="S38" s="9">
         <f t="shared" si="7"/>
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="T38" s="9">
         <f t="shared" si="8"/>
@@ -8146,7 +8178,7 @@
       </c>
       <c r="U38" s="9">
         <f t="shared" si="24"/>
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="V38" s="9">
         <f t="shared" si="24"/>
@@ -8154,7 +8186,7 @@
       </c>
       <c r="W38" s="4" t="str">
         <f t="shared" ref="W38" si="39">"L"&amp;I38&amp;" "&amp;J38</f>
-        <v>L767 87</v>
+        <v>L747 87</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.4">
@@ -8287,7 +8319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8312,45 +8344,45 @@
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -8385,7 +8417,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -8395,115 +8427,118 @@
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="S3" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>179</v>
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
@@ -8528,7 +8563,7 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -8540,7 +8575,7 @@
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="380" y="770" width="10" height="10" fill="green"/&gt;&lt;text x="393" y="780" font-size="12"&gt;乌鲁木齐&lt;/text&gt;</v>
+        <v>&lt;rect x="380" y="770" width="10" height="10" fill="green"/&gt;&lt;text x="393" y="780" font-size="12"&gt;🚗乌鲁木齐&lt;/text&gt;</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
@@ -8557,10 +8592,10 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" ref="D6:D13" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
@@ -8585,7 +8620,7 @@
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N13" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -8626,10 +8661,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8654,7 +8689,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -8692,7 +8727,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8717,7 +8752,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -8758,7 +8793,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8786,7 +8821,7 @@
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -8827,10 +8862,10 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8855,7 +8890,7 @@
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -8896,10 +8931,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8927,7 +8962,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -8968,10 +9003,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -8996,7 +9031,7 @@
         <v>green</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9037,10 +9072,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -9065,7 +9100,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9106,7 +9141,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="I14" s="9">
         <f>VLOOKUP(A14,B:I,8,0)</f>
@@ -9171,7 +9206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9196,48 +9231,48 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2"/>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -9272,7 +9307,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -9282,114 +9317,117 @@
       </c>
       <c r="O2" s="2"/>
       <c r="Q2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>231</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="D5" s="14" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
@@ -9414,7 +9452,7 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -9426,7 +9464,7 @@
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;rect x="433" y="384" width="10" height="10" fill="green"/&gt;&lt;text x="446" y="394" font-size="12"&gt;海拉尔&lt;/text&gt;</v>
+        <v>&lt;rect x="433" y="384" width="10" height="10" fill="green"/&gt;&lt;text x="446" y="394" font-size="12"&gt;🚗海拉尔&lt;/text&gt;</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
@@ -9439,7 +9477,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" ref="D6:D9" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
@@ -9464,7 +9502,7 @@
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="9" t="str">
         <f t="shared" ref="N6:N23" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -9485,7 +9523,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9510,7 +9548,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9531,7 +9569,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9556,7 +9594,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9577,7 +9615,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -9605,7 +9643,7 @@
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9626,7 +9664,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I10" s="9">
         <f>VLOOKUP(A10,B:I,8,0)</f>
@@ -9647,7 +9685,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" ref="D11:D14" si="8">IF(C11&lt;&gt;"",C11,B11)</f>
@@ -9672,7 +9710,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9693,7 +9731,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="8"/>
@@ -9725,7 +9763,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="8"/>
@@ -9750,7 +9788,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9771,7 +9809,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="8"/>
@@ -9799,7 +9837,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9820,7 +9858,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I15" s="9">
         <f>VLOOKUP(A15,B:I,8,0)</f>
@@ -9841,7 +9879,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I16" s="9">
         <f>VLOOKUP(A16,B:I,8,0)</f>
@@ -9862,7 +9900,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" ref="D17:D20" si="11">IF(C17&lt;&gt;"",C17,B17)</f>
@@ -9887,7 +9925,7 @@
         <v>green</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9908,7 +9946,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D18" s="14" t="str">
         <f t="shared" si="11"/>
@@ -9933,7 +9971,7 @@
         <v>green</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" s="9" t="str">
         <f t="shared" si="4"/>
@@ -9954,7 +9992,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D19" s="14" t="str">
         <f t="shared" si="11"/>
@@ -9979,7 +10017,7 @@
         <v>green</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10000,7 +10038,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20" s="14" t="str">
         <f t="shared" si="11"/>
@@ -10025,7 +10063,7 @@
         <v>green</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N20" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10046,7 +10084,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I21" s="9">
         <f>VLOOKUP(A21,B:I,8,0)</f>
@@ -10067,7 +10105,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D22" s="14" t="str">
         <f t="shared" ref="D22:D23" si="14">IF(C22&lt;&gt;"",C22,B22)</f>
@@ -10099,7 +10137,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D23" s="14" t="str">
         <f t="shared" si="14"/>
@@ -10124,7 +10162,7 @@
         <v>green</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10145,7 +10183,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I24" s="9">
         <f>VLOOKUP(A24,B:I,8,0)</f>
@@ -10166,7 +10204,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="I25" s="9">
         <f>VLOOKUP(A25,B:I,8,0)</f>
@@ -10217,9 +10255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9108E7-1E7E-48C1-99BB-343439395924}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10244,48 +10282,48 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2"/>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -10320,7 +10358,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
@@ -10330,114 +10368,117 @@
       </c>
       <c r="O2" s="2"/>
       <c r="Q2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>233</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="D5" s="14" t="str">
         <f>IF(C5&lt;&gt;"",C5,B5)</f>
@@ -10462,7 +10503,7 @@
         <v>green</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" s="9" t="str">
         <f>IF(M5="circle","&lt;circle cx="""&amp;I5&amp;""" cy="""&amp;J5&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I5-N$2&amp;""" y="""&amp;J5-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
@@ -10474,7 +10515,7 @@
       </c>
       <c r="P5" s="4" t="str">
         <f>N5&amp;"fill="""&amp;L5&amp;"""/&gt;"&amp;O5&amp;B5&amp;"&lt;/text&gt;"</f>
-        <v>&lt;circle cx="312" cy="345" r="6" fill="green"/&gt;&lt;text x="320" y="350" font-size="12"&gt;丽江&lt;/text&gt;</v>
+        <v>&lt;circle cx="312" cy="345" r="6" fill="green"/&gt;&lt;text x="320" y="350" font-size="12"&gt;🚗丽江&lt;/text&gt;</v>
       </c>
       <c r="Q5" s="1" t="str">
         <f>"M"&amp;I5&amp;" "&amp;J5&amp;" "</f>
@@ -10487,7 +10528,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D6" s="14" t="str">
         <f t="shared" ref="D6:D17" si="0">IF(C6&lt;&gt;"",C6,B6)</f>
@@ -10508,22 +10549,22 @@
         <v>287</v>
       </c>
       <c r="L6" s="9" t="str">
-        <f t="shared" ref="L6:L23" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
+        <f t="shared" ref="L6:L17" si="3">IF(K6&lt;&gt;"",K6,L$2)</f>
         <v>green</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="9" t="str">
-        <f t="shared" ref="N6:N23" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
+        <f t="shared" ref="N6:N17" si="4">IF(M6="circle","&lt;circle cx="""&amp;I6&amp;""" cy="""&amp;J6&amp;""" r="""&amp;M$2&amp;""" ","&lt;rect x="""&amp;I6-N$2&amp;""" y="""&amp;J6-N$2&amp;""" width="""&amp;N$2*2&amp;""" height="""&amp;N$2*2&amp;""" ")</f>
         <v xml:space="preserve">&lt;circle cx="283" cy="287" r="6" </v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" ref="O6:O23" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
+        <f t="shared" ref="O6:O17" si="5">"&lt;text x="""&amp;I6+C$2&amp;""" y="""&amp;J6+D$2&amp;""" font-size="""&amp;B$2&amp;"""&gt;"</f>
         <v>&lt;text x="291" y="292" font-size="12"&gt;</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" ref="P6:P23" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
+        <f t="shared" ref="P6:P17" si="6">N6&amp;"fill="""&amp;L6&amp;"""/&gt;"&amp;O6&amp;B6&amp;"&lt;/text&gt;"</f>
         <v>&lt;circle cx="283" cy="287" r="6" fill="green"/&gt;&lt;text x="291" y="292" font-size="12"&gt;虎跳峡&lt;/text&gt;</v>
       </c>
       <c r="W6" s="4" t="str">
@@ -10533,7 +10574,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10558,7 +10599,7 @@
         <v>green</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10573,13 +10614,13 @@
         <v>&lt;circle cx="217" cy="159" r="6" fill="green"/&gt;&lt;text x="225" y="164" font-size="12"&gt;香格里拉&lt;/text&gt;</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" ref="W7:W17" si="7">"L"&amp;I7&amp;" "&amp;J7</f>
+        <f t="shared" ref="W7:W16" si="7">"L"&amp;I7&amp;" "&amp;J7</f>
         <v>L217 159</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10607,7 +10648,7 @@
         <v>green</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10625,7 +10666,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10653,7 +10694,7 @@
         <v>green</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10671,7 +10712,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10699,7 +10740,7 @@
         <v>green</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10717,7 +10758,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10745,7 +10786,7 @@
         <v>green</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10763,7 +10804,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D12" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10791,7 +10832,7 @@
         <v>green</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10809,7 +10850,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D13" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10837,7 +10878,7 @@
         <v>green</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10858,7 +10899,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10886,7 +10927,7 @@
         <v>green</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10907,7 +10948,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D15" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10935,7 +10976,7 @@
         <v>green</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="9" t="str">
         <f t="shared" si="4"/>
@@ -10956,7 +10997,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D16" s="14" t="str">
         <f t="shared" si="0"/>
@@ -10981,7 +11022,7 @@
         <v>green</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="9" t="str">
         <f t="shared" si="4"/>
@@ -11002,7 +11043,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D17" s="14" t="str">
         <f t="shared" si="0"/>
@@ -11030,7 +11071,7 @@
         <v>green</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -11116,107 +11157,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
